--- a/Pal Final/Prueba de datos.xlsx
+++ b/Pal Final/Prueba de datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarr1\OneDrive\Documentos\Arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D2321B-8D30-42C6-A61F-7DC6CA17BE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1A466E-C70E-4B73-9C23-2DEC3AA82C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="495" windowWidth="18165" windowHeight="10425" xr2:uid="{8120CF05-E762-4789-AD95-A6674811F4EC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4386" uniqueCount="2496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4833" uniqueCount="2942">
   <si>
     <t>Controlado</t>
   </si>
@@ -7523,6 +7523,1344 @@
   </si>
   <si>
     <t>15:39:00.624 -&gt; 35</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>2 149</t>
+  </si>
+  <si>
+    <t>4 148</t>
+  </si>
+  <si>
+    <t>9 147</t>
+  </si>
+  <si>
+    <t>15 146</t>
+  </si>
+  <si>
+    <t>23 145</t>
+  </si>
+  <si>
+    <t>32 144</t>
+  </si>
+  <si>
+    <t>42 143</t>
+  </si>
+  <si>
+    <t>52 142</t>
+  </si>
+  <si>
+    <t>63 141</t>
+  </si>
+  <si>
+    <t>73 140</t>
+  </si>
+  <si>
+    <t>84 139</t>
+  </si>
+  <si>
+    <t>95 138</t>
+  </si>
+  <si>
+    <t>105 137</t>
+  </si>
+  <si>
+    <t>116 136</t>
+  </si>
+  <si>
+    <t>126 135</t>
+  </si>
+  <si>
+    <t>136 134</t>
+  </si>
+  <si>
+    <t>146 133</t>
+  </si>
+  <si>
+    <t>155 132</t>
+  </si>
+  <si>
+    <t>164 131</t>
+  </si>
+  <si>
+    <t>173 130</t>
+  </si>
+  <si>
+    <t>181 129</t>
+  </si>
+  <si>
+    <t>188 130</t>
+  </si>
+  <si>
+    <t>194 131</t>
+  </si>
+  <si>
+    <t>204 132</t>
+  </si>
+  <si>
+    <t>216 133</t>
+  </si>
+  <si>
+    <t>229 132</t>
+  </si>
+  <si>
+    <t>239 131</t>
+  </si>
+  <si>
+    <t>246 130</t>
+  </si>
+  <si>
+    <t>250 129</t>
+  </si>
+  <si>
+    <t>251 128</t>
+  </si>
+  <si>
+    <t>251 127</t>
+  </si>
+  <si>
+    <t>249 126</t>
+  </si>
+  <si>
+    <t>247 125</t>
+  </si>
+  <si>
+    <t>243 124</t>
+  </si>
+  <si>
+    <t>239 123</t>
+  </si>
+  <si>
+    <t>235 122</t>
+  </si>
+  <si>
+    <t>230 121</t>
+  </si>
+  <si>
+    <t>225 120</t>
+  </si>
+  <si>
+    <t>220 119</t>
+  </si>
+  <si>
+    <t>215 118</t>
+  </si>
+  <si>
+    <t>209 117</t>
+  </si>
+  <si>
+    <t>204 116</t>
+  </si>
+  <si>
+    <t>198 115</t>
+  </si>
+  <si>
+    <t>193 114</t>
+  </si>
+  <si>
+    <t>188 113</t>
+  </si>
+  <si>
+    <t>183 112</t>
+  </si>
+  <si>
+    <t>178 111</t>
+  </si>
+  <si>
+    <t>174 110</t>
+  </si>
+  <si>
+    <t>169 109</t>
+  </si>
+  <si>
+    <t>164 108</t>
+  </si>
+  <si>
+    <t>160 107</t>
+  </si>
+  <si>
+    <t>156 108</t>
+  </si>
+  <si>
+    <t>155 109</t>
+  </si>
+  <si>
+    <t>158 110</t>
+  </si>
+  <si>
+    <t>165 111</t>
+  </si>
+  <si>
+    <t>175 112</t>
+  </si>
+  <si>
+    <t>187 113</t>
+  </si>
+  <si>
+    <t>200 114</t>
+  </si>
+  <si>
+    <t>215 115</t>
+  </si>
+  <si>
+    <t>230 116</t>
+  </si>
+  <si>
+    <t>246 115</t>
+  </si>
+  <si>
+    <t>258 114</t>
+  </si>
+  <si>
+    <t>267 113</t>
+  </si>
+  <si>
+    <t>272 112</t>
+  </si>
+  <si>
+    <t>274 111</t>
+  </si>
+  <si>
+    <t>274 110</t>
+  </si>
+  <si>
+    <t>273 109</t>
+  </si>
+  <si>
+    <t>271 108</t>
+  </si>
+  <si>
+    <t>267 107</t>
+  </si>
+  <si>
+    <t>263 106</t>
+  </si>
+  <si>
+    <t>258 105</t>
+  </si>
+  <si>
+    <t>253 104</t>
+  </si>
+  <si>
+    <t>248 103</t>
+  </si>
+  <si>
+    <t>243 102</t>
+  </si>
+  <si>
+    <t>237 101</t>
+  </si>
+  <si>
+    <t>232 100</t>
+  </si>
+  <si>
+    <t>226 99</t>
+  </si>
+  <si>
+    <t>220 98</t>
+  </si>
+  <si>
+    <t>215 97</t>
+  </si>
+  <si>
+    <t>209 96</t>
+  </si>
+  <si>
+    <t>204 95</t>
+  </si>
+  <si>
+    <t>199 96</t>
+  </si>
+  <si>
+    <t>196 97</t>
+  </si>
+  <si>
+    <t>199 98</t>
+  </si>
+  <si>
+    <t>205 99</t>
+  </si>
+  <si>
+    <t>214 100</t>
+  </si>
+  <si>
+    <t>225 101</t>
+  </si>
+  <si>
+    <t>238 102</t>
+  </si>
+  <si>
+    <t>251 103</t>
+  </si>
+  <si>
+    <t>265 104</t>
+  </si>
+  <si>
+    <t>280 105</t>
+  </si>
+  <si>
+    <t>295 106</t>
+  </si>
+  <si>
+    <t>310 107</t>
+  </si>
+  <si>
+    <t>326 108</t>
+  </si>
+  <si>
+    <t>341 109</t>
+  </si>
+  <si>
+    <t>356 108</t>
+  </si>
+  <si>
+    <t>368 107</t>
+  </si>
+  <si>
+    <t>374 106</t>
+  </si>
+  <si>
+    <t>378 105</t>
+  </si>
+  <si>
+    <t>378 104</t>
+  </si>
+  <si>
+    <t>377 103</t>
+  </si>
+  <si>
+    <t>373 102</t>
+  </si>
+  <si>
+    <t>368 101</t>
+  </si>
+  <si>
+    <t>363 100</t>
+  </si>
+  <si>
+    <t>356 99</t>
+  </si>
+  <si>
+    <t>349 98</t>
+  </si>
+  <si>
+    <t>342 97</t>
+  </si>
+  <si>
+    <t>334 96</t>
+  </si>
+  <si>
+    <t>327 95</t>
+  </si>
+  <si>
+    <t>319 94</t>
+  </si>
+  <si>
+    <t>311 93</t>
+  </si>
+  <si>
+    <t>303 92</t>
+  </si>
+  <si>
+    <t>296 91</t>
+  </si>
+  <si>
+    <t>288 90</t>
+  </si>
+  <si>
+    <t>281 89</t>
+  </si>
+  <si>
+    <t>274 88</t>
+  </si>
+  <si>
+    <t>267 87</t>
+  </si>
+  <si>
+    <t>260 86</t>
+  </si>
+  <si>
+    <t>253 85</t>
+  </si>
+  <si>
+    <t>246 84</t>
+  </si>
+  <si>
+    <t>239 83</t>
+  </si>
+  <si>
+    <t>233 82</t>
+  </si>
+  <si>
+    <t>227 81</t>
+  </si>
+  <si>
+    <t>221 80</t>
+  </si>
+  <si>
+    <t>216 79</t>
+  </si>
+  <si>
+    <t>209 78</t>
+  </si>
+  <si>
+    <t>204 79</t>
+  </si>
+  <si>
+    <t>202 80</t>
+  </si>
+  <si>
+    <t>204 81</t>
+  </si>
+  <si>
+    <t>210 82</t>
+  </si>
+  <si>
+    <t>219 83</t>
+  </si>
+  <si>
+    <t>230 84</t>
+  </si>
+  <si>
+    <t>242 85</t>
+  </si>
+  <si>
+    <t>256 86</t>
+  </si>
+  <si>
+    <t>270 87</t>
+  </si>
+  <si>
+    <t>285 88</t>
+  </si>
+  <si>
+    <t>300 89</t>
+  </si>
+  <si>
+    <t>316 90</t>
+  </si>
+  <si>
+    <t>331 91</t>
+  </si>
+  <si>
+    <t>346 92</t>
+  </si>
+  <si>
+    <t>361 93</t>
+  </si>
+  <si>
+    <t>376 94</t>
+  </si>
+  <si>
+    <t>391 95</t>
+  </si>
+  <si>
+    <t>405 96</t>
+  </si>
+  <si>
+    <t>419 97</t>
+  </si>
+  <si>
+    <t>433 96</t>
+  </si>
+  <si>
+    <t>443 96</t>
+  </si>
+  <si>
+    <t>449 96</t>
+  </si>
+  <si>
+    <t>451 96</t>
+  </si>
+  <si>
+    <t>446 96</t>
+  </si>
+  <si>
+    <t>441 96</t>
+  </si>
+  <si>
+    <t>435 96</t>
+  </si>
+  <si>
+    <t>428 96</t>
+  </si>
+  <si>
+    <t>420 96</t>
+  </si>
+  <si>
+    <t>411 96</t>
+  </si>
+  <si>
+    <t>403 96</t>
+  </si>
+  <si>
+    <t>393 96</t>
+  </si>
+  <si>
+    <t>384 96</t>
+  </si>
+  <si>
+    <t>375 96</t>
+  </si>
+  <si>
+    <t>366 96</t>
+  </si>
+  <si>
+    <t>357 96</t>
+  </si>
+  <si>
+    <t>348 96</t>
+  </si>
+  <si>
+    <t>339 96</t>
+  </si>
+  <si>
+    <t>330 96</t>
+  </si>
+  <si>
+    <t>322 96</t>
+  </si>
+  <si>
+    <t>314 96</t>
+  </si>
+  <si>
+    <t>305 96</t>
+  </si>
+  <si>
+    <t>297 96</t>
+  </si>
+  <si>
+    <t>289 96</t>
+  </si>
+  <si>
+    <t>282 96</t>
+  </si>
+  <si>
+    <t>274 96</t>
+  </si>
+  <si>
+    <t>267 96</t>
+  </si>
+  <si>
+    <t>260 96</t>
+  </si>
+  <si>
+    <t>253 96</t>
+  </si>
+  <si>
+    <t>247 95</t>
+  </si>
+  <si>
+    <t>240 96</t>
+  </si>
+  <si>
+    <t>237 97</t>
+  </si>
+  <si>
+    <t>239 98</t>
+  </si>
+  <si>
+    <t>244 99</t>
+  </si>
+  <si>
+    <t>252 100</t>
+  </si>
+  <si>
+    <t>262 101</t>
+  </si>
+  <si>
+    <t>274 102</t>
+  </si>
+  <si>
+    <t>287 103</t>
+  </si>
+  <si>
+    <t>300 104</t>
+  </si>
+  <si>
+    <t>315 105</t>
+  </si>
+  <si>
+    <t>329 106</t>
+  </si>
+  <si>
+    <t>344 107</t>
+  </si>
+  <si>
+    <t>358 108</t>
+  </si>
+  <si>
+    <t>373 109</t>
+  </si>
+  <si>
+    <t>388 110</t>
+  </si>
+  <si>
+    <t>402 111</t>
+  </si>
+  <si>
+    <t>416 112</t>
+  </si>
+  <si>
+    <t>430 113</t>
+  </si>
+  <si>
+    <t>444 114</t>
+  </si>
+  <si>
+    <t>457 115</t>
+  </si>
+  <si>
+    <t>470 116</t>
+  </si>
+  <si>
+    <t>482 117</t>
+  </si>
+  <si>
+    <t>495 118</t>
+  </si>
+  <si>
+    <t>507 119</t>
+  </si>
+  <si>
+    <t>518 118</t>
+  </si>
+  <si>
+    <t>526 117</t>
+  </si>
+  <si>
+    <t>530 116</t>
+  </si>
+  <si>
+    <t>529 115</t>
+  </si>
+  <si>
+    <t>526 114</t>
+  </si>
+  <si>
+    <t>521 113</t>
+  </si>
+  <si>
+    <t>514 112</t>
+  </si>
+  <si>
+    <t>506 111</t>
+  </si>
+  <si>
+    <t>496 110</t>
+  </si>
+  <si>
+    <t>487 109</t>
+  </si>
+  <si>
+    <t>477 108</t>
+  </si>
+  <si>
+    <t>466 107</t>
+  </si>
+  <si>
+    <t>456 106</t>
+  </si>
+  <si>
+    <t>445 105</t>
+  </si>
+  <si>
+    <t>434 104</t>
+  </si>
+  <si>
+    <t>424 103</t>
+  </si>
+  <si>
+    <t>413 102</t>
+  </si>
+  <si>
+    <t>403 101</t>
+  </si>
+  <si>
+    <t>392 100</t>
+  </si>
+  <si>
+    <t>382 99</t>
+  </si>
+  <si>
+    <t>372 98</t>
+  </si>
+  <si>
+    <t>363 97</t>
+  </si>
+  <si>
+    <t>353 96</t>
+  </si>
+  <si>
+    <t>344 95</t>
+  </si>
+  <si>
+    <t>335 94</t>
+  </si>
+  <si>
+    <t>327 93</t>
+  </si>
+  <si>
+    <t>318 92</t>
+  </si>
+  <si>
+    <t>310 91</t>
+  </si>
+  <si>
+    <t>302 90</t>
+  </si>
+  <si>
+    <t>294 89</t>
+  </si>
+  <si>
+    <t>287 88</t>
+  </si>
+  <si>
+    <t>279 89</t>
+  </si>
+  <si>
+    <t>275 90</t>
+  </si>
+  <si>
+    <t>275 91</t>
+  </si>
+  <si>
+    <t>280 92</t>
+  </si>
+  <si>
+    <t>287 93</t>
+  </si>
+  <si>
+    <t>296 94</t>
+  </si>
+  <si>
+    <t>307 95</t>
+  </si>
+  <si>
+    <t>319 96</t>
+  </si>
+  <si>
+    <t>332 97</t>
+  </si>
+  <si>
+    <t>345 98</t>
+  </si>
+  <si>
+    <t>359 99</t>
+  </si>
+  <si>
+    <t>373 100</t>
+  </si>
+  <si>
+    <t>387 101</t>
+  </si>
+  <si>
+    <t>400 102</t>
+  </si>
+  <si>
+    <t>415 103</t>
+  </si>
+  <si>
+    <t>428 104</t>
+  </si>
+  <si>
+    <t>442 105</t>
+  </si>
+  <si>
+    <t>455 106</t>
+  </si>
+  <si>
+    <t>468 107</t>
+  </si>
+  <si>
+    <t>481 108</t>
+  </si>
+  <si>
+    <t>493 109</t>
+  </si>
+  <si>
+    <t>505 110</t>
+  </si>
+  <si>
+    <t>518 111</t>
+  </si>
+  <si>
+    <t>529 112</t>
+  </si>
+  <si>
+    <t>541 111</t>
+  </si>
+  <si>
+    <t>548 110</t>
+  </si>
+  <si>
+    <t>551 109</t>
+  </si>
+  <si>
+    <t>550 108</t>
+  </si>
+  <si>
+    <t>547 107</t>
+  </si>
+  <si>
+    <t>541 106</t>
+  </si>
+  <si>
+    <t>534 105</t>
+  </si>
+  <si>
+    <t>525 104</t>
+  </si>
+  <si>
+    <t>516 103</t>
+  </si>
+  <si>
+    <t>506 102</t>
+  </si>
+  <si>
+    <t>495 101</t>
+  </si>
+  <si>
+    <t>484 100</t>
+  </si>
+  <si>
+    <t>473 99</t>
+  </si>
+  <si>
+    <t>462 98</t>
+  </si>
+  <si>
+    <t>451 97</t>
+  </si>
+  <si>
+    <t>440 96</t>
+  </si>
+  <si>
+    <t>429 95</t>
+  </si>
+  <si>
+    <t>418 94</t>
+  </si>
+  <si>
+    <t>407 93</t>
+  </si>
+  <si>
+    <t>397 92</t>
+  </si>
+  <si>
+    <t>387 91</t>
+  </si>
+  <si>
+    <t>377 90</t>
+  </si>
+  <si>
+    <t>367 89</t>
+  </si>
+  <si>
+    <t>358 88</t>
+  </si>
+  <si>
+    <t>348 87</t>
+  </si>
+  <si>
+    <t>340 86</t>
+  </si>
+  <si>
+    <t>331 85</t>
+  </si>
+  <si>
+    <t>322 84</t>
+  </si>
+  <si>
+    <t>314 83</t>
+  </si>
+  <si>
+    <t>306 82</t>
+  </si>
+  <si>
+    <t>298 81</t>
+  </si>
+  <si>
+    <t>290 80</t>
+  </si>
+  <si>
+    <t>283 79</t>
+  </si>
+  <si>
+    <t>275 78</t>
+  </si>
+  <si>
+    <t>269 77</t>
+  </si>
+  <si>
+    <t>262 76</t>
+  </si>
+  <si>
+    <t>255 75</t>
+  </si>
+  <si>
+    <t>249 74</t>
+  </si>
+  <si>
+    <t>242 73</t>
+  </si>
+  <si>
+    <t>236 72</t>
+  </si>
+  <si>
+    <t>230 71</t>
+  </si>
+  <si>
+    <t>225 70</t>
+  </si>
+  <si>
+    <t>219 69</t>
+  </si>
+  <si>
+    <t>214 68</t>
+  </si>
+  <si>
+    <t>208 67</t>
+  </si>
+  <si>
+    <t>203 66</t>
+  </si>
+  <si>
+    <t>198 65</t>
+  </si>
+  <si>
+    <t>193 64</t>
+  </si>
+  <si>
+    <t>188 63</t>
+  </si>
+  <si>
+    <t>184 62</t>
+  </si>
+  <si>
+    <t>179 61</t>
+  </si>
+  <si>
+    <t>175 60</t>
+  </si>
+  <si>
+    <t>170 59</t>
+  </si>
+  <si>
+    <t>166 58</t>
+  </si>
+  <si>
+    <t>162 57</t>
+  </si>
+  <si>
+    <t>158 56</t>
+  </si>
+  <si>
+    <t>154 55</t>
+  </si>
+  <si>
+    <t>151 54</t>
+  </si>
+  <si>
+    <t>147 53</t>
+  </si>
+  <si>
+    <t>143 52</t>
+  </si>
+  <si>
+    <t>140 51</t>
+  </si>
+  <si>
+    <t>137 50</t>
+  </si>
+  <si>
+    <t>134 49</t>
+  </si>
+  <si>
+    <t>130 48</t>
+  </si>
+  <si>
+    <t>127 47</t>
+  </si>
+  <si>
+    <t>124 46</t>
+  </si>
+  <si>
+    <t>121 45</t>
+  </si>
+  <si>
+    <t>118 44</t>
+  </si>
+  <si>
+    <t>116 43</t>
+  </si>
+  <si>
+    <t>113 42</t>
+  </si>
+  <si>
+    <t>110 41</t>
+  </si>
+  <si>
+    <t>107 40</t>
+  </si>
+  <si>
+    <t>105 39</t>
+  </si>
+  <si>
+    <t>103 38</t>
+  </si>
+  <si>
+    <t>101 37</t>
+  </si>
+  <si>
+    <t>99 36</t>
+  </si>
+  <si>
+    <t>99 35</t>
+  </si>
+  <si>
+    <t>98 34</t>
+  </si>
+  <si>
+    <t>99 33</t>
+  </si>
+  <si>
+    <t>99 32</t>
+  </si>
+  <si>
+    <t>99 31</t>
+  </si>
+  <si>
+    <t>100 30</t>
+  </si>
+  <si>
+    <t>100 29</t>
+  </si>
+  <si>
+    <t>101 28</t>
+  </si>
+  <si>
+    <t>102 27</t>
+  </si>
+  <si>
+    <t>102 26</t>
+  </si>
+  <si>
+    <t>102 25</t>
+  </si>
+  <si>
+    <t>103 24</t>
+  </si>
+  <si>
+    <t>103 23</t>
+  </si>
+  <si>
+    <t>104 22</t>
+  </si>
+  <si>
+    <t>104 21</t>
+  </si>
+  <si>
+    <t>104 20</t>
+  </si>
+  <si>
+    <t>104 19</t>
+  </si>
+  <si>
+    <t>104 18</t>
+  </si>
+  <si>
+    <t>104 17</t>
+  </si>
+  <si>
+    <t>103 16</t>
+  </si>
+  <si>
+    <t>103 15</t>
+  </si>
+  <si>
+    <t>102 14</t>
+  </si>
+  <si>
+    <t>102 13</t>
+  </si>
+  <si>
+    <t>101 12</t>
+  </si>
+  <si>
+    <t>100 11</t>
+  </si>
+  <si>
+    <t>100 10</t>
+  </si>
+  <si>
+    <t>99 9</t>
+  </si>
+  <si>
+    <t>98 8</t>
+  </si>
+  <si>
+    <t>97 7</t>
+  </si>
+  <si>
+    <t>95 6</t>
+  </si>
+  <si>
+    <t>94 5</t>
+  </si>
+  <si>
+    <t>93 4</t>
+  </si>
+  <si>
+    <t>92 3</t>
+  </si>
+  <si>
+    <t>90 2</t>
+  </si>
+  <si>
+    <t>89 1</t>
+  </si>
+  <si>
+    <t>88 0</t>
+  </si>
+  <si>
+    <t>86 -1</t>
+  </si>
+  <si>
+    <t>84 -2</t>
+  </si>
+  <si>
+    <t>86 -3</t>
+  </si>
+  <si>
+    <t>91 -4</t>
+  </si>
+  <si>
+    <t>101 -5</t>
+  </si>
+  <si>
+    <t>113 -6</t>
+  </si>
+  <si>
+    <t>127 -7</t>
+  </si>
+  <si>
+    <t>142 -8</t>
+  </si>
+  <si>
+    <t>158 -9</t>
+  </si>
+  <si>
+    <t>174 -10</t>
+  </si>
+  <si>
+    <t>191 -11</t>
+  </si>
+  <si>
+    <t>209 -12</t>
+  </si>
+  <si>
+    <t>226 -13</t>
+  </si>
+  <si>
+    <t>243 -14</t>
+  </si>
+  <si>
+    <t>260 -15</t>
+  </si>
+  <si>
+    <t>277 -16</t>
+  </si>
+  <si>
+    <t>293 -17</t>
+  </si>
+  <si>
+    <t>309 -18</t>
+  </si>
+  <si>
+    <t>324 -19</t>
+  </si>
+  <si>
+    <t>340 -20</t>
+  </si>
+  <si>
+    <t>354 -21</t>
+  </si>
+  <si>
+    <t>369 -22</t>
+  </si>
+  <si>
+    <t>383 -23</t>
+  </si>
+  <si>
+    <t>396 -24</t>
+  </si>
+  <si>
+    <t>409 -25</t>
+  </si>
+  <si>
+    <t>422 -26</t>
+  </si>
+  <si>
+    <t>434 -27</t>
+  </si>
+  <si>
+    <t>445 -28</t>
+  </si>
+  <si>
+    <t>457 -29</t>
+  </si>
+  <si>
+    <t>468 -30</t>
+  </si>
+  <si>
+    <t>479 -31</t>
+  </si>
+  <si>
+    <t>489 -32</t>
+  </si>
+  <si>
+    <t>498 -33</t>
+  </si>
+  <si>
+    <t>508 -34</t>
+  </si>
+  <si>
+    <t>517 -35</t>
+  </si>
+  <si>
+    <t>525 -36</t>
+  </si>
+  <si>
+    <t>533 -37</t>
+  </si>
+  <si>
+    <t>541 -38</t>
+  </si>
+  <si>
+    <t>549 -39</t>
+  </si>
+  <si>
+    <t>557 -40</t>
+  </si>
+  <si>
+    <t>564 -41</t>
+  </si>
+  <si>
+    <t>570 -42</t>
+  </si>
+  <si>
+    <t>576 -43</t>
+  </si>
+  <si>
+    <t>583 -44</t>
+  </si>
+  <si>
+    <t>589 -45</t>
+  </si>
+  <si>
+    <t>594 -46</t>
+  </si>
+  <si>
+    <t>600 -47</t>
+  </si>
+  <si>
+    <t>605 -48</t>
+  </si>
+  <si>
+    <t>610 -49</t>
+  </si>
+  <si>
+    <t>614 -50</t>
+  </si>
+  <si>
+    <t>618 -51</t>
+  </si>
+  <si>
+    <t>623 -52</t>
+  </si>
+  <si>
+    <t>626 -53</t>
+  </si>
+  <si>
+    <t>630 -54</t>
+  </si>
+  <si>
+    <t>634 -55</t>
+  </si>
+  <si>
+    <t>637 -56</t>
+  </si>
+  <si>
+    <t>641 -57</t>
+  </si>
+  <si>
+    <t>643 -58</t>
+  </si>
+  <si>
+    <t>646 -59</t>
+  </si>
+  <si>
+    <t>648 -60</t>
+  </si>
+  <si>
+    <t>651 -61</t>
+  </si>
+  <si>
+    <t>654 -62</t>
+  </si>
+  <si>
+    <t>655 -63</t>
+  </si>
+  <si>
+    <t>657 -64</t>
+  </si>
+  <si>
+    <t>659 -65</t>
+  </si>
+  <si>
+    <t>661 -66</t>
+  </si>
+  <si>
+    <t>662 -67</t>
+  </si>
+  <si>
+    <t>663 -68</t>
+  </si>
+  <si>
+    <t>665 -69</t>
+  </si>
+  <si>
+    <t>666 -70</t>
+  </si>
+  <si>
+    <t>667 -71</t>
+  </si>
+  <si>
+    <t>668 -72</t>
+  </si>
+  <si>
+    <t>668 -73</t>
+  </si>
+  <si>
+    <t>669 -74</t>
+  </si>
+  <si>
+    <t>669 -75</t>
+  </si>
+  <si>
+    <t>670 -76</t>
+  </si>
+  <si>
+    <t>670 -77</t>
+  </si>
+  <si>
+    <t>670 -78</t>
+  </si>
+  <si>
+    <t>670 -79</t>
   </si>
 </sst>
 </file>
@@ -14182,6 +15520,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>55524</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>75286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38F7F917-282E-B18B-2377-A751F9884E8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="39624000" y="190500"/>
+          <a:ext cx="13009524" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>55524</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>75286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39479D91-B600-F879-5479-9D3CD296F685}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="39624000" y="8001000"/>
+          <a:ext cx="13009524" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14482,15 +15908,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7C21CB-B8C2-4DEE-9965-2578A187D963}">
-  <dimension ref="B1:AD3030"/>
+  <dimension ref="B1:AY3030"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5147" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O23581" sqref="O23581"/>
+    <sheetView tabSelected="1" topLeftCell="AK28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="BA43" sqref="BA43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -14512,8 +15938,14 @@
       <c r="AD1" t="s">
         <v>1250</v>
       </c>
-    </row>
-    <row r="2" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG1" t="s">
+        <v>2496</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="2" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>0</v>
       </c>
@@ -14535,8 +15967,14 @@
       <c r="AD2" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG2">
+        <v>57</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="3" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
@@ -14558,8 +15996,14 @@
       <c r="AD3" t="s">
         <v>1252</v>
       </c>
-    </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG3">
+        <v>57</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="4" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0</v>
       </c>
@@ -14581,8 +16025,14 @@
       <c r="AD4" t="s">
         <v>1253</v>
       </c>
-    </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG4">
+        <v>57</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="5" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0</v>
       </c>
@@ -14604,8 +16054,14 @@
       <c r="AD5" t="s">
         <v>1254</v>
       </c>
-    </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG5">
+        <v>56</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="6" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0</v>
       </c>
@@ -14627,8 +16083,14 @@
       <c r="AD6" t="s">
         <v>1254</v>
       </c>
-    </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG6">
+        <v>55</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="7" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0</v>
       </c>
@@ -14650,8 +16112,14 @@
       <c r="AD7" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG7">
+        <v>53</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="8" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0</v>
       </c>
@@ -14673,8 +16141,14 @@
       <c r="AD8" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG8">
+        <v>52</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="9" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>0</v>
       </c>
@@ -14696,8 +16170,14 @@
       <c r="AD9" t="s">
         <v>1256</v>
       </c>
-    </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG9">
+        <v>51</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="10" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0</v>
       </c>
@@ -14719,8 +16199,14 @@
       <c r="AD10" t="s">
         <v>1256</v>
       </c>
-    </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG10">
+        <v>50</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="11" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>0</v>
       </c>
@@ -14742,8 +16228,14 @@
       <c r="AD11" t="s">
         <v>1257</v>
       </c>
-    </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG11">
+        <v>49</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="12" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>0</v>
       </c>
@@ -14765,8 +16257,14 @@
       <c r="AD12" t="s">
         <v>1257</v>
       </c>
-    </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG12">
+        <v>48</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="13" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0</v>
       </c>
@@ -14788,8 +16286,14 @@
       <c r="AD13" t="s">
         <v>1258</v>
       </c>
-    </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG13">
+        <v>47</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="14" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>0</v>
       </c>
@@ -14811,8 +16315,14 @@
       <c r="AD14" t="s">
         <v>1258</v>
       </c>
-    </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG14">
+        <v>46</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="15" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>0</v>
       </c>
@@ -14834,8 +16344,14 @@
       <c r="AD15" t="s">
         <v>1259</v>
       </c>
-    </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG15">
+        <v>44</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="16" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0</v>
       </c>
@@ -14857,8 +16373,14 @@
       <c r="AD16" t="s">
         <v>1260</v>
       </c>
-    </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG16">
+        <v>43</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="17" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0</v>
       </c>
@@ -14880,8 +16402,14 @@
       <c r="AD17" t="s">
         <v>1261</v>
       </c>
-    </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG17">
+        <v>42</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="18" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0</v>
       </c>
@@ -14903,8 +16431,14 @@
       <c r="AD18" t="s">
         <v>1262</v>
       </c>
-    </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG18">
+        <v>41</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="19" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0</v>
       </c>
@@ -14926,8 +16460,14 @@
       <c r="AD19" t="s">
         <v>1263</v>
       </c>
-    </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG19">
+        <v>40</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="20" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>0</v>
       </c>
@@ -14949,8 +16489,14 @@
       <c r="AD20" t="s">
         <v>1264</v>
       </c>
-    </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG20">
+        <v>39</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="21" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0</v>
       </c>
@@ -14972,8 +16518,14 @@
       <c r="AD21" t="s">
         <v>1265</v>
       </c>
-    </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG21">
+        <v>38</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="22" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0</v>
       </c>
@@ -14995,8 +16547,14 @@
       <c r="AD22" t="s">
         <v>1265</v>
       </c>
-    </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG22">
+        <v>37</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="23" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0</v>
       </c>
@@ -15018,8 +16576,14 @@
       <c r="AD23" t="s">
         <v>1266</v>
       </c>
-    </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG23">
+        <v>39</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="24" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>2</v>
       </c>
@@ -15041,8 +16605,14 @@
       <c r="AD24" t="s">
         <v>1266</v>
       </c>
-    </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG24">
+        <v>46</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="25" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>8</v>
       </c>
@@ -15064,8 +16634,14 @@
       <c r="AD25" t="s">
         <v>1267</v>
       </c>
-    </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG25">
+        <v>56</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="26" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>16</v>
       </c>
@@ -15087,8 +16663,14 @@
       <c r="AD26" t="s">
         <v>1267</v>
       </c>
-    </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG26">
+        <v>69</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="27" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>26</v>
       </c>
@@ -15110,8 +16692,14 @@
       <c r="AD27" t="s">
         <v>1268</v>
       </c>
-    </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG27">
+        <v>81</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="28" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>38</v>
       </c>
@@ -15133,8 +16721,14 @@
       <c r="AD28" t="s">
         <v>1269</v>
       </c>
-    </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG28">
+        <v>89</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="29" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>51</v>
       </c>
@@ -15156,8 +16750,14 @@
       <c r="AD29" t="s">
         <v>1270</v>
       </c>
-    </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG29">
+        <v>95</v>
+      </c>
+      <c r="AY29" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="30" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>65</v>
       </c>
@@ -15179,8 +16779,14 @@
       <c r="AD30" t="s">
         <v>1270</v>
       </c>
-    </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG30">
+        <v>99</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="31" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>79</v>
       </c>
@@ -15202,8 +16808,14 @@
       <c r="AD31" t="s">
         <v>1271</v>
       </c>
-    </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG31">
+        <v>101</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="32" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>94</v>
       </c>
@@ -15225,8 +16837,14 @@
       <c r="AD32" t="s">
         <v>1271</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG32">
+        <v>103</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="33" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>110</v>
       </c>
@@ -15248,8 +16866,14 @@
       <c r="AD33" t="s">
         <v>1272</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG33">
+        <v>104</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="34" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>125</v>
       </c>
@@ -15271,8 +16895,14 @@
       <c r="AD34" t="s">
         <v>1273</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG34">
+        <v>103</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="35" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>141</v>
       </c>
@@ -15294,8 +16924,14 @@
       <c r="AD35" t="s">
         <v>1274</v>
       </c>
-    </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG35">
+        <v>103</v>
+      </c>
+      <c r="AY35" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="36" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>157</v>
       </c>
@@ -15317,8 +16953,14 @@
       <c r="AD36" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG36">
+        <v>102</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="37" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>172</v>
       </c>
@@ -15340,8 +16982,14 @@
       <c r="AD37" t="s">
         <v>1276</v>
       </c>
-    </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG37">
+        <v>100</v>
+      </c>
+      <c r="AY37" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="38" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>187</v>
       </c>
@@ -15363,8 +17011,14 @@
       <c r="AD38" t="s">
         <v>1276</v>
       </c>
-    </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG38">
+        <v>98</v>
+      </c>
+      <c r="AY38" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="39" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>203</v>
       </c>
@@ -15386,8 +17040,14 @@
       <c r="AD39" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG39">
+        <v>96</v>
+      </c>
+      <c r="AY39" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="40" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>217</v>
       </c>
@@ -15409,8 +17069,14 @@
       <c r="AD40" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG40">
+        <v>94</v>
+      </c>
+      <c r="AY40" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="41" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>232</v>
       </c>
@@ -15432,8 +17098,14 @@
       <c r="AD41" t="s">
         <v>1278</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG41">
+        <v>93</v>
+      </c>
+      <c r="AY41" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="42" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>246</v>
       </c>
@@ -15455,8 +17127,14 @@
       <c r="AD42" t="s">
         <v>1279</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG42">
+        <v>90</v>
+      </c>
+      <c r="AY42" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="43" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>259</v>
       </c>
@@ -15478,8 +17156,14 @@
       <c r="AD43" t="s">
         <v>1280</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG43">
+        <v>88</v>
+      </c>
+      <c r="AY43" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="44" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>272</v>
       </c>
@@ -15501,8 +17185,14 @@
       <c r="AD44" t="s">
         <v>1281</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG44">
+        <v>86</v>
+      </c>
+      <c r="AY44" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="45" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>285</v>
       </c>
@@ -15524,8 +17214,14 @@
       <c r="AD45" t="s">
         <v>1282</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG45">
+        <v>84</v>
+      </c>
+      <c r="AY45" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="46" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>298</v>
       </c>
@@ -15547,8 +17243,14 @@
       <c r="AD46" t="s">
         <v>1283</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG46">
+        <v>82</v>
+      </c>
+      <c r="AY46" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="47" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>309</v>
       </c>
@@ -15570,8 +17272,14 @@
       <c r="AD47" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG47">
+        <v>80</v>
+      </c>
+      <c r="AY47" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="48" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>321</v>
       </c>
@@ -15593,8 +17301,14 @@
       <c r="AD48" t="s">
         <v>1285</v>
       </c>
-    </row>
-    <row r="49" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG48">
+        <v>78</v>
+      </c>
+      <c r="AY48" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="49" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>332</v>
       </c>
@@ -15616,8 +17330,14 @@
       <c r="AD49" t="s">
         <v>1286</v>
       </c>
-    </row>
-    <row r="50" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG49">
+        <v>76</v>
+      </c>
+      <c r="AY49" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="50" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>342</v>
       </c>
@@ -15639,8 +17359,14 @@
       <c r="AD50" t="s">
         <v>1287</v>
       </c>
-    </row>
-    <row r="51" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG50">
+        <v>73</v>
+      </c>
+      <c r="AY50" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="51" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>351</v>
       </c>
@@ -15662,8 +17388,14 @@
       <c r="AD51" t="s">
         <v>1288</v>
       </c>
-    </row>
-    <row r="52" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG51">
+        <v>71</v>
+      </c>
+      <c r="AY51" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="52" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>361</v>
       </c>
@@ -15685,8 +17417,14 @@
       <c r="AD52" t="s">
         <v>1289</v>
       </c>
-    </row>
-    <row r="53" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG52">
+        <v>70</v>
+      </c>
+      <c r="AY52" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="53" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>369</v>
       </c>
@@ -15708,8 +17446,14 @@
       <c r="AD53" t="s">
         <v>1290</v>
       </c>
-    </row>
-    <row r="54" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG53">
+        <v>71</v>
+      </c>
+      <c r="AY53" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="54" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>377</v>
       </c>
@@ -15731,8 +17475,14 @@
       <c r="AD54" t="s">
         <v>1291</v>
       </c>
-    </row>
-    <row r="55" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG54">
+        <v>77</v>
+      </c>
+      <c r="AY54" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="55" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>385</v>
       </c>
@@ -15754,8 +17504,14 @@
       <c r="AD55" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="56" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG55">
+        <v>86</v>
+      </c>
+      <c r="AY55" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="56" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>392</v>
       </c>
@@ -15777,8 +17533,14 @@
       <c r="AD56" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="57" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG56">
+        <v>99</v>
+      </c>
+      <c r="AY56" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="57" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>398</v>
       </c>
@@ -15800,8 +17562,14 @@
       <c r="AD57" t="s">
         <v>1294</v>
       </c>
-    </row>
-    <row r="58" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG57">
+        <v>112</v>
+      </c>
+      <c r="AY57" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="58" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>403</v>
       </c>
@@ -15823,8 +17591,14 @@
       <c r="AD58" t="s">
         <v>1295</v>
       </c>
-    </row>
-    <row r="59" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG58">
+        <v>128</v>
+      </c>
+      <c r="AY58" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="59" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>409</v>
       </c>
@@ -15846,8 +17620,14 @@
       <c r="AD59" t="s">
         <v>1296</v>
       </c>
-    </row>
-    <row r="60" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG59">
+        <v>144</v>
+      </c>
+      <c r="AY59" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="60" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>414</v>
       </c>
@@ -15869,8 +17649,14 @@
       <c r="AD60" t="s">
         <v>1297</v>
       </c>
-    </row>
-    <row r="61" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG60">
+        <v>161</v>
+      </c>
+      <c r="AY60" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="61" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>418</v>
       </c>
@@ -15892,8 +17678,14 @@
       <c r="AD61" t="s">
         <v>1298</v>
       </c>
-    </row>
-    <row r="62" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG61">
+        <v>178</v>
+      </c>
+      <c r="AY61" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="62" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>422</v>
       </c>
@@ -15915,8 +17707,14 @@
       <c r="AD62" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="63" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG62">
+        <v>192</v>
+      </c>
+      <c r="AY62" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="63" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>425</v>
       </c>
@@ -15938,8 +17736,14 @@
       <c r="AD63" t="s">
         <v>1300</v>
       </c>
-    </row>
-    <row r="64" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG63">
+        <v>203</v>
+      </c>
+      <c r="AY63" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="64" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>428</v>
       </c>
@@ -15961,8 +17765,14 @@
       <c r="AD64" t="s">
         <v>1301</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG64">
+        <v>209</v>
+      </c>
+      <c r="AY64" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="65" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>430</v>
       </c>
@@ -15984,8 +17794,14 @@
       <c r="AD65" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG65">
+        <v>213</v>
+      </c>
+      <c r="AY65" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="66" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>432</v>
       </c>
@@ -16007,8 +17823,14 @@
       <c r="AD66" t="s">
         <v>1303</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG66">
+        <v>215</v>
+      </c>
+      <c r="AY66" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="67" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>434</v>
       </c>
@@ -16030,8 +17852,14 @@
       <c r="AD67" t="s">
         <v>1304</v>
       </c>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG67">
+        <v>215</v>
+      </c>
+      <c r="AY67" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="68" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>435</v>
       </c>
@@ -16053,8 +17881,14 @@
       <c r="AD68" t="s">
         <v>1305</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG68">
+        <v>214</v>
+      </c>
+      <c r="AY68" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="69" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>437</v>
       </c>
@@ -16076,8 +17910,14 @@
       <c r="AD69" t="s">
         <v>1306</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG69">
+        <v>212</v>
+      </c>
+      <c r="AY69" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="70" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>438</v>
       </c>
@@ -16099,8 +17939,14 @@
       <c r="AD70" t="s">
         <v>1307</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG70">
+        <v>209</v>
+      </c>
+      <c r="AY70" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="71" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>438</v>
       </c>
@@ -16122,8 +17968,14 @@
       <c r="AD71" t="s">
         <v>1308</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG71">
+        <v>206</v>
+      </c>
+      <c r="AY71" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="72" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>439</v>
       </c>
@@ -16145,8 +17997,14 @@
       <c r="AD72" t="s">
         <v>1309</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG72">
+        <v>202</v>
+      </c>
+      <c r="AY72" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="73" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>439</v>
       </c>
@@ -16168,8 +18026,14 @@
       <c r="AD73" t="s">
         <v>1310</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG73">
+        <v>198</v>
+      </c>
+      <c r="AY73" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="74" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>439</v>
       </c>
@@ -16191,8 +18055,14 @@
       <c r="AD74" t="s">
         <v>1311</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG74">
+        <v>194</v>
+      </c>
+      <c r="AY74" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="75" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>439</v>
       </c>
@@ -16214,8 +18084,14 @@
       <c r="AD75" t="s">
         <v>1312</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG75">
+        <v>189</v>
+      </c>
+      <c r="AY75" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="76" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>440</v>
       </c>
@@ -16237,8 +18113,14 @@
       <c r="AD76" t="s">
         <v>1313</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG76">
+        <v>185</v>
+      </c>
+      <c r="AY76" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="77" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>440</v>
       </c>
@@ -16260,8 +18142,14 @@
       <c r="AD77" t="s">
         <v>1314</v>
       </c>
-    </row>
-    <row r="78" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG77">
+        <v>180</v>
+      </c>
+      <c r="AY77" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="78" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>439</v>
       </c>
@@ -16283,8 +18171,14 @@
       <c r="AD78" t="s">
         <v>1315</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG78">
+        <v>176</v>
+      </c>
+      <c r="AY78" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="79" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>439</v>
       </c>
@@ -16306,8 +18200,14 @@
       <c r="AD79" t="s">
         <v>1316</v>
       </c>
-    </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG79">
+        <v>171</v>
+      </c>
+      <c r="AY79" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="80" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>439</v>
       </c>
@@ -16329,8 +18229,14 @@
       <c r="AD80" t="s">
         <v>1317</v>
       </c>
-    </row>
-    <row r="81" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG80">
+        <v>167</v>
+      </c>
+      <c r="AY80" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="81" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>439</v>
       </c>
@@ -16352,8 +18258,14 @@
       <c r="AD81" t="s">
         <v>1318</v>
       </c>
-    </row>
-    <row r="82" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG81">
+        <v>162</v>
+      </c>
+      <c r="AY81" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="82" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>439</v>
       </c>
@@ -16375,8 +18287,14 @@
       <c r="AD82" t="s">
         <v>1319</v>
       </c>
-    </row>
-    <row r="83" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG82">
+        <v>158</v>
+      </c>
+      <c r="AY82" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="83" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>438</v>
       </c>
@@ -16398,8 +18316,14 @@
       <c r="AD83" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="84" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG83">
+        <v>157</v>
+      </c>
+      <c r="AY83" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="84" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>438</v>
       </c>
@@ -16421,8 +18345,14 @@
       <c r="AD84" t="s">
         <v>1321</v>
       </c>
-    </row>
-    <row r="85" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG84">
+        <v>160</v>
+      </c>
+      <c r="AY84" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="85" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>437</v>
       </c>
@@ -16444,8 +18374,14 @@
       <c r="AD85" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="86" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG85">
+        <v>168</v>
+      </c>
+      <c r="AY85" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="86" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>437</v>
       </c>
@@ -16467,8 +18403,14 @@
       <c r="AD86" t="s">
         <v>1323</v>
       </c>
-    </row>
-    <row r="87" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG86">
+        <v>177</v>
+      </c>
+      <c r="AY86" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="87" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>437</v>
       </c>
@@ -16490,8 +18432,14 @@
       <c r="AD87" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="88" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG87">
+        <v>189</v>
+      </c>
+      <c r="AY87" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="88" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>436</v>
       </c>
@@ -16513,8 +18461,14 @@
       <c r="AD88" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="89" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG88">
+        <v>202</v>
+      </c>
+      <c r="AY88" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="89" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>436</v>
       </c>
@@ -16536,8 +18490,14 @@
       <c r="AD89" t="s">
         <v>1326</v>
       </c>
-    </row>
-    <row r="90" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG89">
+        <v>217</v>
+      </c>
+      <c r="AY89" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="90" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>436</v>
       </c>
@@ -16559,8 +18519,14 @@
       <c r="AD90" t="s">
         <v>1327</v>
       </c>
-    </row>
-    <row r="91" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG90">
+        <v>232</v>
+      </c>
+      <c r="AY90" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="91" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>435</v>
       </c>
@@ -16582,8 +18548,14 @@
       <c r="AD91" t="s">
         <v>1328</v>
       </c>
-    </row>
-    <row r="92" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG91">
+        <v>247</v>
+      </c>
+      <c r="AY91" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="92" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>435</v>
       </c>
@@ -16605,8 +18577,14 @@
       <c r="AD92" t="s">
         <v>1329</v>
       </c>
-    </row>
-    <row r="93" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG92">
+        <v>263</v>
+      </c>
+      <c r="AY92" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="93" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>435</v>
       </c>
@@ -16628,8 +18606,14 @@
       <c r="AD93" t="s">
         <v>1330</v>
       </c>
-    </row>
-    <row r="94" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG93">
+        <v>279</v>
+      </c>
+      <c r="AY93" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="94" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>434</v>
       </c>
@@ -16651,8 +18635,14 @@
       <c r="AD94" t="s">
         <v>1331</v>
       </c>
-    </row>
-    <row r="95" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG94">
+        <v>295</v>
+      </c>
+      <c r="AY94" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="95" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>434</v>
       </c>
@@ -16674,8 +18664,14 @@
       <c r="AD95" t="s">
         <v>1332</v>
       </c>
-    </row>
-    <row r="96" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG95">
+        <v>311</v>
+      </c>
+      <c r="AY95" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="96" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>434</v>
       </c>
@@ -16697,8 +18693,14 @@
       <c r="AD96" t="s">
         <v>1333</v>
       </c>
-    </row>
-    <row r="97" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG96">
+        <v>327</v>
+      </c>
+      <c r="AY96" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="97" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>433</v>
       </c>
@@ -16720,8 +18722,14 @@
       <c r="AD97" t="s">
         <v>1334</v>
       </c>
-    </row>
-    <row r="98" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG97">
+        <v>339</v>
+      </c>
+      <c r="AY97" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="98" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>433</v>
       </c>
@@ -16743,8 +18751,14 @@
       <c r="AD98" t="s">
         <v>1335</v>
       </c>
-    </row>
-    <row r="99" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG98">
+        <v>346</v>
+      </c>
+      <c r="AY98" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="99" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>432</v>
       </c>
@@ -16766,8 +18780,14 @@
       <c r="AD99" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="100" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG99">
+        <v>350</v>
+      </c>
+      <c r="AY99" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="100" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>433</v>
       </c>
@@ -16789,8 +18809,14 @@
       <c r="AD100" t="s">
         <v>1337</v>
       </c>
-    </row>
-    <row r="101" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG100">
+        <v>351</v>
+      </c>
+      <c r="AY100" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="101" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>432</v>
       </c>
@@ -16812,8 +18838,14 @@
       <c r="AD101" t="s">
         <v>1338</v>
       </c>
-    </row>
-    <row r="102" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG101">
+        <v>349</v>
+      </c>
+      <c r="AY101" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="102" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>432</v>
       </c>
@@ -16835,8 +18867,14 @@
       <c r="AD102" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="103" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG102">
+        <v>347</v>
+      </c>
+      <c r="AY102" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="103" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>431</v>
       </c>
@@ -16858,8 +18896,14 @@
       <c r="AD103" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="104" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG103">
+        <v>342</v>
+      </c>
+      <c r="AY103" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="104" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>429</v>
       </c>
@@ -16881,8 +18925,14 @@
       <c r="AD104" t="s">
         <v>1341</v>
       </c>
-    </row>
-    <row r="105" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG104">
+        <v>337</v>
+      </c>
+      <c r="AY104" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="105" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>424</v>
       </c>
@@ -16904,8 +18954,14 @@
       <c r="AD105" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="106" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG105">
+        <v>332</v>
+      </c>
+      <c r="AY105" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="106" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>418</v>
       </c>
@@ -16927,8 +18983,14 @@
       <c r="AD106" t="s">
         <v>1343</v>
       </c>
-    </row>
-    <row r="107" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG106">
+        <v>325</v>
+      </c>
+      <c r="AY106" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="107" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>412</v>
       </c>
@@ -16950,8 +19012,14 @@
       <c r="AD107" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="108" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG107">
+        <v>319</v>
+      </c>
+      <c r="AY107" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="108" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>404</v>
       </c>
@@ -16973,8 +19041,14 @@
       <c r="AD108" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="109" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG108">
+        <v>311</v>
+      </c>
+      <c r="AY108" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="109" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>397</v>
       </c>
@@ -16996,8 +19070,14 @@
       <c r="AD109" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="110" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG109">
+        <v>304</v>
+      </c>
+      <c r="AY109" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="110" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>390</v>
       </c>
@@ -17019,8 +19099,14 @@
       <c r="AD110" t="s">
         <v>1347</v>
       </c>
-    </row>
-    <row r="111" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG110">
+        <v>297</v>
+      </c>
+      <c r="AY110" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="111" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>382</v>
       </c>
@@ -17042,8 +19128,14 @@
       <c r="AD111" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="112" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG111">
+        <v>290</v>
+      </c>
+      <c r="AY111" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="112" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>374</v>
       </c>
@@ -17065,8 +19157,14 @@
       <c r="AD112" t="s">
         <v>1349</v>
       </c>
-    </row>
-    <row r="113" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG112">
+        <v>282</v>
+      </c>
+      <c r="AY112" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="113" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>367</v>
       </c>
@@ -17088,8 +19186,14 @@
       <c r="AD113" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="114" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG113">
+        <v>275</v>
+      </c>
+      <c r="AY113" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="114" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>359</v>
       </c>
@@ -17111,8 +19215,14 @@
       <c r="AD114" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="115" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG114">
+        <v>268</v>
+      </c>
+      <c r="AY114" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="115" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>352</v>
       </c>
@@ -17134,8 +19244,14 @@
       <c r="AD115" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="116" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG115">
+        <v>261</v>
+      </c>
+      <c r="AY115" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="116" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>345</v>
       </c>
@@ -17157,8 +19273,14 @@
       <c r="AD116" t="s">
         <v>1353</v>
       </c>
-    </row>
-    <row r="117" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG116">
+        <v>254</v>
+      </c>
+      <c r="AY116" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="117" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>337</v>
       </c>
@@ -17180,8 +19302,14 @@
       <c r="AD117" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="118" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG117">
+        <v>247</v>
+      </c>
+      <c r="AY117" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="118" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>330</v>
       </c>
@@ -17203,8 +19331,14 @@
       <c r="AD118" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="119" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG118">
+        <v>241</v>
+      </c>
+      <c r="AY118" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="119" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>323</v>
       </c>
@@ -17226,8 +19360,14 @@
       <c r="AD119" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="120" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG119">
+        <v>234</v>
+      </c>
+      <c r="AY119" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="120" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>316</v>
       </c>
@@ -17249,8 +19389,14 @@
       <c r="AD120" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="121" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG120">
+        <v>228</v>
+      </c>
+      <c r="AY120" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="121" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>309</v>
       </c>
@@ -17272,8 +19418,14 @@
       <c r="AD121" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="122" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG121">
+        <v>222</v>
+      </c>
+      <c r="AY121" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="122" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>302</v>
       </c>
@@ -17295,8 +19447,14 @@
       <c r="AD122" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="123" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG122">
+        <v>216</v>
+      </c>
+      <c r="AY122" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="123" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>296</v>
       </c>
@@ -17318,8 +19476,14 @@
       <c r="AD123" t="s">
         <v>1360</v>
       </c>
-    </row>
-    <row r="124" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG123">
+        <v>210</v>
+      </c>
+      <c r="AY123" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="124" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>289</v>
       </c>
@@ -17341,8 +19505,14 @@
       <c r="AD124" t="s">
         <v>1361</v>
       </c>
-    </row>
-    <row r="125" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG124">
+        <v>204</v>
+      </c>
+      <c r="AY124" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="125" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>283</v>
       </c>
@@ -17364,8 +19534,14 @@
       <c r="AD125" t="s">
         <v>1362</v>
       </c>
-    </row>
-    <row r="126" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG125">
+        <v>199</v>
+      </c>
+      <c r="AY125" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="126" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>276</v>
       </c>
@@ -17387,8 +19563,14 @@
       <c r="AD126" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="127" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG126">
+        <v>193</v>
+      </c>
+      <c r="AY126" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="127" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>270</v>
       </c>
@@ -17410,8 +19592,14 @@
       <c r="AD127" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="128" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG127">
+        <v>188</v>
+      </c>
+      <c r="AY127" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="128" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>264</v>
       </c>
@@ -17433,8 +19621,14 @@
       <c r="AD128" t="s">
         <v>1365</v>
       </c>
-    </row>
-    <row r="129" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG128">
+        <v>186</v>
+      </c>
+      <c r="AY128" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="129" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>258</v>
       </c>
@@ -17456,8 +19650,14 @@
       <c r="AD129" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="130" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG129">
+        <v>189</v>
+      </c>
+      <c r="AY129" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="130" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>253</v>
       </c>
@@ -17479,8 +19679,14 @@
       <c r="AD130" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="131" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG130">
+        <v>195</v>
+      </c>
+      <c r="AY130" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="131" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>247</v>
       </c>
@@ -17502,8 +19708,14 @@
       <c r="AD131" t="s">
         <v>1368</v>
       </c>
-    </row>
-    <row r="132" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG131">
+        <v>205</v>
+      </c>
+      <c r="AY131" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="132" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>242</v>
       </c>
@@ -17525,8 +19737,14 @@
       <c r="AD132" t="s">
         <v>1369</v>
       </c>
-    </row>
-    <row r="133" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG132">
+        <v>216</v>
+      </c>
+      <c r="AY132" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="133" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>236</v>
       </c>
@@ -17548,8 +19766,14 @@
       <c r="AD133" t="s">
         <v>1370</v>
       </c>
-    </row>
-    <row r="134" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG133">
+        <v>228</v>
+      </c>
+      <c r="AY133" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="134" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>231</v>
       </c>
@@ -17571,8 +19795,14 @@
       <c r="AD134" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="135" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG134">
+        <v>242</v>
+      </c>
+      <c r="AY134" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="135" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>226</v>
       </c>
@@ -17594,8 +19824,14 @@
       <c r="AD135" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="136" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG135">
+        <v>257</v>
+      </c>
+      <c r="AY135" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="136" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>221</v>
       </c>
@@ -17617,8 +19853,14 @@
       <c r="AD136" t="s">
         <v>1373</v>
       </c>
-    </row>
-    <row r="137" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG136">
+        <v>272</v>
+      </c>
+      <c r="AY136" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="137" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>216</v>
       </c>
@@ -17640,8 +19882,14 @@
       <c r="AD137" t="s">
         <v>1374</v>
       </c>
-    </row>
-    <row r="138" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG137">
+        <v>287</v>
+      </c>
+      <c r="AY137" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="138" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>211</v>
       </c>
@@ -17663,8 +19911,14 @@
       <c r="AD138" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="139" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG138">
+        <v>303</v>
+      </c>
+      <c r="AY138" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="139" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>206</v>
       </c>
@@ -17686,8 +19940,14 @@
       <c r="AD139" t="s">
         <v>1376</v>
       </c>
-    </row>
-    <row r="140" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG139">
+        <v>318</v>
+      </c>
+      <c r="AY139" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="140" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>201</v>
       </c>
@@ -17709,8 +19969,14 @@
       <c r="AD140" t="s">
         <v>1377</v>
       </c>
-    </row>
-    <row r="141" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG140">
+        <v>333</v>
+      </c>
+      <c r="AY140" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="141" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>197</v>
       </c>
@@ -17732,8 +19998,14 @@
       <c r="AD141" t="s">
         <v>1378</v>
       </c>
-    </row>
-    <row r="142" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG141">
+        <v>349</v>
+      </c>
+      <c r="AY141" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="142" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B142">
         <v>193</v>
       </c>
@@ -17755,8 +20027,14 @@
       <c r="AD142" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="143" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG142">
+        <v>364</v>
+      </c>
+      <c r="AY142" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="143" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>188</v>
       </c>
@@ -17778,8 +20056,14 @@
       <c r="AD143" t="s">
         <v>1380</v>
       </c>
-    </row>
-    <row r="144" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG143">
+        <v>379</v>
+      </c>
+      <c r="AY143" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="144" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>184</v>
       </c>
@@ -17801,8 +20085,14 @@
       <c r="AD144" t="s">
         <v>1381</v>
       </c>
-    </row>
-    <row r="145" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG144">
+        <v>393</v>
+      </c>
+      <c r="AY144" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="145" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>180</v>
       </c>
@@ -17824,8 +20114,14 @@
       <c r="AD145" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="146" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG145">
+        <v>407</v>
+      </c>
+      <c r="AY145" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="146" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>176</v>
       </c>
@@ -17847,8 +20143,14 @@
       <c r="AD146" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="147" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG146">
+        <v>421</v>
+      </c>
+      <c r="AY146" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="147" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>172</v>
       </c>
@@ -17870,8 +20172,14 @@
       <c r="AD147" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="148" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG147">
+        <v>432</v>
+      </c>
+      <c r="AY147" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="148" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>168</v>
       </c>
@@ -17893,8 +20201,14 @@
       <c r="AD148" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="149" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG148">
+        <v>437</v>
+      </c>
+      <c r="AY148" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="149" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B149">
         <v>165</v>
       </c>
@@ -17916,8 +20230,14 @@
       <c r="AD149" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="150" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG149">
+        <v>439</v>
+      </c>
+      <c r="AY149" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="150" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>161</v>
       </c>
@@ -17939,8 +20259,14 @@
       <c r="AD150" t="s">
         <v>1387</v>
       </c>
-    </row>
-    <row r="151" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG150">
+        <v>438</v>
+      </c>
+      <c r="AY150" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="151" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>158</v>
       </c>
@@ -17962,8 +20288,14 @@
       <c r="AD151" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="152" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG151">
+        <v>435</v>
+      </c>
+      <c r="AY151" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="152" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B152">
         <v>154</v>
       </c>
@@ -17985,8 +20317,14 @@
       <c r="AD152" t="s">
         <v>1389</v>
       </c>
-    </row>
-    <row r="153" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG152">
+        <v>430</v>
+      </c>
+      <c r="AY152" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="153" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>151</v>
       </c>
@@ -18008,8 +20346,14 @@
       <c r="AD153" t="s">
         <v>1390</v>
       </c>
-    </row>
-    <row r="154" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG153">
+        <v>424</v>
+      </c>
+      <c r="AY153" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="154" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B154">
         <v>147</v>
       </c>
@@ -18031,8 +20375,14 @@
       <c r="AD154" t="s">
         <v>1391</v>
       </c>
-    </row>
-    <row r="155" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG154">
+        <v>417</v>
+      </c>
+      <c r="AY154" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="155" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B155">
         <v>144</v>
       </c>
@@ -18054,8 +20404,14 @@
       <c r="AD155" t="s">
         <v>1392</v>
       </c>
-    </row>
-    <row r="156" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG155">
+        <v>409</v>
+      </c>
+      <c r="AY155" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="156" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B156">
         <v>141</v>
       </c>
@@ -18077,8 +20433,14 @@
       <c r="AD156" t="s">
         <v>1393</v>
       </c>
-    </row>
-    <row r="157" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG156">
+        <v>400</v>
+      </c>
+      <c r="AY156" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="157" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B157">
         <v>138</v>
       </c>
@@ -18100,8 +20462,14 @@
       <c r="AD157" t="s">
         <v>1394</v>
       </c>
-    </row>
-    <row r="158" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG157">
+        <v>392</v>
+      </c>
+      <c r="AY157" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="158" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B158">
         <v>135</v>
       </c>
@@ -18123,8 +20491,14 @@
       <c r="AD158" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="159" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG158">
+        <v>383</v>
+      </c>
+      <c r="AY158" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="159" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>132</v>
       </c>
@@ -18146,8 +20520,14 @@
       <c r="AD159" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="160" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG159">
+        <v>374</v>
+      </c>
+      <c r="AY159" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="160" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>129</v>
       </c>
@@ -18169,8 +20549,14 @@
       <c r="AD160" t="s">
         <v>1397</v>
       </c>
-    </row>
-    <row r="161" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG160">
+        <v>365</v>
+      </c>
+      <c r="AY160" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="161" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>127</v>
       </c>
@@ -18192,8 +20578,14 @@
       <c r="AD161" t="s">
         <v>1398</v>
       </c>
-    </row>
-    <row r="162" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG161">
+        <v>356</v>
+      </c>
+      <c r="AY161" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="162" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B162">
         <v>124</v>
       </c>
@@ -18215,8 +20607,14 @@
       <c r="AD162" t="s">
         <v>1399</v>
       </c>
-    </row>
-    <row r="163" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG162">
+        <v>347</v>
+      </c>
+      <c r="AY162" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="163" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B163">
         <v>121</v>
       </c>
@@ -18238,8 +20636,14 @@
       <c r="AD163" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="164" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG163">
+        <v>338</v>
+      </c>
+      <c r="AY163" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="164" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B164">
         <v>119</v>
       </c>
@@ -18261,8 +20665,14 @@
       <c r="AD164" t="s">
         <v>1401</v>
       </c>
-    </row>
-    <row r="165" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG164">
+        <v>330</v>
+      </c>
+      <c r="AY164" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="165" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B165">
         <v>116</v>
       </c>
@@ -18284,8 +20694,14 @@
       <c r="AD165" t="s">
         <v>1402</v>
       </c>
-    </row>
-    <row r="166" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG165">
+        <v>321</v>
+      </c>
+      <c r="AY165" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="166" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B166">
         <v>114</v>
       </c>
@@ -18307,8 +20723,14 @@
       <c r="AD166" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="167" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG166">
+        <v>312</v>
+      </c>
+      <c r="AY166" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="167" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B167">
         <v>111</v>
       </c>
@@ -18330,8 +20752,14 @@
       <c r="AD167" t="s">
         <v>1404</v>
       </c>
-    </row>
-    <row r="168" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG167">
+        <v>304</v>
+      </c>
+      <c r="AY167" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="168" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B168">
         <v>109</v>
       </c>
@@ -18353,8 +20781,14 @@
       <c r="AD168" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="169" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG168">
+        <v>296</v>
+      </c>
+      <c r="AY168" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="169" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B169">
         <v>107</v>
       </c>
@@ -18376,8 +20810,14 @@
       <c r="AD169" t="s">
         <v>1406</v>
       </c>
-    </row>
-    <row r="170" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG169">
+        <v>288</v>
+      </c>
+      <c r="AY169" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="170" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B170">
         <v>104</v>
       </c>
@@ -18399,8 +20839,14 @@
       <c r="AD170" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="171" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG170">
+        <v>281</v>
+      </c>
+      <c r="AY170" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="171" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B171">
         <v>102</v>
       </c>
@@ -18422,8 +20868,14 @@
       <c r="AD171" t="s">
         <v>1408</v>
       </c>
-    </row>
-    <row r="172" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG171">
+        <v>273</v>
+      </c>
+      <c r="AY171" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="172" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B172">
         <v>100</v>
       </c>
@@ -18445,8 +20897,14 @@
       <c r="AD172" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="173" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG172">
+        <v>266</v>
+      </c>
+      <c r="AY172" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="173" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B173">
         <v>98</v>
       </c>
@@ -18468,8 +20926,14 @@
       <c r="AD173" t="s">
         <v>1410</v>
       </c>
-    </row>
-    <row r="174" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG173">
+        <v>259</v>
+      </c>
+      <c r="AY173" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="174" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B174">
         <v>96</v>
       </c>
@@ -18491,8 +20955,14 @@
       <c r="AD174" t="s">
         <v>1411</v>
       </c>
-    </row>
-    <row r="175" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG174">
+        <v>252</v>
+      </c>
+      <c r="AY174" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="175" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B175">
         <v>94</v>
       </c>
@@ -18514,8 +20984,14 @@
       <c r="AD175" t="s">
         <v>1412</v>
       </c>
-    </row>
-    <row r="176" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG175">
+        <v>245</v>
+      </c>
+      <c r="AY175" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="176" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B176">
         <v>92</v>
       </c>
@@ -18537,8 +21013,14 @@
       <c r="AD176" t="s">
         <v>1413</v>
       </c>
-    </row>
-    <row r="177" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG176">
+        <v>239</v>
+      </c>
+      <c r="AY176" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="177" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B177">
         <v>90</v>
       </c>
@@ -18560,8 +21042,14 @@
       <c r="AD177" t="s">
         <v>1414</v>
       </c>
-    </row>
-    <row r="178" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG177">
+        <v>233</v>
+      </c>
+      <c r="AY177" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="178" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B178">
         <v>89</v>
       </c>
@@ -18583,8 +21071,14 @@
       <c r="AD178" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="179" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG178">
+        <v>229</v>
+      </c>
+      <c r="AY178" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="179" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B179">
         <v>87</v>
       </c>
@@ -18606,8 +21100,14 @@
       <c r="AD179" t="s">
         <v>1416</v>
       </c>
-    </row>
-    <row r="180" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG179">
+        <v>231</v>
+      </c>
+      <c r="AY179" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="180" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B180">
         <v>85</v>
       </c>
@@ -18629,8 +21129,14 @@
       <c r="AD180" t="s">
         <v>1417</v>
       </c>
-    </row>
-    <row r="181" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG180">
+        <v>236</v>
+      </c>
+      <c r="AY180" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="181" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B181">
         <v>83</v>
       </c>
@@ -18652,8 +21158,14 @@
       <c r="AD181" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="182" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG181">
+        <v>245</v>
+      </c>
+      <c r="AY181" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="182" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B182">
         <v>82</v>
       </c>
@@ -18675,8 +21187,14 @@
       <c r="AD182" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="183" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG182">
+        <v>255</v>
+      </c>
+      <c r="AY182" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="183" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B183">
         <v>80</v>
       </c>
@@ -18698,8 +21216,14 @@
       <c r="AD183" t="s">
         <v>1420</v>
       </c>
-    </row>
-    <row r="184" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG183">
+        <v>266</v>
+      </c>
+      <c r="AY183" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="184" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B184">
         <v>78</v>
       </c>
@@ -18721,8 +21245,14 @@
       <c r="AD184" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="185" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG184">
+        <v>279</v>
+      </c>
+      <c r="AY184" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="185" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B185">
         <v>77</v>
       </c>
@@ -18744,8 +21274,14 @@
       <c r="AD185" t="s">
         <v>1422</v>
       </c>
-    </row>
-    <row r="186" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG185">
+        <v>293</v>
+      </c>
+      <c r="AY185" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="186" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B186">
         <v>75</v>
       </c>
@@ -18767,8 +21303,14 @@
       <c r="AD186" t="s">
         <v>1423</v>
       </c>
-    </row>
-    <row r="187" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG186">
+        <v>307</v>
+      </c>
+      <c r="AY186" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="187" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B187">
         <v>74</v>
       </c>
@@ -18790,8 +21332,14 @@
       <c r="AD187" t="s">
         <v>1424</v>
       </c>
-    </row>
-    <row r="188" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG187">
+        <v>322</v>
+      </c>
+      <c r="AY187" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="188" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B188">
         <v>72</v>
       </c>
@@ -18813,8 +21361,14 @@
       <c r="AD188" t="s">
         <v>1425</v>
       </c>
-    </row>
-    <row r="189" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG188">
+        <v>336</v>
+      </c>
+      <c r="AY188" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="189" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B189">
         <v>71</v>
       </c>
@@ -18836,8 +21390,14 @@
       <c r="AD189" t="s">
         <v>1426</v>
       </c>
-    </row>
-    <row r="190" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG189">
+        <v>351</v>
+      </c>
+      <c r="AY189" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="190" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B190">
         <v>69</v>
       </c>
@@ -18859,8 +21419,14 @@
       <c r="AD190" t="s">
         <v>1427</v>
       </c>
-    </row>
-    <row r="191" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG190">
+        <v>366</v>
+      </c>
+      <c r="AY190" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="191" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B191">
         <v>68</v>
       </c>
@@ -18882,8 +21448,14 @@
       <c r="AD191" t="s">
         <v>1428</v>
       </c>
-    </row>
-    <row r="192" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG191">
+        <v>380</v>
+      </c>
+      <c r="AY191" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="192" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B192">
         <v>67</v>
       </c>
@@ -18905,8 +21477,14 @@
       <c r="AD192" t="s">
         <v>1429</v>
       </c>
-    </row>
-    <row r="193" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG192">
+        <v>394</v>
+      </c>
+      <c r="AY192" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="193" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B193">
         <v>66</v>
       </c>
@@ -18928,8 +21506,14 @@
       <c r="AD193" t="s">
         <v>1430</v>
       </c>
-    </row>
-    <row r="194" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG193">
+        <v>409</v>
+      </c>
+      <c r="AY193" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="194" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B194">
         <v>64</v>
       </c>
@@ -18951,8 +21535,14 @@
       <c r="AD194" t="s">
         <v>1431</v>
       </c>
-    </row>
-    <row r="195" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG194">
+        <v>423</v>
+      </c>
+      <c r="AY194" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="195" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B195">
         <v>63</v>
       </c>
@@ -18974,8 +21564,14 @@
       <c r="AD195" t="s">
         <v>1432</v>
       </c>
-    </row>
-    <row r="196" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG195">
+        <v>436</v>
+      </c>
+      <c r="AY195" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="196" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B196">
         <v>62</v>
       </c>
@@ -18997,8 +21593,14 @@
       <c r="AD196" t="s">
         <v>1433</v>
       </c>
-    </row>
-    <row r="197" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG196">
+        <v>450</v>
+      </c>
+      <c r="AY196" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="197" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B197">
         <v>61</v>
       </c>
@@ -19020,8 +21622,14 @@
       <c r="AD197" t="s">
         <v>1434</v>
       </c>
-    </row>
-    <row r="198" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG197">
+        <v>463</v>
+      </c>
+      <c r="AY197" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="198" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B198">
         <v>59</v>
       </c>
@@ -19043,8 +21651,14 @@
       <c r="AD198" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="199" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG198">
+        <v>475</v>
+      </c>
+      <c r="AY198" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="199" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B199">
         <v>58</v>
       </c>
@@ -19066,8 +21680,14 @@
       <c r="AD199" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="200" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG199">
+        <v>487</v>
+      </c>
+      <c r="AY199" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="200" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B200">
         <v>58</v>
       </c>
@@ -19089,8 +21709,14 @@
       <c r="AD200" t="s">
         <v>1437</v>
       </c>
-    </row>
-    <row r="201" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG200">
+        <v>499</v>
+      </c>
+      <c r="AY200" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="201" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B201">
         <v>56</v>
       </c>
@@ -19112,8 +21738,14 @@
       <c r="AD201" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="202" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG201">
+        <v>511</v>
+      </c>
+      <c r="AY201" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="202" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B202">
         <v>55</v>
       </c>
@@ -19135,8 +21767,14 @@
       <c r="AD202" t="s">
         <v>1439</v>
       </c>
-    </row>
-    <row r="203" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG202">
+        <v>519</v>
+      </c>
+      <c r="AY202" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="203" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B203">
         <v>54</v>
       </c>
@@ -19158,8 +21796,14 @@
       <c r="AD203" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="204" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG203">
+        <v>523</v>
+      </c>
+      <c r="AY203" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="204" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B204">
         <v>53</v>
       </c>
@@ -19181,8 +21825,14 @@
       <c r="AD204" t="s">
         <v>1441</v>
       </c>
-    </row>
-    <row r="205" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG204">
+        <v>522</v>
+      </c>
+      <c r="AY204" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="205" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B205">
         <v>52</v>
       </c>
@@ -19204,8 +21854,14 @@
       <c r="AD205" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="206" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG205">
+        <v>519</v>
+      </c>
+      <c r="AY205" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="206" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B206">
         <v>51</v>
       </c>
@@ -19227,8 +21883,14 @@
       <c r="AD206" t="s">
         <v>1443</v>
       </c>
-    </row>
-    <row r="207" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG206">
+        <v>514</v>
+      </c>
+      <c r="AY206" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="207" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B207">
         <v>50</v>
       </c>
@@ -19250,8 +21912,14 @@
       <c r="AD207" t="s">
         <v>1444</v>
       </c>
-    </row>
-    <row r="208" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG207">
+        <v>507</v>
+      </c>
+      <c r="AY207" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="208" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B208">
         <v>49</v>
       </c>
@@ -19273,8 +21941,14 @@
       <c r="AD208" t="s">
         <v>1445</v>
       </c>
-    </row>
-    <row r="209" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG208">
+        <v>498</v>
+      </c>
+      <c r="AY208" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="209" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B209">
         <v>48</v>
       </c>
@@ -19296,8 +21970,14 @@
       <c r="AD209" t="s">
         <v>1446</v>
       </c>
-    </row>
-    <row r="210" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG209">
+        <v>489</v>
+      </c>
+      <c r="AY209" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="210" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B210">
         <v>47</v>
       </c>
@@ -19319,8 +21999,14 @@
       <c r="AD210" t="s">
         <v>1447</v>
       </c>
-    </row>
-    <row r="211" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG210">
+        <v>480</v>
+      </c>
+      <c r="AY210" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="211" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B211">
         <v>47</v>
       </c>
@@ -19342,8 +22028,14 @@
       <c r="AD211" t="s">
         <v>1448</v>
       </c>
-    </row>
-    <row r="212" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG211">
+        <v>470</v>
+      </c>
+      <c r="AY211" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="212" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B212">
         <v>46</v>
       </c>
@@ -19365,8 +22057,14 @@
       <c r="AD212" t="s">
         <v>1449</v>
       </c>
-    </row>
-    <row r="213" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG212">
+        <v>459</v>
+      </c>
+      <c r="AY212" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="213" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B213">
         <v>45</v>
       </c>
@@ -19388,8 +22086,14 @@
       <c r="AD213" t="s">
         <v>1450</v>
       </c>
-    </row>
-    <row r="214" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG213">
+        <v>449</v>
+      </c>
+      <c r="AY213" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="214" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B214">
         <v>44</v>
       </c>
@@ -19411,8 +22115,14 @@
       <c r="AD214" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="215" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG214">
+        <v>438</v>
+      </c>
+      <c r="AY214" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="215" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B215">
         <v>43</v>
       </c>
@@ -19434,8 +22144,14 @@
       <c r="AD215" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="216" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG215">
+        <v>427</v>
+      </c>
+      <c r="AY215" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="216" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B216">
         <v>43</v>
       </c>
@@ -19457,8 +22173,14 @@
       <c r="AD216" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="217" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG216">
+        <v>417</v>
+      </c>
+      <c r="AY216" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="217" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B217">
         <v>42</v>
       </c>
@@ -19480,8 +22202,14 @@
       <c r="AD217" t="s">
         <v>1454</v>
       </c>
-    </row>
-    <row r="218" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG217">
+        <v>406</v>
+      </c>
+      <c r="AY217" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="218" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B218">
         <v>42</v>
       </c>
@@ -19503,8 +22231,14 @@
       <c r="AD218" t="s">
         <v>1455</v>
       </c>
-    </row>
-    <row r="219" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG218">
+        <v>396</v>
+      </c>
+      <c r="AY218" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="219" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B219">
         <v>40</v>
       </c>
@@ -19526,8 +22260,14 @@
       <c r="AD219" t="s">
         <v>1456</v>
       </c>
-    </row>
-    <row r="220" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG219">
+        <v>386</v>
+      </c>
+      <c r="AY219" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="220" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B220">
         <v>40</v>
       </c>
@@ -19549,8 +22289,14 @@
       <c r="AD220" t="s">
         <v>1457</v>
       </c>
-    </row>
-    <row r="221" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG220">
+        <v>376</v>
+      </c>
+      <c r="AY220" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="221" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B221">
         <v>39</v>
       </c>
@@ -19572,8 +22318,14 @@
       <c r="AD221" t="s">
         <v>1458</v>
       </c>
-    </row>
-    <row r="222" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG221">
+        <v>366</v>
+      </c>
+      <c r="AY221" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="222" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B222">
         <v>38</v>
       </c>
@@ -19595,8 +22347,14 @@
       <c r="AD222" t="s">
         <v>1459</v>
       </c>
-    </row>
-    <row r="223" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG222">
+        <v>356</v>
+      </c>
+      <c r="AY222" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="223" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B223">
         <v>37</v>
       </c>
@@ -19618,8 +22376,14 @@
       <c r="AD223" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="224" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG223">
+        <v>347</v>
+      </c>
+      <c r="AY223" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="224" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B224">
         <v>37</v>
       </c>
@@ -19641,8 +22405,14 @@
       <c r="AD224" t="s">
         <v>1461</v>
       </c>
-    </row>
-    <row r="225" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG224">
+        <v>338</v>
+      </c>
+      <c r="AY224" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="225" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B225">
         <v>36</v>
       </c>
@@ -19664,8 +22434,14 @@
       <c r="AD225" t="s">
         <v>1462</v>
       </c>
-    </row>
-    <row r="226" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG225">
+        <v>329</v>
+      </c>
+      <c r="AY225" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="226" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B226">
         <v>36</v>
       </c>
@@ -19687,8 +22463,14 @@
       <c r="AD226" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="227" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG226">
+        <v>320</v>
+      </c>
+      <c r="AY226" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="227" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B227">
         <v>35</v>
       </c>
@@ -19710,8 +22492,14 @@
       <c r="AD227" t="s">
         <v>1464</v>
       </c>
-    </row>
-    <row r="228" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG227">
+        <v>312</v>
+      </c>
+      <c r="AY227" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="228" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B228">
         <v>34</v>
       </c>
@@ -19733,8 +22521,14 @@
       <c r="AD228" t="s">
         <v>1465</v>
       </c>
-    </row>
-    <row r="229" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG228">
+        <v>304</v>
+      </c>
+      <c r="AY228" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="229" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B229">
         <v>34</v>
       </c>
@@ -19756,8 +22550,14 @@
       <c r="AD229" t="s">
         <v>1466</v>
       </c>
-    </row>
-    <row r="230" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG229">
+        <v>296</v>
+      </c>
+      <c r="AY229" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="230" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B230">
         <v>33</v>
       </c>
@@ -19779,8 +22579,14 @@
       <c r="AD230" t="s">
         <v>1467</v>
       </c>
-    </row>
-    <row r="231" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG230">
+        <v>288</v>
+      </c>
+      <c r="AY230" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="231" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B231">
         <v>33</v>
       </c>
@@ -19802,8 +22608,14 @@
       <c r="AD231" t="s">
         <v>1468</v>
       </c>
-    </row>
-    <row r="232" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG231">
+        <v>280</v>
+      </c>
+      <c r="AY231" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="232" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B232">
         <v>32</v>
       </c>
@@ -19825,8 +22637,14 @@
       <c r="AD232" t="s">
         <v>1469</v>
       </c>
-    </row>
-    <row r="233" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG232">
+        <v>273</v>
+      </c>
+      <c r="AY232" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="233" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B233">
         <v>32</v>
       </c>
@@ -19848,8 +22666,14 @@
       <c r="AD233" t="s">
         <v>1470</v>
       </c>
-    </row>
-    <row r="234" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG233">
+        <v>269</v>
+      </c>
+      <c r="AY233" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="234" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B234">
         <v>31</v>
       </c>
@@ -19871,8 +22695,14 @@
       <c r="AD234" t="s">
         <v>1471</v>
       </c>
-    </row>
-    <row r="235" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG234">
+        <v>270</v>
+      </c>
+      <c r="AY234" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="235" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B235">
         <v>30</v>
       </c>
@@ -19894,8 +22724,14 @@
       <c r="AD235" t="s">
         <v>1472</v>
       </c>
-    </row>
-    <row r="236" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG235">
+        <v>274</v>
+      </c>
+      <c r="AY235" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="236" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B236">
         <v>30</v>
       </c>
@@ -19917,8 +22753,14 @@
       <c r="AD236" t="s">
         <v>1473</v>
       </c>
-    </row>
-    <row r="237" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG236">
+        <v>281</v>
+      </c>
+      <c r="AY236" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="237" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B237">
         <v>29</v>
       </c>
@@ -19940,8 +22782,14 @@
       <c r="AD237" t="s">
         <v>1474</v>
       </c>
-    </row>
-    <row r="238" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG237">
+        <v>290</v>
+      </c>
+      <c r="AY237" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="238" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B238">
         <v>29</v>
       </c>
@@ -19963,8 +22811,14 @@
       <c r="AD238" t="s">
         <v>1475</v>
       </c>
-    </row>
-    <row r="239" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG238">
+        <v>301</v>
+      </c>
+      <c r="AY238" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="239" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B239">
         <v>29</v>
       </c>
@@ -19986,8 +22840,14 @@
       <c r="AD239" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="240" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG239">
+        <v>313</v>
+      </c>
+      <c r="AY239" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="240" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B240">
         <v>28</v>
       </c>
@@ -20009,8 +22869,14 @@
       <c r="AD240" t="s">
         <v>1477</v>
       </c>
-    </row>
-    <row r="241" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG240">
+        <v>327</v>
+      </c>
+      <c r="AY240" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="241" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B241">
         <v>28</v>
       </c>
@@ -20032,8 +22898,14 @@
       <c r="AD241" t="s">
         <v>1478</v>
       </c>
-    </row>
-    <row r="242" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG241">
+        <v>339</v>
+      </c>
+      <c r="AY241" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="242" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B242">
         <v>27</v>
       </c>
@@ -20055,8 +22927,14 @@
       <c r="AD242" t="s">
         <v>1479</v>
       </c>
-    </row>
-    <row r="243" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG242">
+        <v>353</v>
+      </c>
+      <c r="AY242" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="243" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B243">
         <v>27</v>
       </c>
@@ -20078,8 +22956,14 @@
       <c r="AD243" t="s">
         <v>1480</v>
       </c>
-    </row>
-    <row r="244" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG243">
+        <v>367</v>
+      </c>
+      <c r="AY243" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="244" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B244">
         <v>26</v>
       </c>
@@ -20101,8 +22985,14 @@
       <c r="AD244" t="s">
         <v>1481</v>
       </c>
-    </row>
-    <row r="245" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG244">
+        <v>381</v>
+      </c>
+      <c r="AY244" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="245" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B245">
         <v>26</v>
       </c>
@@ -20124,8 +23014,14 @@
       <c r="AD245" t="s">
         <v>1482</v>
       </c>
-    </row>
-    <row r="246" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG245">
+        <v>395</v>
+      </c>
+      <c r="AY245" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="246" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B246">
         <v>26</v>
       </c>
@@ -20147,8 +23043,14 @@
       <c r="AD246" t="s">
         <v>1483</v>
       </c>
-    </row>
-    <row r="247" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG246">
+        <v>409</v>
+      </c>
+      <c r="AY246" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="247" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B247">
         <v>25</v>
       </c>
@@ -20170,8 +23072,14 @@
       <c r="AD247" t="s">
         <v>1484</v>
       </c>
-    </row>
-    <row r="248" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG247">
+        <v>423</v>
+      </c>
+      <c r="AY247" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="248" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B248">
         <v>25</v>
       </c>
@@ -20193,8 +23101,14 @@
       <c r="AD248" t="s">
         <v>1485</v>
       </c>
-    </row>
-    <row r="249" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG248">
+        <v>436</v>
+      </c>
+      <c r="AY248" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="249" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B249">
         <v>25</v>
       </c>
@@ -20216,8 +23130,14 @@
       <c r="AD249" t="s">
         <v>1486</v>
       </c>
-    </row>
-    <row r="250" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG249">
+        <v>449</v>
+      </c>
+      <c r="AY249" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="250" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B250">
         <v>24</v>
       </c>
@@ -20239,8 +23159,14 @@
       <c r="AD250" t="s">
         <v>1487</v>
       </c>
-    </row>
-    <row r="251" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG250">
+        <v>463</v>
+      </c>
+      <c r="AY250" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="251" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B251">
         <v>24</v>
       </c>
@@ -20262,8 +23188,14 @@
       <c r="AD251" t="s">
         <v>1488</v>
       </c>
-    </row>
-    <row r="252" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG251">
+        <v>475</v>
+      </c>
+      <c r="AY251" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="252" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B252">
         <v>23</v>
       </c>
@@ -20285,8 +23217,14 @@
       <c r="AD252" t="s">
         <v>1489</v>
       </c>
-    </row>
-    <row r="253" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG252">
+        <v>488</v>
+      </c>
+      <c r="AY252" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="253" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B253">
         <v>23</v>
       </c>
@@ -20308,8 +23246,14 @@
       <c r="AD253" t="s">
         <v>1490</v>
       </c>
-    </row>
-    <row r="254" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG253">
+        <v>500</v>
+      </c>
+      <c r="AY253" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="254" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B254">
         <v>23</v>
       </c>
@@ -20331,8 +23275,14 @@
       <c r="AD254" t="s">
         <v>1491</v>
       </c>
-    </row>
-    <row r="255" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG254">
+        <v>512</v>
+      </c>
+      <c r="AY254" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="255" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B255">
         <v>22</v>
       </c>
@@ -20354,8 +23304,14 @@
       <c r="AD255" t="s">
         <v>1492</v>
       </c>
-    </row>
-    <row r="256" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG255">
+        <v>523</v>
+      </c>
+      <c r="AY255" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="256" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B256">
         <v>22</v>
       </c>
@@ -20377,8 +23333,14 @@
       <c r="AD256" t="s">
         <v>1493</v>
       </c>
-    </row>
-    <row r="257" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG256">
+        <v>534</v>
+      </c>
+      <c r="AY256" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="257" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B257">
         <v>21</v>
       </c>
@@ -20400,8 +23362,14 @@
       <c r="AD257" t="s">
         <v>1494</v>
       </c>
-    </row>
-    <row r="258" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG257">
+        <v>542</v>
+      </c>
+      <c r="AY257" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="258" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B258">
         <v>21</v>
       </c>
@@ -20423,8 +23391,14 @@
       <c r="AD258" t="s">
         <v>1495</v>
       </c>
-    </row>
-    <row r="259" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG258">
+        <v>545</v>
+      </c>
+      <c r="AY258" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="259" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B259">
         <v>21</v>
       </c>
@@ -20446,8 +23420,14 @@
       <c r="AD259" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="260" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG259">
+        <v>544</v>
+      </c>
+      <c r="AY259" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="260" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B260">
         <v>20</v>
       </c>
@@ -20469,8 +23449,14 @@
       <c r="AD260" t="s">
         <v>1497</v>
       </c>
-    </row>
-    <row r="261" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG260">
+        <v>540</v>
+      </c>
+      <c r="AY260" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="261" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B261">
         <v>20</v>
       </c>
@@ -20492,8 +23478,14 @@
       <c r="AD261" t="s">
         <v>1498</v>
       </c>
-    </row>
-    <row r="262" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG261">
+        <v>534</v>
+      </c>
+      <c r="AY261" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="262" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B262">
         <v>20</v>
       </c>
@@ -20515,8 +23507,14 @@
       <c r="AD262" t="s">
         <v>1499</v>
       </c>
-    </row>
-    <row r="263" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG262">
+        <v>527</v>
+      </c>
+      <c r="AY262" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="263" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B263">
         <v>19</v>
       </c>
@@ -20538,8 +23536,14 @@
       <c r="AD263" t="s">
         <v>1500</v>
       </c>
-    </row>
-    <row r="264" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG263">
+        <v>519</v>
+      </c>
+      <c r="AY263" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="264" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B264">
         <v>19</v>
       </c>
@@ -20561,8 +23565,14 @@
       <c r="AD264" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="265" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG264">
+        <v>509</v>
+      </c>
+      <c r="AY264" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="265" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B265">
         <v>19</v>
       </c>
@@ -20584,8 +23594,14 @@
       <c r="AD265" t="s">
         <v>1502</v>
       </c>
-    </row>
-    <row r="266" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG265">
+        <v>499</v>
+      </c>
+      <c r="AY265" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="266" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B266">
         <v>19</v>
       </c>
@@ -20607,8 +23623,14 @@
       <c r="AD266" t="s">
         <v>1503</v>
       </c>
-    </row>
-    <row r="267" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG266">
+        <v>488</v>
+      </c>
+      <c r="AY266" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="267" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B267">
         <v>18</v>
       </c>
@@ -20630,8 +23652,14 @@
       <c r="AD267" t="s">
         <v>1504</v>
       </c>
-    </row>
-    <row r="268" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG267">
+        <v>477</v>
+      </c>
+      <c r="AY267" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="268" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B268">
         <v>18</v>
       </c>
@@ -20653,8 +23681,14 @@
       <c r="AD268" t="s">
         <v>1505</v>
       </c>
-    </row>
-    <row r="269" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG268">
+        <v>467</v>
+      </c>
+      <c r="AY268" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="269" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B269">
         <v>18</v>
       </c>
@@ -20676,8 +23710,14 @@
       <c r="AD269" t="s">
         <v>1506</v>
       </c>
-    </row>
-    <row r="270" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG269">
+        <v>456</v>
+      </c>
+      <c r="AY269" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="270" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B270">
         <v>18</v>
       </c>
@@ -20699,8 +23739,14 @@
       <c r="AD270" t="s">
         <v>1507</v>
       </c>
-    </row>
-    <row r="271" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG270">
+        <v>444</v>
+      </c>
+      <c r="AY270" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="271" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B271">
         <v>18</v>
       </c>
@@ -20722,8 +23768,14 @@
       <c r="AD271" t="s">
         <v>1508</v>
       </c>
-    </row>
-    <row r="272" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG271">
+        <v>433</v>
+      </c>
+      <c r="AY271" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="272" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B272">
         <v>17</v>
       </c>
@@ -20745,8 +23797,14 @@
       <c r="AD272" t="s">
         <v>1509</v>
       </c>
-    </row>
-    <row r="273" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG272">
+        <v>423</v>
+      </c>
+      <c r="AY272" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="273" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B273">
         <v>17</v>
       </c>
@@ -20768,8 +23826,14 @@
       <c r="AD273" t="s">
         <v>1510</v>
       </c>
-    </row>
-    <row r="274" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG273">
+        <v>412</v>
+      </c>
+      <c r="AY273" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="274" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B274">
         <v>17</v>
       </c>
@@ -20791,8 +23855,14 @@
       <c r="AD274" t="s">
         <v>1511</v>
       </c>
-    </row>
-    <row r="275" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG274">
+        <v>402</v>
+      </c>
+      <c r="AY274" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="275" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B275">
         <v>16</v>
       </c>
@@ -20814,8 +23884,14 @@
       <c r="AD275" t="s">
         <v>1512</v>
       </c>
-    </row>
-    <row r="276" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG275">
+        <v>391</v>
+      </c>
+      <c r="AY275" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="276" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B276">
         <v>16</v>
       </c>
@@ -20837,8 +23913,14 @@
       <c r="AD276" t="s">
         <v>1513</v>
       </c>
-    </row>
-    <row r="277" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG276">
+        <v>381</v>
+      </c>
+      <c r="AY276" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="277" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B277">
         <v>16</v>
       </c>
@@ -20860,8 +23942,14 @@
       <c r="AD277" t="s">
         <v>1514</v>
       </c>
-    </row>
-    <row r="278" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG277">
+        <v>371</v>
+      </c>
+      <c r="AY277" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="278" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B278">
         <v>16</v>
       </c>
@@ -20883,8 +23971,14 @@
       <c r="AD278" t="s">
         <v>1515</v>
       </c>
-    </row>
-    <row r="279" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG278">
+        <v>362</v>
+      </c>
+      <c r="AY278" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="279" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B279">
         <v>15</v>
       </c>
@@ -20906,8 +24000,14 @@
       <c r="AD279" t="s">
         <v>1516</v>
       </c>
-    </row>
-    <row r="280" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG279">
+        <v>352</v>
+      </c>
+      <c r="AY279" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="280" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B280">
         <v>15</v>
       </c>
@@ -20929,8 +24029,14 @@
       <c r="AD280" t="s">
         <v>1517</v>
       </c>
-    </row>
-    <row r="281" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG280">
+        <v>343</v>
+      </c>
+      <c r="AY280" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="281" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B281">
         <v>15</v>
       </c>
@@ -20952,8 +24058,14 @@
       <c r="AD281" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="282" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG281">
+        <v>334</v>
+      </c>
+      <c r="AY281" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="282" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B282">
         <v>15</v>
       </c>
@@ -20975,8 +24087,14 @@
       <c r="AD282" t="s">
         <v>1519</v>
       </c>
-    </row>
-    <row r="283" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG282">
+        <v>325</v>
+      </c>
+      <c r="AY282" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="283" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B283">
         <v>15</v>
       </c>
@@ -20998,8 +24116,14 @@
       <c r="AD283" t="s">
         <v>1520</v>
       </c>
-    </row>
-    <row r="284" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG283">
+        <v>317</v>
+      </c>
+      <c r="AY283" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="284" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B284">
         <v>14</v>
       </c>
@@ -21021,8 +24145,14 @@
       <c r="AD284" t="s">
         <v>1521</v>
       </c>
-    </row>
-    <row r="285" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG284">
+        <v>309</v>
+      </c>
+      <c r="AY284" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="285" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B285">
         <v>14</v>
       </c>
@@ -21044,8 +24174,14 @@
       <c r="AD285" t="s">
         <v>1522</v>
       </c>
-    </row>
-    <row r="286" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG285">
+        <v>301</v>
+      </c>
+      <c r="AY285" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="286" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B286">
         <v>14</v>
       </c>
@@ -21067,8 +24203,14 @@
       <c r="AD286" t="s">
         <v>1523</v>
       </c>
-    </row>
-    <row r="287" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG286">
+        <v>293</v>
+      </c>
+      <c r="AY286" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="287" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B287">
         <v>14</v>
       </c>
@@ -21090,8 +24232,14 @@
       <c r="AD287" t="s">
         <v>1524</v>
       </c>
-    </row>
-    <row r="288" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG287">
+        <v>285</v>
+      </c>
+      <c r="AY287" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="288" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B288">
         <v>14</v>
       </c>
@@ -21113,8 +24261,14 @@
       <c r="AD288" t="s">
         <v>1525</v>
       </c>
-    </row>
-    <row r="289" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG288">
+        <v>278</v>
+      </c>
+      <c r="AY288" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="289" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B289">
         <v>13</v>
       </c>
@@ -21136,8 +24290,14 @@
       <c r="AD289" t="s">
         <v>1526</v>
       </c>
-    </row>
-    <row r="290" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG289">
+        <v>270</v>
+      </c>
+      <c r="AY289" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="290" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B290">
         <v>13</v>
       </c>
@@ -21159,8 +24319,14 @@
       <c r="AD290" t="s">
         <v>1527</v>
       </c>
-    </row>
-    <row r="291" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG290">
+        <v>263</v>
+      </c>
+      <c r="AY290" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="291" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B291">
         <v>13</v>
       </c>
@@ -21182,8 +24348,14 @@
       <c r="AD291" t="s">
         <v>1528</v>
       </c>
-    </row>
-    <row r="292" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG291">
+        <v>257</v>
+      </c>
+      <c r="AY291" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="292" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B292">
         <v>13</v>
       </c>
@@ -21205,8 +24377,14 @@
       <c r="AD292" t="s">
         <v>1529</v>
       </c>
-    </row>
-    <row r="293" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG292">
+        <v>250</v>
+      </c>
+      <c r="AY292" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="293" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B293">
         <v>13</v>
       </c>
@@ -21228,8 +24406,14 @@
       <c r="AD293" t="s">
         <v>1530</v>
       </c>
-    </row>
-    <row r="294" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG293">
+        <v>244</v>
+      </c>
+      <c r="AY293" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="294" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B294">
         <v>13</v>
       </c>
@@ -21251,8 +24435,14 @@
       <c r="AD294" t="s">
         <v>1531</v>
       </c>
-    </row>
-    <row r="295" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG294">
+        <v>237</v>
+      </c>
+      <c r="AY294" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="295" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B295">
         <v>13</v>
       </c>
@@ -21274,8 +24464,14 @@
       <c r="AD295" t="s">
         <v>1532</v>
       </c>
-    </row>
-    <row r="296" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG295">
+        <v>232</v>
+      </c>
+      <c r="AY295" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="296" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B296">
         <v>12</v>
       </c>
@@ -21297,8 +24493,14 @@
       <c r="AD296" t="s">
         <v>1533</v>
       </c>
-    </row>
-    <row r="297" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG296">
+        <v>225</v>
+      </c>
+      <c r="AY296" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="297" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B297">
         <v>12</v>
       </c>
@@ -21320,8 +24522,14 @@
       <c r="AD297" t="s">
         <v>1534</v>
       </c>
-    </row>
-    <row r="298" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG297">
+        <v>220</v>
+      </c>
+      <c r="AY297" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="298" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B298">
         <v>12</v>
       </c>
@@ -21343,8 +24551,14 @@
       <c r="AD298" t="s">
         <v>1535</v>
       </c>
-    </row>
-    <row r="299" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG298">
+        <v>214</v>
+      </c>
+      <c r="AY298" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="299" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B299">
         <v>12</v>
       </c>
@@ -21366,8 +24580,14 @@
       <c r="AD299" t="s">
         <v>1536</v>
       </c>
-    </row>
-    <row r="300" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG299">
+        <v>209</v>
+      </c>
+      <c r="AY299" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="300" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B300">
         <v>11</v>
       </c>
@@ -21389,8 +24609,14 @@
       <c r="AD300" t="s">
         <v>1537</v>
       </c>
-    </row>
-    <row r="301" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG300">
+        <v>204</v>
+      </c>
+      <c r="AY300" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="301" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B301">
         <v>11</v>
       </c>
@@ -21412,8 +24638,14 @@
       <c r="AD301" t="s">
         <v>1538</v>
       </c>
-    </row>
-    <row r="302" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG301">
+        <v>198</v>
+      </c>
+      <c r="AY301" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="302" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B302">
         <v>11</v>
       </c>
@@ -21435,8 +24667,14 @@
       <c r="AD302" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="303" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG302">
+        <v>193</v>
+      </c>
+      <c r="AY302" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="303" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B303">
         <v>11</v>
       </c>
@@ -21458,8 +24696,14 @@
       <c r="AD303" t="s">
         <v>1540</v>
       </c>
-    </row>
-    <row r="304" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG303">
+        <v>188</v>
+      </c>
+      <c r="AY303" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="304" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B304">
         <v>11</v>
       </c>
@@ -21481,8 +24725,14 @@
       <c r="AD304" t="s">
         <v>1541</v>
       </c>
-    </row>
-    <row r="305" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG304">
+        <v>183</v>
+      </c>
+      <c r="AY304" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="305" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B305">
         <v>11</v>
       </c>
@@ -21504,8 +24754,14 @@
       <c r="AD305" t="s">
         <v>1542</v>
       </c>
-    </row>
-    <row r="306" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG305">
+        <v>179</v>
+      </c>
+      <c r="AY305" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="306" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B306">
         <v>11</v>
       </c>
@@ -21527,8 +24783,14 @@
       <c r="AD306" t="s">
         <v>1543</v>
       </c>
-    </row>
-    <row r="307" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG306">
+        <v>174</v>
+      </c>
+      <c r="AY306" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="307" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B307">
         <v>10</v>
       </c>
@@ -21550,8 +24812,14 @@
       <c r="AD307" t="s">
         <v>1544</v>
       </c>
-    </row>
-    <row r="308" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG307">
+        <v>170</v>
+      </c>
+      <c r="AY307" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="308" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B308">
         <v>10</v>
       </c>
@@ -21573,8 +24841,14 @@
       <c r="AD308" t="s">
         <v>1545</v>
       </c>
-    </row>
-    <row r="309" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG308">
+        <v>166</v>
+      </c>
+      <c r="AY308" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="309" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B309">
         <v>11</v>
       </c>
@@ -21596,8 +24870,14 @@
       <c r="AD309" t="s">
         <v>1546</v>
       </c>
-    </row>
-    <row r="310" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG309">
+        <v>162</v>
+      </c>
+      <c r="AY309" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="310" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B310">
         <v>10</v>
       </c>
@@ -21619,8 +24899,14 @@
       <c r="AD310" t="s">
         <v>1547</v>
       </c>
-    </row>
-    <row r="311" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG310">
+        <v>158</v>
+      </c>
+      <c r="AY310" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="311" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B311">
         <v>10</v>
       </c>
@@ -21642,8 +24928,14 @@
       <c r="AD311" t="s">
         <v>1548</v>
       </c>
-    </row>
-    <row r="312" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG311">
+        <v>154</v>
+      </c>
+      <c r="AY311" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="312" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B312">
         <v>10</v>
       </c>
@@ -21665,8 +24957,14 @@
       <c r="AD312" t="s">
         <v>1549</v>
       </c>
-    </row>
-    <row r="313" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG312">
+        <v>150</v>
+      </c>
+      <c r="AY312" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="313" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B313">
         <v>10</v>
       </c>
@@ -21688,8 +24986,14 @@
       <c r="AD313" t="s">
         <v>1550</v>
       </c>
-    </row>
-    <row r="314" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG313">
+        <v>146</v>
+      </c>
+      <c r="AY313" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="314" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B314">
         <v>10</v>
       </c>
@@ -21711,8 +25015,14 @@
       <c r="AD314" t="s">
         <v>1551</v>
       </c>
-    </row>
-    <row r="315" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG314">
+        <v>143</v>
+      </c>
+      <c r="AY314" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="315" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B315">
         <v>10</v>
       </c>
@@ -21734,8 +25044,14 @@
       <c r="AD315" t="s">
         <v>1552</v>
       </c>
-    </row>
-    <row r="316" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG315">
+        <v>139</v>
+      </c>
+      <c r="AY315" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="316" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B316">
         <v>9</v>
       </c>
@@ -21757,8 +25073,14 @@
       <c r="AD316" t="s">
         <v>1553</v>
       </c>
-    </row>
-    <row r="317" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG316">
+        <v>136</v>
+      </c>
+      <c r="AY316" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="317" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B317">
         <v>9</v>
       </c>
@@ -21780,8 +25102,14 @@
       <c r="AD317" t="s">
         <v>1554</v>
       </c>
-    </row>
-    <row r="318" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG317">
+        <v>133</v>
+      </c>
+      <c r="AY317" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="318" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B318">
         <v>9</v>
       </c>
@@ -21803,8 +25131,14 @@
       <c r="AD318" t="s">
         <v>1555</v>
       </c>
-    </row>
-    <row r="319" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG318">
+        <v>129</v>
+      </c>
+      <c r="AY318" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="319" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B319">
         <v>9</v>
       </c>
@@ -21826,8 +25160,14 @@
       <c r="AD319" t="s">
         <v>1556</v>
       </c>
-    </row>
-    <row r="320" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG319">
+        <v>126</v>
+      </c>
+      <c r="AY319" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="320" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B320">
         <v>9</v>
       </c>
@@ -21849,8 +25189,14 @@
       <c r="AD320" t="s">
         <v>1557</v>
       </c>
-    </row>
-    <row r="321" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG320">
+        <v>123</v>
+      </c>
+      <c r="AY320" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="321" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B321">
         <v>9</v>
       </c>
@@ -21872,8 +25218,14 @@
       <c r="AD321" t="s">
         <v>1558</v>
       </c>
-    </row>
-    <row r="322" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG321">
+        <v>120</v>
+      </c>
+      <c r="AY321" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="322" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B322">
         <v>9</v>
       </c>
@@ -21895,8 +25247,14 @@
       <c r="AD322" t="s">
         <v>1559</v>
       </c>
-    </row>
-    <row r="323" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG322">
+        <v>117</v>
+      </c>
+      <c r="AY322" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="323" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B323">
         <v>9</v>
       </c>
@@ -21918,8 +25276,14 @@
       <c r="AD323" t="s">
         <v>1560</v>
       </c>
-    </row>
-    <row r="324" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG323">
+        <v>114</v>
+      </c>
+      <c r="AY323" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="324" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B324">
         <v>8</v>
       </c>
@@ -21941,8 +25305,14 @@
       <c r="AD324" t="s">
         <v>1561</v>
       </c>
-    </row>
-    <row r="325" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG324">
+        <v>112</v>
+      </c>
+      <c r="AY324" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="325" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B325">
         <v>9</v>
       </c>
@@ -21964,8 +25334,14 @@
       <c r="AD325" t="s">
         <v>1562</v>
       </c>
-    </row>
-    <row r="326" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG325">
+        <v>109</v>
+      </c>
+      <c r="AY325" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="326" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B326">
         <v>8</v>
       </c>
@@ -21987,8 +25363,14 @@
       <c r="AD326" t="s">
         <v>1563</v>
       </c>
-    </row>
-    <row r="327" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG326">
+        <v>107</v>
+      </c>
+      <c r="AY326" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="327" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B327">
         <v>8</v>
       </c>
@@ -22010,8 +25392,14 @@
       <c r="AD327" t="s">
         <v>1564</v>
       </c>
-    </row>
-    <row r="328" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG327">
+        <v>104</v>
+      </c>
+      <c r="AY327" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="328" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B328">
         <v>8</v>
       </c>
@@ -22033,8 +25421,14 @@
       <c r="AD328" t="s">
         <v>1565</v>
       </c>
-    </row>
-    <row r="329" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG328">
+        <v>102</v>
+      </c>
+      <c r="AY328" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="329" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B329">
         <v>8</v>
       </c>
@@ -22056,8 +25450,14 @@
       <c r="AD329" t="s">
         <v>1566</v>
       </c>
-    </row>
-    <row r="330" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG329">
+        <v>99</v>
+      </c>
+      <c r="AY329" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="330" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B330">
         <v>8</v>
       </c>
@@ -22079,8 +25479,14 @@
       <c r="AD330" t="s">
         <v>1567</v>
       </c>
-    </row>
-    <row r="331" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG330">
+        <v>97</v>
+      </c>
+      <c r="AY330" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="331" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B331">
         <v>8</v>
       </c>
@@ -22102,8 +25508,14 @@
       <c r="AD331" t="s">
         <v>1568</v>
       </c>
-    </row>
-    <row r="332" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG331">
+        <v>95</v>
+      </c>
+      <c r="AY331" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="332" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B332">
         <v>8</v>
       </c>
@@ -22125,8 +25537,14 @@
       <c r="AD332" t="s">
         <v>1569</v>
       </c>
-    </row>
-    <row r="333" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG332">
+        <v>92</v>
+      </c>
+      <c r="AY332" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="333" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B333">
         <v>8</v>
       </c>
@@ -22148,8 +25566,14 @@
       <c r="AD333" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="334" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG333">
+        <v>90</v>
+      </c>
+      <c r="AY333" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="334" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B334">
         <v>8</v>
       </c>
@@ -22171,8 +25595,14 @@
       <c r="AD334" t="s">
         <v>1571</v>
       </c>
-    </row>
-    <row r="335" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG334">
+        <v>88</v>
+      </c>
+      <c r="AY334" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="335" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B335">
         <v>8</v>
       </c>
@@ -22194,8 +25624,14 @@
       <c r="AD335" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="336" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG335">
+        <v>86</v>
+      </c>
+      <c r="AY335" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="336" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B336">
         <v>8</v>
       </c>
@@ -22217,8 +25653,14 @@
       <c r="AD336" t="s">
         <v>1573</v>
       </c>
-    </row>
-    <row r="337" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG336">
+        <v>84</v>
+      </c>
+      <c r="AY336" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="337" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B337">
         <v>7</v>
       </c>
@@ -22240,8 +25682,14 @@
       <c r="AD337" t="s">
         <v>1574</v>
       </c>
-    </row>
-    <row r="338" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG337">
+        <v>82</v>
+      </c>
+      <c r="AY337" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="338" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B338">
         <v>7</v>
       </c>
@@ -22263,8 +25711,14 @@
       <c r="AD338" t="s">
         <v>1575</v>
       </c>
-    </row>
-    <row r="339" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG338">
+        <v>80</v>
+      </c>
+      <c r="AY338" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="339" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B339">
         <v>7</v>
       </c>
@@ -22286,8 +25740,14 @@
       <c r="AD339" t="s">
         <v>1576</v>
       </c>
-    </row>
-    <row r="340" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG339">
+        <v>78</v>
+      </c>
+      <c r="AY339" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="340" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B340">
         <v>7</v>
       </c>
@@ -22309,8 +25769,14 @@
       <c r="AD340" t="s">
         <v>1577</v>
       </c>
-    </row>
-    <row r="341" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG340">
+        <v>77</v>
+      </c>
+      <c r="AY340" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="341" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B341">
         <v>7</v>
       </c>
@@ -22332,8 +25798,14 @@
       <c r="AD341" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="342" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG341">
+        <v>75</v>
+      </c>
+      <c r="AY341" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="342" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B342">
         <v>7</v>
       </c>
@@ -22355,8 +25827,14 @@
       <c r="AD342" t="s">
         <v>1579</v>
       </c>
-    </row>
-    <row r="343" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG342">
+        <v>73</v>
+      </c>
+      <c r="AY342" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="343" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B343">
         <v>7</v>
       </c>
@@ -22378,8 +25856,14 @@
       <c r="AD343" t="s">
         <v>1580</v>
       </c>
-    </row>
-    <row r="344" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG343">
+        <v>71</v>
+      </c>
+      <c r="AY343" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="344" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B344">
         <v>7</v>
       </c>
@@ -22401,8 +25885,14 @@
       <c r="AD344" t="s">
         <v>1581</v>
       </c>
-    </row>
-    <row r="345" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG344">
+        <v>70</v>
+      </c>
+      <c r="AY344" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="345" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B345">
         <v>7</v>
       </c>
@@ -22424,8 +25914,14 @@
       <c r="AD345" t="s">
         <v>1582</v>
       </c>
-    </row>
-    <row r="346" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG345">
+        <v>69</v>
+      </c>
+      <c r="AY345" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="346" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B346">
         <v>7</v>
       </c>
@@ -22447,8 +25943,14 @@
       <c r="AD346" t="s">
         <v>1583</v>
       </c>
-    </row>
-    <row r="347" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG346">
+        <v>67</v>
+      </c>
+      <c r="AY346" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="347" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B347">
         <v>6</v>
       </c>
@@ -22470,8 +25972,14 @@
       <c r="AD347" t="s">
         <v>1584</v>
       </c>
-    </row>
-    <row r="348" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG347">
+        <v>65</v>
+      </c>
+      <c r="AY347" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="348" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B348">
         <v>7</v>
       </c>
@@ -22493,8 +26001,14 @@
       <c r="AD348" t="s">
         <v>1585</v>
       </c>
-    </row>
-    <row r="349" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG348">
+        <v>64</v>
+      </c>
+      <c r="AY348" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="349" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B349">
         <v>7</v>
       </c>
@@ -22516,8 +26030,14 @@
       <c r="AD349" t="s">
         <v>1586</v>
       </c>
-    </row>
-    <row r="350" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG349">
+        <v>62</v>
+      </c>
+      <c r="AY349" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="350" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B350">
         <v>7</v>
       </c>
@@ -22539,8 +26059,14 @@
       <c r="AD350" t="s">
         <v>1587</v>
       </c>
-    </row>
-    <row r="351" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG350">
+        <v>61</v>
+      </c>
+      <c r="AY350" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="351" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B351">
         <v>6</v>
       </c>
@@ -22562,8 +26088,14 @@
       <c r="AD351" t="s">
         <v>1588</v>
       </c>
-    </row>
-    <row r="352" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG351">
+        <v>60</v>
+      </c>
+      <c r="AY351" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="352" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B352">
         <v>6</v>
       </c>
@@ -22585,8 +26117,14 @@
       <c r="AD352" t="s">
         <v>1589</v>
       </c>
-    </row>
-    <row r="353" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG352">
+        <v>62</v>
+      </c>
+      <c r="AY352" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="353" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B353">
         <v>6</v>
       </c>
@@ -22608,8 +26146,14 @@
       <c r="AD353" t="s">
         <v>1590</v>
       </c>
-    </row>
-    <row r="354" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG353">
+        <v>68</v>
+      </c>
+      <c r="AY353" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="354" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B354">
         <v>6</v>
       </c>
@@ -22631,8 +26175,14 @@
       <c r="AD354" t="s">
         <v>1591</v>
       </c>
-    </row>
-    <row r="355" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG354">
+        <v>78</v>
+      </c>
+      <c r="AY354" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="355" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B355">
         <v>6</v>
       </c>
@@ -22654,8 +26204,14 @@
       <c r="AD355" t="s">
         <v>1592</v>
       </c>
-    </row>
-    <row r="356" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG355">
+        <v>90</v>
+      </c>
+      <c r="AY355" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="356" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B356">
         <v>6</v>
       </c>
@@ -22677,8 +26233,14 @@
       <c r="AD356" t="s">
         <v>1593</v>
       </c>
-    </row>
-    <row r="357" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG356">
+        <v>102</v>
+      </c>
+      <c r="AY356" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="357" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B357">
         <v>6</v>
       </c>
@@ -22700,8 +26262,14 @@
       <c r="AD357" t="s">
         <v>1594</v>
       </c>
-    </row>
-    <row r="358" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG357">
+        <v>110</v>
+      </c>
+      <c r="AY357" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="358" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B358">
         <v>6</v>
       </c>
@@ -22723,8 +26291,14 @@
       <c r="AD358" t="s">
         <v>1595</v>
       </c>
-    </row>
-    <row r="359" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG358">
+        <v>116</v>
+      </c>
+      <c r="AY358" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="359" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B359">
         <v>6</v>
       </c>
@@ -22746,8 +26320,14 @@
       <c r="AD359" t="s">
         <v>1596</v>
       </c>
-    </row>
-    <row r="360" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG359">
+        <v>119</v>
+      </c>
+      <c r="AY359" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="360" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B360">
         <v>6</v>
       </c>
@@ -22769,8 +26349,14 @@
       <c r="AD360" t="s">
         <v>1597</v>
       </c>
-    </row>
-    <row r="361" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG360">
+        <v>122</v>
+      </c>
+      <c r="AY360" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="361" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B361">
         <v>6</v>
       </c>
@@ -22792,8 +26378,14 @@
       <c r="AD361" t="s">
         <v>1598</v>
       </c>
-    </row>
-    <row r="362" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG361">
+        <v>123</v>
+      </c>
+      <c r="AY361" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="362" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B362">
         <v>5</v>
       </c>
@@ -22815,8 +26407,14 @@
       <c r="AD362" t="s">
         <v>1599</v>
       </c>
-    </row>
-    <row r="363" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG362">
+        <v>123</v>
+      </c>
+      <c r="AY362" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="363" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B363">
         <v>5</v>
       </c>
@@ -22838,8 +26436,14 @@
       <c r="AD363" t="s">
         <v>1600</v>
       </c>
-    </row>
-    <row r="364" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG363">
+        <v>123</v>
+      </c>
+      <c r="AY363" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="364" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B364">
         <v>5</v>
       </c>
@@ -22861,8 +26465,14 @@
       <c r="AD364" t="s">
         <v>1601</v>
       </c>
-    </row>
-    <row r="365" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG364">
+        <v>122</v>
+      </c>
+      <c r="AY364" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="365" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B365">
         <v>5</v>
       </c>
@@ -22884,8 +26494,14 @@
       <c r="AD365" t="s">
         <v>1602</v>
       </c>
-    </row>
-    <row r="366" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG365">
+        <v>120</v>
+      </c>
+      <c r="AY365" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="366" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B366">
         <v>5</v>
       </c>
@@ -22907,8 +26523,14 @@
       <c r="AD366" t="s">
         <v>1603</v>
       </c>
-    </row>
-    <row r="367" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG366">
+        <v>119</v>
+      </c>
+      <c r="AY366" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="367" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B367">
         <v>6</v>
       </c>
@@ -22930,8 +26552,14 @@
       <c r="AD367" t="s">
         <v>1604</v>
       </c>
-    </row>
-    <row r="368" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG367">
+        <v>117</v>
+      </c>
+      <c r="AY367" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="368" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B368">
         <v>5</v>
       </c>
@@ -22953,8 +26581,14 @@
       <c r="AD368" t="s">
         <v>1605</v>
       </c>
-    </row>
-    <row r="369" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG368">
+        <v>115</v>
+      </c>
+      <c r="AY368" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="369" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B369">
         <v>5</v>
       </c>
@@ -22976,8 +26610,14 @@
       <c r="AD369" t="s">
         <v>1606</v>
       </c>
-    </row>
-    <row r="370" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG369">
+        <v>112</v>
+      </c>
+      <c r="AY369" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="370" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B370">
         <v>5</v>
       </c>
@@ -22999,8 +26639,14 @@
       <c r="AD370" t="s">
         <v>1607</v>
       </c>
-    </row>
-    <row r="371" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG370">
+        <v>110</v>
+      </c>
+      <c r="AY370" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="371" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B371">
         <v>6</v>
       </c>
@@ -23022,8 +26668,14 @@
       <c r="AD371" t="s">
         <v>1608</v>
       </c>
-    </row>
-    <row r="372" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG371">
+        <v>108</v>
+      </c>
+      <c r="AY371" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="372" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B372">
         <v>5</v>
       </c>
@@ -23045,8 +26697,14 @@
       <c r="AD372" t="s">
         <v>1609</v>
       </c>
-    </row>
-    <row r="373" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG372">
+        <v>106</v>
+      </c>
+      <c r="AY372" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="373" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B373">
         <v>5</v>
       </c>
@@ -23068,8 +26726,14 @@
       <c r="AD373" t="s">
         <v>1610</v>
       </c>
-    </row>
-    <row r="374" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG373">
+        <v>103</v>
+      </c>
+      <c r="AY373" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="374" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B374">
         <v>5</v>
       </c>
@@ -23091,8 +26755,14 @@
       <c r="AD374" t="s">
         <v>1611</v>
       </c>
-    </row>
-    <row r="375" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG374">
+        <v>101</v>
+      </c>
+      <c r="AY374" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="375" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B375">
         <v>5</v>
       </c>
@@ -23114,8 +26784,14 @@
       <c r="AD375" t="s">
         <v>1612</v>
       </c>
-    </row>
-    <row r="376" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG375">
+        <v>98</v>
+      </c>
+      <c r="AY375" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="376" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B376">
         <v>5</v>
       </c>
@@ -23137,8 +26813,14 @@
       <c r="AD376" t="s">
         <v>1613</v>
       </c>
-    </row>
-    <row r="377" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG376">
+        <v>96</v>
+      </c>
+      <c r="AY376" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="377" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B377">
         <v>5</v>
       </c>
@@ -23160,8 +26842,14 @@
       <c r="AD377" t="s">
         <v>1614</v>
       </c>
-    </row>
-    <row r="378" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG377">
+        <v>93</v>
+      </c>
+      <c r="AY377" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="378" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B378">
         <v>5</v>
       </c>
@@ -23183,8 +26871,14 @@
       <c r="AD378" t="s">
         <v>1615</v>
       </c>
-    </row>
-    <row r="379" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG378">
+        <v>91</v>
+      </c>
+      <c r="AY378" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="379" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B379">
         <v>5</v>
       </c>
@@ -23206,8 +26900,14 @@
       <c r="AD379" t="s">
         <v>1616</v>
       </c>
-    </row>
-    <row r="380" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG379">
+        <v>89</v>
+      </c>
+      <c r="AY379" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="380" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B380">
         <v>5</v>
       </c>
@@ -23229,8 +26929,14 @@
       <c r="AD380" t="s">
         <v>1617</v>
       </c>
-    </row>
-    <row r="381" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG380">
+        <v>87</v>
+      </c>
+      <c r="AY380" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="381" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B381">
         <v>5</v>
       </c>
@@ -23252,8 +26958,14 @@
       <c r="AD381" t="s">
         <v>1618</v>
       </c>
-    </row>
-    <row r="382" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG381">
+        <v>85</v>
+      </c>
+      <c r="AY381" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="382" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B382">
         <v>5</v>
       </c>
@@ -23275,8 +26987,14 @@
       <c r="AD382" t="s">
         <v>1619</v>
       </c>
-    </row>
-    <row r="383" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG382">
+        <v>86</v>
+      </c>
+      <c r="AY382" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="383" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B383">
         <v>5</v>
       </c>
@@ -23298,8 +27016,14 @@
       <c r="AD383" t="s">
         <v>1620</v>
       </c>
-    </row>
-    <row r="384" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG383">
+        <v>92</v>
+      </c>
+      <c r="AY383" t="s">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="384" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B384">
         <v>4</v>
       </c>
@@ -23321,8 +27045,14 @@
       <c r="AD384" t="s">
         <v>1621</v>
       </c>
-    </row>
-    <row r="385" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG384">
+        <v>101</v>
+      </c>
+      <c r="AY384" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="385" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B385">
         <v>5</v>
       </c>
@@ -23344,8 +27074,14 @@
       <c r="AD385" t="s">
         <v>1622</v>
       </c>
-    </row>
-    <row r="386" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG385">
+        <v>112</v>
+      </c>
+      <c r="AY385" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="386" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B386">
         <v>4</v>
       </c>
@@ -23367,8 +27103,14 @@
       <c r="AD386" t="s">
         <v>1623</v>
       </c>
-    </row>
-    <row r="387" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG386">
+        <v>126</v>
+      </c>
+      <c r="AY386" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="387" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B387">
         <v>4</v>
       </c>
@@ -23390,8 +27132,14 @@
       <c r="AD387" t="s">
         <v>1624</v>
       </c>
-    </row>
-    <row r="388" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG387">
+        <v>142</v>
+      </c>
+      <c r="AY387" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="388" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B388">
         <v>4</v>
       </c>
@@ -23413,8 +27161,14 @@
       <c r="AD388" t="s">
         <v>1625</v>
       </c>
-    </row>
-    <row r="389" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG388">
+        <v>158</v>
+      </c>
+      <c r="AY388" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="389" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B389">
         <v>4</v>
       </c>
@@ -23436,8 +27190,14 @@
       <c r="AD389" t="s">
         <v>1626</v>
       </c>
-    </row>
-    <row r="390" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG389">
+        <v>175</v>
+      </c>
+      <c r="AY389" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="390" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B390">
         <v>4</v>
       </c>
@@ -23459,8 +27219,14 @@
       <c r="AD390" t="s">
         <v>1627</v>
       </c>
-    </row>
-    <row r="391" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG390">
+        <v>192</v>
+      </c>
+      <c r="AY390" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="391" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B391">
         <v>4</v>
       </c>
@@ -23482,8 +27248,14 @@
       <c r="AD391" t="s">
         <v>1628</v>
       </c>
-    </row>
-    <row r="392" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG391">
+        <v>207</v>
+      </c>
+      <c r="AY391" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="392" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B392">
         <v>4</v>
       </c>
@@ -23505,8 +27277,14 @@
       <c r="AD392" t="s">
         <v>1629</v>
       </c>
-    </row>
-    <row r="393" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG392">
+        <v>217</v>
+      </c>
+      <c r="AY392" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="393" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B393">
         <v>4</v>
       </c>
@@ -23528,8 +27306,14 @@
       <c r="AD393" t="s">
         <v>1630</v>
       </c>
-    </row>
-    <row r="394" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG393">
+        <v>223</v>
+      </c>
+      <c r="AY393" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="394" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B394">
         <v>4</v>
       </c>
@@ -23551,8 +27335,14 @@
       <c r="AD394" t="s">
         <v>1631</v>
       </c>
-    </row>
-    <row r="395" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG394">
+        <v>227</v>
+      </c>
+      <c r="AY394" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="395" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B395">
         <v>4</v>
       </c>
@@ -23574,8 +27364,14 @@
       <c r="AD395" t="s">
         <v>1632</v>
       </c>
-    </row>
-    <row r="396" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG395">
+        <v>229</v>
+      </c>
+      <c r="AY395" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="396" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B396">
         <v>4</v>
       </c>
@@ -23597,8 +27393,14 @@
       <c r="AD396" t="s">
         <v>1633</v>
       </c>
-    </row>
-    <row r="397" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG396">
+        <v>229</v>
+      </c>
+      <c r="AY396" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="397" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B397">
         <v>4</v>
       </c>
@@ -23620,8 +27422,14 @@
       <c r="AD397" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="398" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG397">
+        <v>228</v>
+      </c>
+      <c r="AY397" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="398" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B398">
         <v>4</v>
       </c>
@@ -23643,8 +27451,14 @@
       <c r="AD398" t="s">
         <v>1635</v>
       </c>
-    </row>
-    <row r="399" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG398">
+        <v>226</v>
+      </c>
+      <c r="AY398" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="399" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B399">
         <v>4</v>
       </c>
@@ -23666,8 +27480,14 @@
       <c r="AD399" t="s">
         <v>1636</v>
       </c>
-    </row>
-    <row r="400" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG399">
+        <v>223</v>
+      </c>
+      <c r="AY399" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="400" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B400">
         <v>4</v>
       </c>
@@ -23689,8 +27509,14 @@
       <c r="AD400" t="s">
         <v>1636</v>
       </c>
-    </row>
-    <row r="401" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG400">
+        <v>220</v>
+      </c>
+      <c r="AY400" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="401" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B401">
         <v>4</v>
       </c>
@@ -23712,8 +27538,14 @@
       <c r="AD401" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="402" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG401">
+        <v>216</v>
+      </c>
+      <c r="AY401" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="402" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B402">
         <v>4</v>
       </c>
@@ -23735,8 +27567,14 @@
       <c r="AD402" t="s">
         <v>1638</v>
       </c>
-    </row>
-    <row r="403" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG402">
+        <v>212</v>
+      </c>
+      <c r="AY402" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="403" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B403">
         <v>4</v>
       </c>
@@ -23758,8 +27596,14 @@
       <c r="AD403" t="s">
         <v>1639</v>
       </c>
-    </row>
-    <row r="404" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG403">
+        <v>207</v>
+      </c>
+      <c r="AY403" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="404" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B404">
         <v>4</v>
       </c>
@@ -23781,8 +27625,14 @@
       <c r="AD404" t="s">
         <v>1640</v>
       </c>
-    </row>
-    <row r="405" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG404">
+        <v>203</v>
+      </c>
+      <c r="AY404" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="405" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B405">
         <v>3</v>
       </c>
@@ -23804,8 +27654,14 @@
       <c r="AD405" t="s">
         <v>1641</v>
       </c>
-    </row>
-    <row r="406" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG405">
+        <v>198</v>
+      </c>
+      <c r="AY405" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="406" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B406">
         <v>4</v>
       </c>
@@ -23827,8 +27683,14 @@
       <c r="AD406" t="s">
         <v>1642</v>
       </c>
-    </row>
-    <row r="407" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG406">
+        <v>194</v>
+      </c>
+      <c r="AY406" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="407" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B407">
         <v>3</v>
       </c>
@@ -23850,8 +27712,14 @@
       <c r="AD407" t="s">
         <v>1643</v>
       </c>
-    </row>
-    <row r="408" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG407">
+        <v>189</v>
+      </c>
+      <c r="AY407" t="s">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="408" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B408">
         <v>4</v>
       </c>
@@ -23873,8 +27741,14 @@
       <c r="AD408" t="s">
         <v>1644</v>
       </c>
-    </row>
-    <row r="409" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG408">
+        <v>184</v>
+      </c>
+      <c r="AY408" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="409" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B409">
         <v>3</v>
       </c>
@@ -23896,8 +27770,14 @@
       <c r="AD409" t="s">
         <v>1645</v>
       </c>
-    </row>
-    <row r="410" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG409">
+        <v>180</v>
+      </c>
+      <c r="AY409" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="410" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B410">
         <v>3</v>
       </c>
@@ -23919,8 +27799,14 @@
       <c r="AD410" t="s">
         <v>1646</v>
       </c>
-    </row>
-    <row r="411" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG410">
+        <v>175</v>
+      </c>
+      <c r="AY410" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="411" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B411">
         <v>3</v>
       </c>
@@ -23942,8 +27828,14 @@
       <c r="AD411" t="s">
         <v>1647</v>
       </c>
-    </row>
-    <row r="412" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG411">
+        <v>171</v>
+      </c>
+      <c r="AY411" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="412" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B412">
         <v>4</v>
       </c>
@@ -23965,8 +27857,14 @@
       <c r="AD412" t="s">
         <v>1648</v>
       </c>
-    </row>
-    <row r="413" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG412">
+        <v>170</v>
+      </c>
+      <c r="AY412" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="413" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B413">
         <v>3</v>
       </c>
@@ -23988,8 +27886,14 @@
       <c r="AD413" t="s">
         <v>1649</v>
       </c>
-    </row>
-    <row r="414" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG413">
+        <v>173</v>
+      </c>
+      <c r="AY413" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="414" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B414">
         <v>3</v>
       </c>
@@ -24011,8 +27915,14 @@
       <c r="AD414" t="s">
         <v>1650</v>
       </c>
-    </row>
-    <row r="415" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG414">
+        <v>180</v>
+      </c>
+      <c r="AY414" t="s">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="415" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B415">
         <v>3</v>
       </c>
@@ -24034,8 +27944,14 @@
       <c r="AD415" t="s">
         <v>1651</v>
       </c>
-    </row>
-    <row r="416" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG415">
+        <v>190</v>
+      </c>
+      <c r="AY415" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="416" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B416">
         <v>3</v>
       </c>
@@ -24057,8 +27973,14 @@
       <c r="AD416" t="s">
         <v>1652</v>
       </c>
-    </row>
-    <row r="417" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG416">
+        <v>202</v>
+      </c>
+      <c r="AY416" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="417" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B417">
         <v>3</v>
       </c>
@@ -24080,8 +28002,14 @@
       <c r="AD417" t="s">
         <v>1653</v>
       </c>
-    </row>
-    <row r="418" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG417">
+        <v>215</v>
+      </c>
+      <c r="AY417" t="s">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="418" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B418">
         <v>3</v>
       </c>
@@ -24103,8 +28031,14 @@
       <c r="AD418" t="s">
         <v>1654</v>
       </c>
-    </row>
-    <row r="419" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG418">
+        <v>229</v>
+      </c>
+      <c r="AY418" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="419" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B419">
         <v>3</v>
       </c>
@@ -24126,8 +28060,14 @@
       <c r="AD419" t="s">
         <v>1655</v>
       </c>
-    </row>
-    <row r="420" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG419">
+        <v>244</v>
+      </c>
+      <c r="AY419" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="420" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B420">
         <v>3</v>
       </c>
@@ -24149,8 +28089,14 @@
       <c r="AD420" t="s">
         <v>1655</v>
       </c>
-    </row>
-    <row r="421" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG420">
+        <v>260</v>
+      </c>
+      <c r="AY420" t="s">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="421" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B421">
         <v>3</v>
       </c>
@@ -24172,8 +28118,14 @@
       <c r="AD421" t="s">
         <v>1656</v>
       </c>
-    </row>
-    <row r="422" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG421">
+        <v>276</v>
+      </c>
+      <c r="AY421" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="422" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B422">
         <v>3</v>
       </c>
@@ -24195,8 +28147,14 @@
       <c r="AD422" t="s">
         <v>1657</v>
       </c>
-    </row>
-    <row r="423" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG422">
+        <v>291</v>
+      </c>
+      <c r="AY422" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="423" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B423">
         <v>3</v>
       </c>
@@ -24218,8 +28176,14 @@
       <c r="AD423" t="s">
         <v>1658</v>
       </c>
-    </row>
-    <row r="424" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG423">
+        <v>307</v>
+      </c>
+      <c r="AY423" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="424" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B424">
         <v>3</v>
       </c>
@@ -24241,8 +28205,14 @@
       <c r="AD424" t="s">
         <v>1659</v>
       </c>
-    </row>
-    <row r="425" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG424">
+        <v>323</v>
+      </c>
+      <c r="AY424" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="425" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B425">
         <v>3</v>
       </c>
@@ -24264,8 +28234,14 @@
       <c r="AD425" t="s">
         <v>1660</v>
       </c>
-    </row>
-    <row r="426" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG425">
+        <v>339</v>
+      </c>
+      <c r="AY425" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="426" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B426">
         <v>3</v>
       </c>
@@ -24287,8 +28263,14 @@
       <c r="AD426" t="s">
         <v>1660</v>
       </c>
-    </row>
-    <row r="427" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG426">
+        <v>351</v>
+      </c>
+      <c r="AY426" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="427" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B427">
         <v>3</v>
       </c>
@@ -24310,8 +28292,14 @@
       <c r="AD427" t="s">
         <v>1661</v>
       </c>
-    </row>
-    <row r="428" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG427">
+        <v>359</v>
+      </c>
+      <c r="AY427" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="428" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B428">
         <v>3</v>
       </c>
@@ -24333,8 +28321,14 @@
       <c r="AD428" t="s">
         <v>1662</v>
       </c>
-    </row>
-    <row r="429" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG428">
+        <v>363</v>
+      </c>
+      <c r="AY428" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="429" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B429">
         <v>3</v>
       </c>
@@ -24356,8 +28350,14 @@
       <c r="AD429" t="s">
         <v>1663</v>
       </c>
-    </row>
-    <row r="430" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG429">
+        <v>364</v>
+      </c>
+      <c r="AY429" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="430" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B430">
         <v>3</v>
       </c>
@@ -24379,8 +28379,14 @@
       <c r="AD430" t="s">
         <v>1663</v>
       </c>
-    </row>
-    <row r="431" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG430">
+        <v>363</v>
+      </c>
+      <c r="AY430" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="431" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B431">
         <v>3</v>
       </c>
@@ -24402,8 +28408,14 @@
       <c r="AD431" t="s">
         <v>1664</v>
       </c>
-    </row>
-    <row r="432" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG431">
+        <v>360</v>
+      </c>
+      <c r="AY431" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="432" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B432">
         <v>3</v>
       </c>
@@ -24425,8 +28437,14 @@
       <c r="AD432" t="s">
         <v>1665</v>
       </c>
-    </row>
-    <row r="433" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG432">
+        <v>355</v>
+      </c>
+      <c r="AY432" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="433" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B433">
         <v>3</v>
       </c>
@@ -24448,8 +28466,14 @@
       <c r="AD433" t="s">
         <v>1666</v>
       </c>
-    </row>
-    <row r="434" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG433">
+        <v>350</v>
+      </c>
+      <c r="AY433" t="s">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="434" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B434">
         <v>3</v>
       </c>
@@ -24471,8 +28495,14 @@
       <c r="AD434" t="s">
         <v>1667</v>
       </c>
-    </row>
-    <row r="435" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG434">
+        <v>345</v>
+      </c>
+      <c r="AY434" t="s">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="435" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B435">
         <v>3</v>
       </c>
@@ -24494,8 +28524,14 @@
       <c r="AD435" t="s">
         <v>1668</v>
       </c>
-    </row>
-    <row r="436" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG435">
+        <v>338</v>
+      </c>
+      <c r="AY435" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="436" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B436">
         <v>2</v>
       </c>
@@ -24517,8 +28553,14 @@
       <c r="AD436" t="s">
         <v>1669</v>
       </c>
-    </row>
-    <row r="437" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG436">
+        <v>331</v>
+      </c>
+      <c r="AY436" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="437" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B437">
         <v>3</v>
       </c>
@@ -24540,8 +28582,14 @@
       <c r="AD437" t="s">
         <v>1670</v>
       </c>
-    </row>
-    <row r="438" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG437">
+        <v>324</v>
+      </c>
+      <c r="AY437" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="438" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B438">
         <v>3</v>
       </c>
@@ -24563,8 +28611,14 @@
       <c r="AD438" t="s">
         <v>1671</v>
       </c>
-    </row>
-    <row r="439" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG438">
+        <v>317</v>
+      </c>
+      <c r="AY438" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="439" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B439">
         <v>3</v>
       </c>
@@ -24586,8 +28640,14 @@
       <c r="AD439" t="s">
         <v>1672</v>
       </c>
-    </row>
-    <row r="440" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG439">
+        <v>310</v>
+      </c>
+      <c r="AY439" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="440" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B440">
         <v>3</v>
       </c>
@@ -24609,8 +28669,14 @@
       <c r="AD440" t="s">
         <v>1673</v>
       </c>
-    </row>
-    <row r="441" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG440">
+        <v>302</v>
+      </c>
+      <c r="AY440" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="441" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B441">
         <v>3</v>
       </c>
@@ -24632,8 +28698,14 @@
       <c r="AD441" t="s">
         <v>1674</v>
       </c>
-    </row>
-    <row r="442" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG441">
+        <v>295</v>
+      </c>
+      <c r="AY441" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="442" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B442">
         <v>2</v>
       </c>
@@ -24655,8 +28727,14 @@
       <c r="AD442" t="s">
         <v>1674</v>
       </c>
-    </row>
-    <row r="443" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG442">
+        <v>288</v>
+      </c>
+      <c r="AY442" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="443" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B443">
         <v>2</v>
       </c>
@@ -24678,8 +28756,14 @@
       <c r="AD443" t="s">
         <v>1675</v>
       </c>
-    </row>
-    <row r="444" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG443">
+        <v>280</v>
+      </c>
+      <c r="AY443" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="444" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B444">
         <v>2</v>
       </c>
@@ -24701,8 +28785,14 @@
       <c r="AD444" t="s">
         <v>1676</v>
       </c>
-    </row>
-    <row r="445" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG444">
+        <v>273</v>
+      </c>
+      <c r="AY444" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="445" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B445">
         <v>2</v>
       </c>
@@ -24724,8 +28814,14 @@
       <c r="AD445" t="s">
         <v>1677</v>
       </c>
-    </row>
-    <row r="446" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG445">
+        <v>266</v>
+      </c>
+      <c r="AY445" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="446" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B446">
         <v>2</v>
       </c>
@@ -24747,8 +28843,14 @@
       <c r="AD446" t="s">
         <v>1677</v>
       </c>
-    </row>
-    <row r="447" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG446">
+        <v>259</v>
+      </c>
+      <c r="AY446" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="447" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B447">
         <v>2</v>
       </c>
@@ -24770,8 +28872,11 @@
       <c r="AD447" t="s">
         <v>1678</v>
       </c>
-    </row>
-    <row r="448" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG447">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="448" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B448">
         <v>2</v>
       </c>
@@ -24793,8 +28898,11 @@
       <c r="AD448" t="s">
         <v>1679</v>
       </c>
-    </row>
-    <row r="449" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG448">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="449" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B449">
         <v>2</v>
       </c>
@@ -24816,8 +28924,11 @@
       <c r="AD449" t="s">
         <v>1680</v>
       </c>
-    </row>
-    <row r="450" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG449">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="450" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B450">
         <v>2</v>
       </c>
@@ -24839,8 +28950,11 @@
       <c r="AD450" t="s">
         <v>1681</v>
       </c>
-    </row>
-    <row r="451" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG450">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="451" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B451">
         <v>2</v>
       </c>
@@ -24862,8 +28976,11 @@
       <c r="AD451" t="s">
         <v>1682</v>
       </c>
-    </row>
-    <row r="452" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG451">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="452" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B452">
         <v>2</v>
       </c>
@@ -24885,8 +29002,11 @@
       <c r="AD452" t="s">
         <v>1682</v>
       </c>
-    </row>
-    <row r="453" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG452">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="453" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B453">
         <v>2</v>
       </c>
@@ -24908,8 +29028,11 @@
       <c r="AD453" t="s">
         <v>1683</v>
       </c>
-    </row>
-    <row r="454" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG453">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="454" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B454">
         <v>2</v>
       </c>
@@ -24931,8 +29054,11 @@
       <c r="AD454" t="s">
         <v>1683</v>
       </c>
-    </row>
-    <row r="455" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG454">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="455" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B455">
         <v>2</v>
       </c>
@@ -24954,8 +29080,11 @@
       <c r="AD455" t="s">
         <v>1684</v>
       </c>
-    </row>
-    <row r="456" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG455">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="456" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B456">
         <v>2</v>
       </c>
@@ -24977,8 +29106,11 @@
       <c r="AD456" t="s">
         <v>1685</v>
       </c>
-    </row>
-    <row r="457" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG456">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="457" spans="2:33" x14ac:dyDescent="0.25">
       <c r="E457">
         <v>68</v>
       </c>
@@ -24994,8 +29126,11 @@
       <c r="AD457" t="s">
         <v>1686</v>
       </c>
-    </row>
-    <row r="458" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG457">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="458" spans="2:33" x14ac:dyDescent="0.25">
       <c r="E458">
         <v>66</v>
       </c>
@@ -25011,8 +29146,11 @@
       <c r="AD458" t="s">
         <v>1687</v>
       </c>
-    </row>
-    <row r="459" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG458">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="459" spans="2:33" x14ac:dyDescent="0.25">
       <c r="E459">
         <v>67</v>
       </c>
@@ -25028,8 +29166,11 @@
       <c r="AD459" t="s">
         <v>1688</v>
       </c>
-    </row>
-    <row r="460" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG459">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="460" spans="2:33" x14ac:dyDescent="0.25">
       <c r="E460">
         <v>65</v>
       </c>
@@ -25045,8 +29186,11 @@
       <c r="AD460" t="s">
         <v>1688</v>
       </c>
-    </row>
-    <row r="461" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG460">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="461" spans="2:33" x14ac:dyDescent="0.25">
       <c r="E461">
         <v>65</v>
       </c>
@@ -25062,8 +29206,11 @@
       <c r="AD461" t="s">
         <v>1689</v>
       </c>
-    </row>
-    <row r="462" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG461">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="462" spans="2:33" x14ac:dyDescent="0.25">
       <c r="E462">
         <v>64</v>
       </c>
@@ -25079,8 +29226,11 @@
       <c r="AD462" t="s">
         <v>1690</v>
       </c>
-    </row>
-    <row r="463" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG462">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="463" spans="2:33" x14ac:dyDescent="0.25">
       <c r="E463">
         <v>64</v>
       </c>
@@ -25096,8 +29246,11 @@
       <c r="AD463" t="s">
         <v>1691</v>
       </c>
-    </row>
-    <row r="464" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG463">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="464" spans="2:33" x14ac:dyDescent="0.25">
       <c r="E464">
         <v>63</v>
       </c>
@@ -25113,8 +29266,11 @@
       <c r="AD464" t="s">
         <v>1691</v>
       </c>
-    </row>
-    <row r="465" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="AG464">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="465" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E465">
         <v>63</v>
       </c>
@@ -25130,8 +29286,11 @@
       <c r="AD465" t="s">
         <v>1692</v>
       </c>
-    </row>
-    <row r="466" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="AG465">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="466" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E466">
         <v>62</v>
       </c>
@@ -25147,8 +29306,11 @@
       <c r="AD466" t="s">
         <v>1692</v>
       </c>
-    </row>
-    <row r="467" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="AG466">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="467" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E467">
         <v>62</v>
       </c>
@@ -25164,8 +29326,11 @@
       <c r="AD467" t="s">
         <v>1693</v>
       </c>
-    </row>
-    <row r="468" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="AG467">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="468" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E468">
         <v>61</v>
       </c>
@@ -25181,8 +29346,11 @@
       <c r="AD468" t="s">
         <v>1694</v>
       </c>
-    </row>
-    <row r="469" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="AG468">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="469" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E469">
         <v>61</v>
       </c>
@@ -25198,8 +29366,11 @@
       <c r="AD469" t="s">
         <v>1695</v>
       </c>
-    </row>
-    <row r="470" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="AG469">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="470" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E470">
         <v>59</v>
       </c>
@@ -25215,8 +29386,11 @@
       <c r="AD470" t="s">
         <v>1696</v>
       </c>
-    </row>
-    <row r="471" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="AG470">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="471" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E471">
         <v>60</v>
       </c>
@@ -25232,8 +29406,11 @@
       <c r="AD471" t="s">
         <v>1697</v>
       </c>
-    </row>
-    <row r="472" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="AG471">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="472" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E472">
         <v>58</v>
       </c>
@@ -25249,8 +29426,11 @@
       <c r="AD472" t="s">
         <v>1698</v>
       </c>
-    </row>
-    <row r="473" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="AG472">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="473" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E473">
         <v>59</v>
       </c>
@@ -25266,8 +29446,11 @@
       <c r="AD473" t="s">
         <v>1699</v>
       </c>
-    </row>
-    <row r="474" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="AG473">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="474" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E474">
         <v>57</v>
       </c>
@@ -25283,8 +29466,11 @@
       <c r="AD474" t="s">
         <v>1700</v>
       </c>
-    </row>
-    <row r="475" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="AG474">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="475" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E475">
         <v>58</v>
       </c>
@@ -25300,8 +29486,11 @@
       <c r="AD475" t="s">
         <v>1701</v>
       </c>
-    </row>
-    <row r="476" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="AG475">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="476" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E476">
         <v>56</v>
       </c>
@@ -25317,8 +29506,11 @@
       <c r="AD476" t="s">
         <v>1702</v>
       </c>
-    </row>
-    <row r="477" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="AG476">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="477" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E477">
         <v>57</v>
       </c>
@@ -25334,8 +29526,11 @@
       <c r="AD477" t="s">
         <v>1703</v>
       </c>
-    </row>
-    <row r="478" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="AG477">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="478" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E478">
         <v>55</v>
       </c>
@@ -25352,7 +29547,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="479" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="479" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E479">
         <v>55</v>
       </c>
@@ -25369,7 +29564,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="480" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="480" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E480">
         <v>54</v>
       </c>

--- a/Pal Final/Prueba de datos.xlsx
+++ b/Pal Final/Prueba de datos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarr1\OneDrive\Documentos\Arduino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarr1\OneDrive\Documentos\GitHub\Octave\Pal Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01BD952-43FF-4273-889E-D44888D29EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C859BF51-5CB8-4A3C-8A25-36159845FDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="495" windowWidth="18165" windowHeight="10425" xr2:uid="{8120CF05-E762-4789-AD95-A6674811F4EC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5266" uniqueCount="3055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5714" uniqueCount="3264">
   <si>
     <t>Controlado</t>
   </si>
@@ -9200,6 +9200,633 @@
   </si>
   <si>
     <t>7 0</t>
+  </si>
+  <si>
+    <t>3 0</t>
+  </si>
+  <si>
+    <t>4 9</t>
+  </si>
+  <si>
+    <t>9 9</t>
+  </si>
+  <si>
+    <t>16 9</t>
+  </si>
+  <si>
+    <t>24 9</t>
+  </si>
+  <si>
+    <t>33 9</t>
+  </si>
+  <si>
+    <t>43 9</t>
+  </si>
+  <si>
+    <t>54 9</t>
+  </si>
+  <si>
+    <t>66 9</t>
+  </si>
+  <si>
+    <t>77 9</t>
+  </si>
+  <si>
+    <t>88 9</t>
+  </si>
+  <si>
+    <t>100 9</t>
+  </si>
+  <si>
+    <t>112 9</t>
+  </si>
+  <si>
+    <t>123 9</t>
+  </si>
+  <si>
+    <t>135 9</t>
+  </si>
+  <si>
+    <t>146 9</t>
+  </si>
+  <si>
+    <t>157 9</t>
+  </si>
+  <si>
+    <t>179 9</t>
+  </si>
+  <si>
+    <t>194 9</t>
+  </si>
+  <si>
+    <t>206 0</t>
+  </si>
+  <si>
+    <t>203 0</t>
+  </si>
+  <si>
+    <t>201 0</t>
+  </si>
+  <si>
+    <t>198 0</t>
+  </si>
+  <si>
+    <t>194 0</t>
+  </si>
+  <si>
+    <t>174 0</t>
+  </si>
+  <si>
+    <t>170 0</t>
+  </si>
+  <si>
+    <t>166 0</t>
+  </si>
+  <si>
+    <t>145 0</t>
+  </si>
+  <si>
+    <t>141 0</t>
+  </si>
+  <si>
+    <t>137 0</t>
+  </si>
+  <si>
+    <t>134 0</t>
+  </si>
+  <si>
+    <t>116 9</t>
+  </si>
+  <si>
+    <t>121 9</t>
+  </si>
+  <si>
+    <t>129 9</t>
+  </si>
+  <si>
+    <t>140 9</t>
+  </si>
+  <si>
+    <t>183 9</t>
+  </si>
+  <si>
+    <t>229 0</t>
+  </si>
+  <si>
+    <t>208 0</t>
+  </si>
+  <si>
+    <t>193 0</t>
+  </si>
+  <si>
+    <t>186 9</t>
+  </si>
+  <si>
+    <t>189 9</t>
+  </si>
+  <si>
+    <t>216 9</t>
+  </si>
+  <si>
+    <t>258 9</t>
+  </si>
+  <si>
+    <t>273 9</t>
+  </si>
+  <si>
+    <t>337 9</t>
+  </si>
+  <si>
+    <t>366 0</t>
+  </si>
+  <si>
+    <t>373 0</t>
+  </si>
+  <si>
+    <t>368 0</t>
+  </si>
+  <si>
+    <t>362 0</t>
+  </si>
+  <si>
+    <t>348 0</t>
+  </si>
+  <si>
+    <t>325 0</t>
+  </si>
+  <si>
+    <t>288 0</t>
+  </si>
+  <si>
+    <t>239 0</t>
+  </si>
+  <si>
+    <t>205 9</t>
+  </si>
+  <si>
+    <t>233 9</t>
+  </si>
+  <si>
+    <t>429 9</t>
+  </si>
+  <si>
+    <t>444 0</t>
+  </si>
+  <si>
+    <t>455 0</t>
+  </si>
+  <si>
+    <t>461 0</t>
+  </si>
+  <si>
+    <t>456 0</t>
+  </si>
+  <si>
+    <t>450 0</t>
+  </si>
+  <si>
+    <t>436 0</t>
+  </si>
+  <si>
+    <t>427 0</t>
+  </si>
+  <si>
+    <t>409 0</t>
+  </si>
+  <si>
+    <t>335 0</t>
+  </si>
+  <si>
+    <t>301 0</t>
+  </si>
+  <si>
+    <t>257 0</t>
+  </si>
+  <si>
+    <t>270 9</t>
+  </si>
+  <si>
+    <t>383 9</t>
+  </si>
+  <si>
+    <t>398 9</t>
+  </si>
+  <si>
+    <t>413 9</t>
+  </si>
+  <si>
+    <t>442 9</t>
+  </si>
+  <si>
+    <t>456 9</t>
+  </si>
+  <si>
+    <t>470 9</t>
+  </si>
+  <si>
+    <t>484 9</t>
+  </si>
+  <si>
+    <t>497 9</t>
+  </si>
+  <si>
+    <t>510 9</t>
+  </si>
+  <si>
+    <t>523 9</t>
+  </si>
+  <si>
+    <t>535 9</t>
+  </si>
+  <si>
+    <t>547 9</t>
+  </si>
+  <si>
+    <t>559 9</t>
+  </si>
+  <si>
+    <t>581 9</t>
+  </si>
+  <si>
+    <t>592 9</t>
+  </si>
+  <si>
+    <t>602 9</t>
+  </si>
+  <si>
+    <t>622 9</t>
+  </si>
+  <si>
+    <t>641 9</t>
+  </si>
+  <si>
+    <t>658 9</t>
+  </si>
+  <si>
+    <t>675 9</t>
+  </si>
+  <si>
+    <t>683 9</t>
+  </si>
+  <si>
+    <t>690 9</t>
+  </si>
+  <si>
+    <t>726 9</t>
+  </si>
+  <si>
+    <t>756 9</t>
+  </si>
+  <si>
+    <t>762 9</t>
+  </si>
+  <si>
+    <t>767 9</t>
+  </si>
+  <si>
+    <t>772 9</t>
+  </si>
+  <si>
+    <t>777 9</t>
+  </si>
+  <si>
+    <t>782 9</t>
+  </si>
+  <si>
+    <t>787 9</t>
+  </si>
+  <si>
+    <t>791 9</t>
+  </si>
+  <si>
+    <t>796 9</t>
+  </si>
+  <si>
+    <t>800 9</t>
+  </si>
+  <si>
+    <t>804 9</t>
+  </si>
+  <si>
+    <t>808 9</t>
+  </si>
+  <si>
+    <t>812 9</t>
+  </si>
+  <si>
+    <t>816 9</t>
+  </si>
+  <si>
+    <t>820 9</t>
+  </si>
+  <si>
+    <t>823 9</t>
+  </si>
+  <si>
+    <t>827 9</t>
+  </si>
+  <si>
+    <t>830 9</t>
+  </si>
+  <si>
+    <t>834 9</t>
+  </si>
+  <si>
+    <t>836 9</t>
+  </si>
+  <si>
+    <t>840 9</t>
+  </si>
+  <si>
+    <t>843 9</t>
+  </si>
+  <si>
+    <t>845 9</t>
+  </si>
+  <si>
+    <t>848 9</t>
+  </si>
+  <si>
+    <t>851 9</t>
+  </si>
+  <si>
+    <t>854 9</t>
+  </si>
+  <si>
+    <t>857 9</t>
+  </si>
+  <si>
+    <t>859 9</t>
+  </si>
+  <si>
+    <t>861 9</t>
+  </si>
+  <si>
+    <t>864 9</t>
+  </si>
+  <si>
+    <t>866 9</t>
+  </si>
+  <si>
+    <t>868 9</t>
+  </si>
+  <si>
+    <t>870 9</t>
+  </si>
+  <si>
+    <t>872 9</t>
+  </si>
+  <si>
+    <t>874 9</t>
+  </si>
+  <si>
+    <t>876 9</t>
+  </si>
+  <si>
+    <t>878 9</t>
+  </si>
+  <si>
+    <t>880 9</t>
+  </si>
+  <si>
+    <t>882 9</t>
+  </si>
+  <si>
+    <t>883 9</t>
+  </si>
+  <si>
+    <t>885 9</t>
+  </si>
+  <si>
+    <t>887 9</t>
+  </si>
+  <si>
+    <t>888 9</t>
+  </si>
+  <si>
+    <t>890 9</t>
+  </si>
+  <si>
+    <t>891 9</t>
+  </si>
+  <si>
+    <t>892 9</t>
+  </si>
+  <si>
+    <t>894 9</t>
+  </si>
+  <si>
+    <t>895 9</t>
+  </si>
+  <si>
+    <t>897 9</t>
+  </si>
+  <si>
+    <t>898 9</t>
+  </si>
+  <si>
+    <t>899 9</t>
+  </si>
+  <si>
+    <t>900 9</t>
+  </si>
+  <si>
+    <t>902 9</t>
+  </si>
+  <si>
+    <t>903 9</t>
+  </si>
+  <si>
+    <t>904 9</t>
+  </si>
+  <si>
+    <t>905 9</t>
+  </si>
+  <si>
+    <t>906 9</t>
+  </si>
+  <si>
+    <t>907 9</t>
+  </si>
+  <si>
+    <t>908 9</t>
+  </si>
+  <si>
+    <t>909 9</t>
+  </si>
+  <si>
+    <t>910 9</t>
+  </si>
+  <si>
+    <t>911 9</t>
+  </si>
+  <si>
+    <t>912 9</t>
+  </si>
+  <si>
+    <t>913 9</t>
+  </si>
+  <si>
+    <t>914 9</t>
+  </si>
+  <si>
+    <t>915 9</t>
+  </si>
+  <si>
+    <t>916 9</t>
+  </si>
+  <si>
+    <t>917 9</t>
+  </si>
+  <si>
+    <t>918 9</t>
+  </si>
+  <si>
+    <t>919 9</t>
+  </si>
+  <si>
+    <t>920 9</t>
+  </si>
+  <si>
+    <t>921 0</t>
+  </si>
+  <si>
+    <t>918 0</t>
+  </si>
+  <si>
+    <t>911 0</t>
+  </si>
+  <si>
+    <t>901 0</t>
+  </si>
+  <si>
+    <t>889 0</t>
+  </si>
+  <si>
+    <t>874 0</t>
+  </si>
+  <si>
+    <t>858 0</t>
+  </si>
+  <si>
+    <t>841 0</t>
+  </si>
+  <si>
+    <t>823 0</t>
+  </si>
+  <si>
+    <t>805 0</t>
+  </si>
+  <si>
+    <t>787 0</t>
+  </si>
+  <si>
+    <t>750 0</t>
+  </si>
+  <si>
+    <t>731 0</t>
+  </si>
+  <si>
+    <t>712 0</t>
+  </si>
+  <si>
+    <t>694 0</t>
+  </si>
+  <si>
+    <t>642 0</t>
+  </si>
+  <si>
+    <t>625 0</t>
+  </si>
+  <si>
+    <t>608 0</t>
+  </si>
+  <si>
+    <t>593 0</t>
+  </si>
+  <si>
+    <t>577 0</t>
+  </si>
+  <si>
+    <t>562 0</t>
+  </si>
+  <si>
+    <t>547 0</t>
+  </si>
+  <si>
+    <t>533 0</t>
+  </si>
+  <si>
+    <t>519 0</t>
+  </si>
+  <si>
+    <t>492 0</t>
+  </si>
+  <si>
+    <t>479 0</t>
+  </si>
+  <si>
+    <t>442 0</t>
+  </si>
+  <si>
+    <t>431 0</t>
+  </si>
+  <si>
+    <t>408 0</t>
+  </si>
+  <si>
+    <t>398 0</t>
+  </si>
+  <si>
+    <t>307 0</t>
+  </si>
+  <si>
+    <t>177 0</t>
+  </si>
+  <si>
+    <t>150 0</t>
+  </si>
+  <si>
+    <t>124 0</t>
+  </si>
+  <si>
+    <t>121 0</t>
+  </si>
+  <si>
+    <t>119 0</t>
+  </si>
+  <si>
+    <t>116 0</t>
+  </si>
+  <si>
+    <t>113 0</t>
+  </si>
+  <si>
+    <t>111 0</t>
+  </si>
+  <si>
+    <t>95 0</t>
+  </si>
+  <si>
+    <t>93 0</t>
+  </si>
+  <si>
+    <t>91 0</t>
+  </si>
+  <si>
+    <t>87 0</t>
+  </si>
+  <si>
+    <t>65 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 296, 294, 292, 289, 284, 280, 274, 269, 263, 257, 251, 246, 239, 234, 227, 222, 216, 213, 215, 221, 229, 240, 252, 266, 280, 295, 311, 326, 342, 357, 373, 385, 393, 397, 397, 396, 393, 388, 383, 376, 369, 362, 354, 347, 339, 330, 323, 314, 306, 299, 291, 283, 276, 268, 261, 254, 248, 241, 235, 228, 222, 216, 214, 215, 221, 230, 240, 253, 266, 280, 295, 311, 327, 342, 358, 374, 389, 405, 420, 435, 449, 460, 466, 468, 467, 465, 460, 454, 447, 439, 430, 422, 412, 403, 394, 384, 375, 365, 356, 347, 338, 329, 320, 312, 304, 295, 288, 280, 273, 265, 258, 252, 248, 249, 254, 262, 271, 283, 295, 309, 323, 338, 353, 368, 383, 398, 414, 428, 443, 457, 471, 484, 498, 511, 523, 536, 547, 559, 570, 581, 591, 602, 612, 621, 631, 639, 648, 657, 665, 673, 681, 689, 696, 703, 710, 717, 723, 729, 736, 742, 747, 753, 758, 763, 769, 773, 778, 783, 787, 792, 796, 800, 804, 808, 812, 816, 819, 822, 826, 829, 832, 835, 838, 841, 844, 847, 850, 852, 854, 857, 859, 862, 864, 866, 868, 870, 872, 874, 876, 878, 880, 881, 883, 885, 886, 888, 889, 891, 892, 893, 895, 896, 897, 898, 900, 901, 902, 903, 904, 905, 906, 907, 908, 909, 910, 910, 911, 912, 913, 914, 914, 915, 916, 917, 917, 918, 915, 909, 899, 886, 871, 855, 839, 821, 803, 784, 766, 747, 729, 710, 692, 674, 657, 640, 623, 607, 591, 576, 560, 545, 531, 517, 504, 490, 477, 465, 453, 441, 429, 418, 407, 397, 386, 376, 367, 357, 348, 339, 330, 322, 314, 305, 298, 291, 283, 276, 269, 262, 256, 249, 243, 237, 231, 226, 220, 215, 209, 205, 200, 194, 190, 185, 181, 176, 172, 168, 164, 160, 157, 153, 149, 146, 143, 139, 136, 133, 130, 127, 124, 121, 118, 115, 113, 110, 108, 105, 103, 101, 99, 96, 94, 92, 90, 88, 86, 84, 83, 81, 79, 77, 76, 74, 73, 71, 69, 68, 67, 65, 64, 63, 61, 60, 59, 58, 56, 55, 54, 53, 52, 51, 50, 49, 48, 47, 46, 45, 44, 43, 43, 42, 41, 41, 39, 39, 38, 37, 37, 36, 35, 35, 34, 34, 33, 33, 32, 31, 31, 30, 30, 29, 28, 28, 27, 27, 27, 26, 26, 25, 25, 24, 24, 24, 23, 23, 23, 22, 22, 21, 21, 21, 20, 20, 20, 19, 19, 19, 19, 18, 18, 18, 18, 17, 17, 17, 17, 17, 16, 16, 16, 16, 15, 15, 15, 15, 15, 15, 14, 14, 14, 14, 13, 13, 13, 13, 13, 13, 13, 12, 12, 12, 12, 12, 12, 11, 12, 11, 11, 11, 11, 11, 11, 10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 9, 9, 9, 9, 9, 9, 8, 9, 9, 9, 8, 9, 8, 8, 8, 8, 8, 8, 8, 8, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 5, 6, 6, 5, 5, 6, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 4, 5, 4, 5, 4, 5, 4, 4, 4, 4, 4, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7, 6, 10, 17, 28, 42, 57, 74, 92, 112, 131, 150, 170, 190, 209, 229, 248, 267, 286, 304, 322, 339, 356, 373, 389, 405, 421, 435, 450, 464, 478, 492, 505, 518, 530, 542, 554, 565, 576, 587, 597, 607, 617, 626, 636, 645, 654, 662, 670, 678, 686, 691, 691, 687, 681, 672, 661, 649, 637, 624, 610, 596, 582, 568, 554, 540, 527, 513, 499, 487, 474, 461, 449, 437, 425, 414, 403, 392, 382, 371, 362, 352, 343, 334, 325, 316, 308, 299, 292, 284, 276, 269, 262, 256, 249, 242, 236, 230, 224, 218, 213, 207, 205, 207, 213, 222, 233, 246, 260, 274, 290, 305, 322, 338, 354, 370, 386, 401, 417, 432, 447, 462, 476, 490, 503, 516, 529, 542, 554, 566, 577, 588, 599, 610, 620, 630, 639, 649, 658, 667, 676, 684, 692, 700, 707, 715, 722, 729, 735, 742, 748, 754, 760, 766, 771, 777, 782, 787, 792, 797, 801, 802, 800, 793, 784, 772, 759, 745, 730, 714, 698, 682, 665, 650, 633, 617, 601, 586, 571, 556, 542, 527, 516, 510, 508, 509, 512, 517, 524, 532, 540, 549, 558, 568, 578, 588, 594, 597, 595, 591, 585, 577, 568, 558, 547, 535, 524, 512, 500, 488, 476, 464, 453, 441, 430, 419, 408, 398, 387, 377, 368, 358, 349, 340, 331, 323, 314, 309, 309, 312, 319, 327, 337, 349, 362, 374, 385, 391, 394, 395, 393, 389, 385, 380, 373, 366, 359, 352, 344, 336, 329, 321, 313, 306, 298, 291, 283, 276, 269, 263, 256, 249, 243, 237, 231, 225, 219, 214, 209, 203, 198, 193, 188, 184, 179, 175, 171, 169, 173, 180, 190, 199, 205, 208, 210, 211, 210, 208, 206, 204, 200, 197, 193, 189, 185, 181, 177, 173, 169, 165, 162, 158, 154, 150, 147, 143, 140, 136, 133, 130, 127, 124, 121, 117, 115, 112, 109, 107, 104, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 1000, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1000, 1000, 1000, 1000, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, </t>
   </si>
 </sst>
 </file>
@@ -15641,16 +16268,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>732693</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>134328</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>55524</xdr:colOff>
+      <xdr:colOff>31101</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>75286</xdr:rowOff>
+      <xdr:rowOff>14229</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15673,8 +16300,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8382000" y="8382000"/>
-          <a:ext cx="13009524" cy="7314286"/>
+          <a:off x="7546731" y="8535866"/>
+          <a:ext cx="12926485" cy="7499901"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16247,15 +16874,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7C21CB-B8C2-4DEE-9965-2578A187D963}">
-  <dimension ref="B1:BT3030"/>
+  <dimension ref="B1:BZ3030"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BT1" sqref="BT1:BT463"/>
+    <sheetView tabSelected="1" topLeftCell="BH1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="BZ3" sqref="BZ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -16286,8 +16913,20 @@
       <c r="BT1" t="s">
         <v>2499</v>
       </c>
-    </row>
-    <row r="2" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV1">
+        <v>94</v>
+      </c>
+      <c r="BW1">
+        <v>0</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>3055</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>3261</v>
+      </c>
+    </row>
+    <row r="2" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>0</v>
       </c>
@@ -16318,8 +16957,20 @@
       <c r="BT2" t="s">
         <v>2629</v>
       </c>
-    </row>
-    <row r="3" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV2">
+        <v>93</v>
+      </c>
+      <c r="BW2">
+        <v>9</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>3056</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="3" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
@@ -16350,8 +17001,20 @@
       <c r="BT3" t="s">
         <v>2889</v>
       </c>
-    </row>
-    <row r="4" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV3">
+        <v>93</v>
+      </c>
+      <c r="BW3">
+        <v>9</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>2630</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="4" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0</v>
       </c>
@@ -16382,8 +17045,17 @@
       <c r="BT4" t="s">
         <v>2890</v>
       </c>
-    </row>
-    <row r="5" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV4">
+        <v>96</v>
+      </c>
+      <c r="BW4">
+        <v>9</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="5" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0</v>
       </c>
@@ -16414,8 +17086,17 @@
       <c r="BT5" t="s">
         <v>2891</v>
       </c>
-    </row>
-    <row r="6" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV5">
+        <v>101</v>
+      </c>
+      <c r="BW5">
+        <v>9</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="6" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0</v>
       </c>
@@ -16446,8 +17127,17 @@
       <c r="BT6" t="s">
         <v>2892</v>
       </c>
-    </row>
-    <row r="7" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV6">
+        <v>108</v>
+      </c>
+      <c r="BW6">
+        <v>9</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="7" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0</v>
       </c>
@@ -16478,8 +17168,17 @@
       <c r="BT7" t="s">
         <v>2893</v>
       </c>
-    </row>
-    <row r="8" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV7">
+        <v>115</v>
+      </c>
+      <c r="BW7">
+        <v>9</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="8" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0</v>
       </c>
@@ -16510,8 +17209,17 @@
       <c r="BT8" t="s">
         <v>2894</v>
       </c>
-    </row>
-    <row r="9" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV8">
+        <v>123</v>
+      </c>
+      <c r="BW8">
+        <v>9</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="9" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>0</v>
       </c>
@@ -16542,8 +17250,17 @@
       <c r="BT9" t="s">
         <v>2895</v>
       </c>
-    </row>
-    <row r="10" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV9">
+        <v>132</v>
+      </c>
+      <c r="BW9">
+        <v>9</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="10" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0</v>
       </c>
@@ -16574,8 +17291,17 @@
       <c r="BT10" t="s">
         <v>2896</v>
       </c>
-    </row>
-    <row r="11" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV10">
+        <v>141</v>
+      </c>
+      <c r="BW10">
+        <v>9</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="11" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>0</v>
       </c>
@@ -16606,8 +17332,17 @@
       <c r="BT11" t="s">
         <v>2897</v>
       </c>
-    </row>
-    <row r="12" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV11">
+        <v>151</v>
+      </c>
+      <c r="BW11">
+        <v>9</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="12" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>0</v>
       </c>
@@ -16638,8 +17373,17 @@
       <c r="BT12" t="s">
         <v>2898</v>
       </c>
-    </row>
-    <row r="13" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV12">
+        <v>160</v>
+      </c>
+      <c r="BW12">
+        <v>9</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="13" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0</v>
       </c>
@@ -16670,8 +17414,17 @@
       <c r="BT13" t="s">
         <v>2497</v>
       </c>
-    </row>
-    <row r="14" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV13">
+        <v>170</v>
+      </c>
+      <c r="BW13">
+        <v>9</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="14" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>0</v>
       </c>
@@ -16702,8 +17455,17 @@
       <c r="BT14" t="s">
         <v>2899</v>
       </c>
-    </row>
-    <row r="15" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV14">
+        <v>180</v>
+      </c>
+      <c r="BW14">
+        <v>9</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="15" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>0</v>
       </c>
@@ -16734,8 +17496,17 @@
       <c r="BT15" t="s">
         <v>2900</v>
       </c>
-    </row>
-    <row r="16" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV15">
+        <v>190</v>
+      </c>
+      <c r="BW15">
+        <v>9</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="16" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0</v>
       </c>
@@ -16766,8 +17537,17 @@
       <c r="BT16" t="s">
         <v>2508</v>
       </c>
-    </row>
-    <row r="17" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV16">
+        <v>199</v>
+      </c>
+      <c r="BW16">
+        <v>9</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="17" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0</v>
       </c>
@@ -16798,8 +17578,17 @@
       <c r="BT17" t="s">
         <v>2509</v>
       </c>
-    </row>
-    <row r="18" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV17">
+        <v>209</v>
+      </c>
+      <c r="BW17">
+        <v>9</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="18" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0</v>
       </c>
@@ -16830,8 +17619,17 @@
       <c r="BT18" t="s">
         <v>2510</v>
       </c>
-    </row>
-    <row r="19" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV18">
+        <v>218</v>
+      </c>
+      <c r="BW18">
+        <v>9</v>
+      </c>
+      <c r="BY18" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="19" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0</v>
       </c>
@@ -16862,8 +17660,17 @@
       <c r="BT19" t="s">
         <v>2666</v>
       </c>
-    </row>
-    <row r="20" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV19">
+        <v>228</v>
+      </c>
+      <c r="BW19">
+        <v>9</v>
+      </c>
+      <c r="BY19" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="20" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>0</v>
       </c>
@@ -16894,8 +17701,17 @@
       <c r="BT20" t="s">
         <v>2901</v>
       </c>
-    </row>
-    <row r="21" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV20">
+        <v>237</v>
+      </c>
+      <c r="BW20">
+        <v>9</v>
+      </c>
+      <c r="BY20" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="21" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0</v>
       </c>
@@ -16926,8 +17742,17 @@
       <c r="BT21" t="s">
         <v>2537</v>
       </c>
-    </row>
-    <row r="22" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV21">
+        <v>246</v>
+      </c>
+      <c r="BW21">
+        <v>9</v>
+      </c>
+      <c r="BY21" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="22" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0</v>
       </c>
@@ -16958,8 +17783,17 @@
       <c r="BT22" t="s">
         <v>2512</v>
       </c>
-    </row>
-    <row r="23" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV22">
+        <v>254</v>
+      </c>
+      <c r="BW22">
+        <v>9</v>
+      </c>
+      <c r="BY22" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="23" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0</v>
       </c>
@@ -16990,8 +17824,17 @@
       <c r="BT23" t="s">
         <v>2678</v>
       </c>
-    </row>
-    <row r="24" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV23">
+        <v>263</v>
+      </c>
+      <c r="BW23">
+        <v>9</v>
+      </c>
+      <c r="BY23" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="24" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>2</v>
       </c>
@@ -17022,8 +17865,17 @@
       <c r="BT24" t="s">
         <v>2704</v>
       </c>
-    </row>
-    <row r="25" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV24">
+        <v>271</v>
+      </c>
+      <c r="BW24">
+        <v>9</v>
+      </c>
+      <c r="BY24" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="25" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>8</v>
       </c>
@@ -17054,8 +17906,17 @@
       <c r="BT25" t="s">
         <v>2540</v>
       </c>
-    </row>
-    <row r="26" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV25">
+        <v>279</v>
+      </c>
+      <c r="BW25">
+        <v>9</v>
+      </c>
+      <c r="BY25" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="26" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>16</v>
       </c>
@@ -17086,8 +17947,17 @@
       <c r="BT26" t="s">
         <v>2699</v>
       </c>
-    </row>
-    <row r="27" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV26">
+        <v>287</v>
+      </c>
+      <c r="BW26">
+        <v>0</v>
+      </c>
+      <c r="BY26" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="27" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>26</v>
       </c>
@@ -17118,8 +17988,17 @@
       <c r="BT27" t="s">
         <v>2590</v>
       </c>
-    </row>
-    <row r="28" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV27">
+        <v>293</v>
+      </c>
+      <c r="BW27">
+        <v>0</v>
+      </c>
+      <c r="BY27" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="28" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>38</v>
       </c>
@@ -17150,8 +18029,17 @@
       <c r="BT28" t="s">
         <v>2902</v>
       </c>
-    </row>
-    <row r="29" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV28">
+        <v>296</v>
+      </c>
+      <c r="BW28">
+        <v>0</v>
+      </c>
+      <c r="BY28" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="29" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>51</v>
       </c>
@@ -17182,8 +18070,17 @@
       <c r="BT29" t="s">
         <v>2589</v>
       </c>
-    </row>
-    <row r="30" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV29">
+        <v>297</v>
+      </c>
+      <c r="BW29">
+        <v>0</v>
+      </c>
+      <c r="BY29" t="s">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="30" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>65</v>
       </c>
@@ -17214,8 +18111,17 @@
       <c r="BT30" t="s">
         <v>2589</v>
       </c>
-    </row>
-    <row r="31" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV30">
+        <v>296</v>
+      </c>
+      <c r="BW30">
+        <v>0</v>
+      </c>
+      <c r="BY30" t="s">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="31" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>79</v>
       </c>
@@ -17246,8 +18152,17 @@
       <c r="BT31" t="s">
         <v>2676</v>
       </c>
-    </row>
-    <row r="32" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV31">
+        <v>293</v>
+      </c>
+      <c r="BW31">
+        <v>0</v>
+      </c>
+      <c r="BY31" t="s">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="32" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>94</v>
       </c>
@@ -17278,8 +18193,17 @@
       <c r="BT32" t="s">
         <v>2530</v>
       </c>
-    </row>
-    <row r="33" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV32">
+        <v>290</v>
+      </c>
+      <c r="BW32">
+        <v>0</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="33" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>110</v>
       </c>
@@ -17310,8 +18234,17 @@
       <c r="BT33" t="s">
         <v>2590</v>
       </c>
-    </row>
-    <row r="34" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV33">
+        <v>286</v>
+      </c>
+      <c r="BW33">
+        <v>0</v>
+      </c>
+      <c r="BY33" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="34" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>125</v>
       </c>
@@ -17342,8 +18275,17 @@
       <c r="BT34" t="s">
         <v>2531</v>
       </c>
-    </row>
-    <row r="35" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV34">
+        <v>281</v>
+      </c>
+      <c r="BW34">
+        <v>0</v>
+      </c>
+      <c r="BY34" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="35" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>141</v>
       </c>
@@ -17374,8 +18316,17 @@
       <c r="BT35" t="s">
         <v>2699</v>
       </c>
-    </row>
-    <row r="36" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV35">
+        <v>275</v>
+      </c>
+      <c r="BW35">
+        <v>0</v>
+      </c>
+      <c r="BY35" t="s">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="36" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>157</v>
       </c>
@@ -17406,8 +18357,17 @@
       <c r="BT36" t="s">
         <v>2592</v>
       </c>
-    </row>
-    <row r="37" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV36">
+        <v>270</v>
+      </c>
+      <c r="BW36">
+        <v>0</v>
+      </c>
+      <c r="BY36" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="37" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>172</v>
       </c>
@@ -17438,8 +18398,17 @@
       <c r="BT37" t="s">
         <v>2903</v>
       </c>
-    </row>
-    <row r="38" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV37">
+        <v>264</v>
+      </c>
+      <c r="BW37">
+        <v>0</v>
+      </c>
+      <c r="BY37" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="38" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>187</v>
       </c>
@@ -17470,8 +18439,17 @@
       <c r="BT38" t="s">
         <v>2904</v>
       </c>
-    </row>
-    <row r="39" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV38">
+        <v>258</v>
+      </c>
+      <c r="BW38">
+        <v>0</v>
+      </c>
+      <c r="BY38" t="s">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="39" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>203</v>
       </c>
@@ -17502,8 +18480,17 @@
       <c r="BT39" t="s">
         <v>2905</v>
       </c>
-    </row>
-    <row r="40" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV39">
+        <v>252</v>
+      </c>
+      <c r="BW39">
+        <v>0</v>
+      </c>
+      <c r="BY39" t="s">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="40" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>217</v>
       </c>
@@ -17534,8 +18521,17 @@
       <c r="BT40" t="s">
         <v>2906</v>
       </c>
-    </row>
-    <row r="41" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV40">
+        <v>246</v>
+      </c>
+      <c r="BW40">
+        <v>0</v>
+      </c>
+      <c r="BY40" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="41" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>232</v>
       </c>
@@ -17566,8 +18562,17 @@
       <c r="BT41" t="s">
         <v>2660</v>
       </c>
-    </row>
-    <row r="42" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV41">
+        <v>240</v>
+      </c>
+      <c r="BW41">
+        <v>0</v>
+      </c>
+      <c r="BY41" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="42" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>246</v>
       </c>
@@ -17598,8 +18603,17 @@
       <c r="BT42" t="s">
         <v>2661</v>
       </c>
-    </row>
-    <row r="43" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV42">
+        <v>234</v>
+      </c>
+      <c r="BW42">
+        <v>0</v>
+      </c>
+      <c r="BY42" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="43" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>259</v>
       </c>
@@ -17630,8 +18644,17 @@
       <c r="BT43" t="s">
         <v>2907</v>
       </c>
-    </row>
-    <row r="44" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV43">
+        <v>228</v>
+      </c>
+      <c r="BW43">
+        <v>0</v>
+      </c>
+      <c r="BY43" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="44" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>272</v>
       </c>
@@ -17662,8 +18685,17 @@
       <c r="BT44" t="s">
         <v>2663</v>
       </c>
-    </row>
-    <row r="45" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV44">
+        <v>222</v>
+      </c>
+      <c r="BW44">
+        <v>0</v>
+      </c>
+      <c r="BY44" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="45" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>285</v>
       </c>
@@ -17694,8 +18726,17 @@
       <c r="BT45" t="s">
         <v>2646</v>
       </c>
-    </row>
-    <row r="46" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV45">
+        <v>216</v>
+      </c>
+      <c r="BW45">
+        <v>0</v>
+      </c>
+      <c r="BY45" t="s">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="46" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>298</v>
       </c>
@@ -17726,8 +18767,17 @@
       <c r="BT46" t="s">
         <v>2664</v>
       </c>
-    </row>
-    <row r="47" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV46">
+        <v>210</v>
+      </c>
+      <c r="BW46">
+        <v>0</v>
+      </c>
+      <c r="BY46" t="s">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="47" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>309</v>
       </c>
@@ -17758,8 +18808,17 @@
       <c r="BT47" t="s">
         <v>2665</v>
       </c>
-    </row>
-    <row r="48" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV47">
+        <v>205</v>
+      </c>
+      <c r="BW47">
+        <v>0</v>
+      </c>
+      <c r="BY47" t="s">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="48" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>321</v>
       </c>
@@ -17790,8 +18849,17 @@
       <c r="BT48" t="s">
         <v>2908</v>
       </c>
-    </row>
-    <row r="49" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV48">
+        <v>199</v>
+      </c>
+      <c r="BW48">
+        <v>0</v>
+      </c>
+      <c r="BY48" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="49" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>332</v>
       </c>
@@ -17822,8 +18890,17 @@
       <c r="BT49" t="s">
         <v>2813</v>
       </c>
-    </row>
-    <row r="50" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV49">
+        <v>194</v>
+      </c>
+      <c r="BW49">
+        <v>0</v>
+      </c>
+      <c r="BY49" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="50" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>342</v>
       </c>
@@ -17854,8 +18931,17 @@
       <c r="BT50" t="s">
         <v>2814</v>
       </c>
-    </row>
-    <row r="51" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV50">
+        <v>189</v>
+      </c>
+      <c r="BW50">
+        <v>0</v>
+      </c>
+      <c r="BY50" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="51" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>351</v>
       </c>
@@ -17886,8 +18972,17 @@
       <c r="BT51" t="s">
         <v>2909</v>
       </c>
-    </row>
-    <row r="52" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV51">
+        <v>184</v>
+      </c>
+      <c r="BW51">
+        <v>0</v>
+      </c>
+      <c r="BY51" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="52" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>361</v>
       </c>
@@ -17918,8 +19013,17 @@
       <c r="BT52" t="s">
         <v>2643</v>
       </c>
-    </row>
-    <row r="53" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV52">
+        <v>179</v>
+      </c>
+      <c r="BW52">
+        <v>9</v>
+      </c>
+      <c r="BY52" t="s">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="53" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>369</v>
       </c>
@@ -17950,8 +19054,17 @@
       <c r="BT53" t="s">
         <v>2910</v>
       </c>
-    </row>
-    <row r="54" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV53">
+        <v>176</v>
+      </c>
+      <c r="BW53">
+        <v>9</v>
+      </c>
+      <c r="BY53" t="s">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="54" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>377</v>
       </c>
@@ -17982,8 +19095,17 @@
       <c r="BT54" t="s">
         <v>2510</v>
       </c>
-    </row>
-    <row r="55" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV54">
+        <v>179</v>
+      </c>
+      <c r="BW54">
+        <v>9</v>
+      </c>
+      <c r="BY54" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="55" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>385</v>
       </c>
@@ -18014,8 +19136,17 @@
       <c r="BT55" t="s">
         <v>2911</v>
       </c>
-    </row>
-    <row r="56" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV55">
+        <v>186</v>
+      </c>
+      <c r="BW55">
+        <v>9</v>
+      </c>
+      <c r="BY55" t="s">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="56" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>392</v>
       </c>
@@ -18046,8 +19177,17 @@
       <c r="BT56" t="s">
         <v>2912</v>
       </c>
-    </row>
-    <row r="57" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV56">
+        <v>195</v>
+      </c>
+      <c r="BW56">
+        <v>9</v>
+      </c>
+      <c r="BY56" t="s">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="57" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>398</v>
       </c>
@@ -18078,8 +19218,17 @@
       <c r="BT57" t="s">
         <v>2913</v>
       </c>
-    </row>
-    <row r="58" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV57">
+        <v>207</v>
+      </c>
+      <c r="BW57">
+        <v>9</v>
+      </c>
+      <c r="BY57" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="58" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>403</v>
       </c>
@@ -18110,8 +19259,17 @@
       <c r="BT58" t="s">
         <v>2914</v>
       </c>
-    </row>
-    <row r="59" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV58">
+        <v>220</v>
+      </c>
+      <c r="BW58">
+        <v>9</v>
+      </c>
+      <c r="BY58" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="59" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>409</v>
       </c>
@@ -18142,8 +19300,17 @@
       <c r="BT59" t="s">
         <v>2513</v>
       </c>
-    </row>
-    <row r="60" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV59">
+        <v>235</v>
+      </c>
+      <c r="BW59">
+        <v>9</v>
+      </c>
+      <c r="BY59" t="s">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="60" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>414</v>
       </c>
@@ -18174,8 +19341,17 @@
       <c r="BT60" t="s">
         <v>2915</v>
       </c>
-    </row>
-    <row r="61" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV60">
+        <v>250</v>
+      </c>
+      <c r="BW60">
+        <v>9</v>
+      </c>
+      <c r="BY60" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="61" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>418</v>
       </c>
@@ -18206,8 +19382,17 @@
       <c r="BT61" t="s">
         <v>2656</v>
       </c>
-    </row>
-    <row r="62" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV61">
+        <v>266</v>
+      </c>
+      <c r="BW61">
+        <v>0</v>
+      </c>
+      <c r="BY61" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="62" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>422</v>
       </c>
@@ -18238,8 +19423,17 @@
       <c r="BT62" t="s">
         <v>2654</v>
       </c>
-    </row>
-    <row r="63" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV62">
+        <v>278</v>
+      </c>
+      <c r="BW62">
+        <v>0</v>
+      </c>
+      <c r="BY62" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="63" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>425</v>
       </c>
@@ -18270,8 +19464,17 @@
       <c r="BT63" t="s">
         <v>2673</v>
       </c>
-    </row>
-    <row r="64" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV63">
+        <v>287</v>
+      </c>
+      <c r="BW63">
+        <v>0</v>
+      </c>
+      <c r="BY63" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="64" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>428</v>
       </c>
@@ -18302,8 +19505,17 @@
       <c r="BT64" t="s">
         <v>2916</v>
       </c>
-    </row>
-    <row r="65" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV64">
+        <v>293</v>
+      </c>
+      <c r="BW64">
+        <v>0</v>
+      </c>
+      <c r="BY64" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="65" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>430</v>
       </c>
@@ -18334,8 +19546,17 @@
       <c r="BT65" t="s">
         <v>2619</v>
       </c>
-    </row>
-    <row r="66" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV65">
+        <v>295</v>
+      </c>
+      <c r="BW65">
+        <v>0</v>
+      </c>
+      <c r="BY65" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="66" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>432</v>
       </c>
@@ -18366,8 +19587,17 @@
       <c r="BT66" t="s">
         <v>2698</v>
       </c>
-    </row>
-    <row r="67" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV66">
+        <v>296</v>
+      </c>
+      <c r="BW66">
+        <v>0</v>
+      </c>
+      <c r="BY66" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="67" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>434</v>
       </c>
@@ -18398,8 +19628,17 @@
       <c r="BT67" t="s">
         <v>2619</v>
       </c>
-    </row>
-    <row r="68" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV67">
+        <v>295</v>
+      </c>
+      <c r="BW67">
+        <v>0</v>
+      </c>
+      <c r="BY67" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="68" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>435</v>
       </c>
@@ -18430,8 +19669,17 @@
       <c r="BT68" t="s">
         <v>2526</v>
       </c>
-    </row>
-    <row r="69" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV68">
+        <v>292</v>
+      </c>
+      <c r="BW68">
+        <v>0</v>
+      </c>
+      <c r="BY68" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="69" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>437</v>
       </c>
@@ -18462,8 +19710,17 @@
       <c r="BT69" t="s">
         <v>2917</v>
       </c>
-    </row>
-    <row r="70" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV69">
+        <v>289</v>
+      </c>
+      <c r="BW69">
+        <v>0</v>
+      </c>
+      <c r="BY69" t="s">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="70" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>438</v>
       </c>
@@ -18494,8 +19751,17 @@
       <c r="BT70" t="s">
         <v>2673</v>
       </c>
-    </row>
-    <row r="71" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV70">
+        <v>285</v>
+      </c>
+      <c r="BW70">
+        <v>0</v>
+      </c>
+      <c r="BY70" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="71" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>438</v>
       </c>
@@ -18526,8 +19792,17 @@
       <c r="BT71" t="s">
         <v>2587</v>
       </c>
-    </row>
-    <row r="72" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV71">
+        <v>280</v>
+      </c>
+      <c r="BW71">
+        <v>0</v>
+      </c>
+      <c r="BY71" t="s">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="72" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>439</v>
       </c>
@@ -18558,8 +19833,17 @@
       <c r="BT72" t="s">
         <v>2650</v>
       </c>
-    </row>
-    <row r="73" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV72">
+        <v>274</v>
+      </c>
+      <c r="BW72">
+        <v>0</v>
+      </c>
+      <c r="BY72" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="73" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>439</v>
       </c>
@@ -18590,8 +19874,17 @@
       <c r="BT73" t="s">
         <v>2529</v>
       </c>
-    </row>
-    <row r="74" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV73">
+        <v>269</v>
+      </c>
+      <c r="BW73">
+        <v>0</v>
+      </c>
+      <c r="BY73" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="74" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>439</v>
       </c>
@@ -18622,8 +19915,17 @@
       <c r="BT74" t="s">
         <v>2902</v>
       </c>
-    </row>
-    <row r="75" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV74">
+        <v>263</v>
+      </c>
+      <c r="BW74">
+        <v>0</v>
+      </c>
+      <c r="BY74" t="s">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="75" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>439</v>
       </c>
@@ -18654,8 +19956,17 @@
       <c r="BT75" t="s">
         <v>2616</v>
       </c>
-    </row>
-    <row r="76" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV75">
+        <v>257</v>
+      </c>
+      <c r="BW75">
+        <v>0</v>
+      </c>
+      <c r="BY75" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="76" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>440</v>
       </c>
@@ -18686,8 +19997,17 @@
       <c r="BT76" t="s">
         <v>2591</v>
       </c>
-    </row>
-    <row r="77" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV76">
+        <v>251</v>
+      </c>
+      <c r="BW76">
+        <v>0</v>
+      </c>
+      <c r="BY76" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="77" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>440</v>
       </c>
@@ -18718,8 +20038,17 @@
       <c r="BT77" t="s">
         <v>2592</v>
       </c>
-    </row>
-    <row r="78" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV77">
+        <v>245</v>
+      </c>
+      <c r="BW77">
+        <v>0</v>
+      </c>
+      <c r="BY77" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="78" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>439</v>
       </c>
@@ -18750,8 +20079,17 @@
       <c r="BT78" t="s">
         <v>2593</v>
       </c>
-    </row>
-    <row r="79" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV78">
+        <v>240</v>
+      </c>
+      <c r="BW78">
+        <v>0</v>
+      </c>
+      <c r="BY78" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="79" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>439</v>
       </c>
@@ -18782,8 +20120,17 @@
       <c r="BT79" t="s">
         <v>2918</v>
       </c>
-    </row>
-    <row r="80" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV79">
+        <v>233</v>
+      </c>
+      <c r="BW79">
+        <v>0</v>
+      </c>
+      <c r="BY79" t="s">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="80" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>439</v>
       </c>
@@ -18814,8 +20161,17 @@
       <c r="BT80" t="s">
         <v>2595</v>
       </c>
-    </row>
-    <row r="81" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV80">
+        <v>227</v>
+      </c>
+      <c r="BW80">
+        <v>0</v>
+      </c>
+      <c r="BY80" t="s">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="81" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>439</v>
       </c>
@@ -18846,8 +20202,17 @@
       <c r="BT81" t="s">
         <v>2536</v>
       </c>
-    </row>
-    <row r="82" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV81">
+        <v>222</v>
+      </c>
+      <c r="BW81">
+        <v>0</v>
+      </c>
+      <c r="BY81" t="s">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="82" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>439</v>
       </c>
@@ -18878,8 +20243,17 @@
       <c r="BT82" t="s">
         <v>2539</v>
       </c>
-    </row>
-    <row r="83" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV82">
+        <v>216</v>
+      </c>
+      <c r="BW82">
+        <v>9</v>
+      </c>
+      <c r="BY82" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="83" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>438</v>
       </c>
@@ -18910,8 +20284,17 @@
       <c r="BT83" t="s">
         <v>2919</v>
       </c>
-    </row>
-    <row r="84" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV83">
+        <v>213</v>
+      </c>
+      <c r="BW83">
+        <v>9</v>
+      </c>
+      <c r="BY83" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="84" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>438</v>
       </c>
@@ -18942,8 +20325,17 @@
       <c r="BT84" t="s">
         <v>2539</v>
       </c>
-    </row>
-    <row r="85" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV84">
+        <v>215</v>
+      </c>
+      <c r="BW84">
+        <v>9</v>
+      </c>
+      <c r="BY84" t="s">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="85" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>437</v>
       </c>
@@ -18974,8 +20366,17 @@
       <c r="BT85" t="s">
         <v>2670</v>
       </c>
-    </row>
-    <row r="86" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV85">
+        <v>221</v>
+      </c>
+      <c r="BW85">
+        <v>9</v>
+      </c>
+      <c r="BY85" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="86" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>437</v>
       </c>
@@ -19006,8 +20407,17 @@
       <c r="BT86" t="s">
         <v>2920</v>
       </c>
-    </row>
-    <row r="87" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV86">
+        <v>230</v>
+      </c>
+      <c r="BW86">
+        <v>9</v>
+      </c>
+      <c r="BY86" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="87" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>437</v>
       </c>
@@ -19038,8 +20448,17 @@
       <c r="BT87" t="s">
         <v>2514</v>
       </c>
-    </row>
-    <row r="88" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV87">
+        <v>240</v>
+      </c>
+      <c r="BW87">
+        <v>9</v>
+      </c>
+      <c r="BY87" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="88" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>436</v>
       </c>
@@ -19070,8 +20489,17 @@
       <c r="BT88" t="s">
         <v>2558</v>
       </c>
-    </row>
-    <row r="89" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV88">
+        <v>253</v>
+      </c>
+      <c r="BW88">
+        <v>9</v>
+      </c>
+      <c r="BY88" t="s">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="89" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>436</v>
       </c>
@@ -19102,8 +20530,17 @@
       <c r="BT89" t="s">
         <v>2921</v>
       </c>
-    </row>
-    <row r="90" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV89">
+        <v>266</v>
+      </c>
+      <c r="BW89">
+        <v>9</v>
+      </c>
+      <c r="BY89" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="90" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>436</v>
       </c>
@@ -19134,8 +20571,17 @@
       <c r="BT90" t="s">
         <v>2922</v>
       </c>
-    </row>
-    <row r="91" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV90">
+        <v>280</v>
+      </c>
+      <c r="BW90">
+        <v>9</v>
+      </c>
+      <c r="BY90" t="s">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="91" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>435</v>
       </c>
@@ -19166,8 +20612,17 @@
       <c r="BT91" t="s">
         <v>2561</v>
       </c>
-    </row>
-    <row r="92" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV91">
+        <v>295</v>
+      </c>
+      <c r="BW91">
+        <v>9</v>
+      </c>
+      <c r="BY91" t="s">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="92" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>435</v>
       </c>
@@ -19198,8 +20653,17 @@
       <c r="BT92" t="s">
         <v>2923</v>
       </c>
-    </row>
-    <row r="93" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV92">
+        <v>311</v>
+      </c>
+      <c r="BW92">
+        <v>9</v>
+      </c>
+      <c r="BY92" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="93" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>435</v>
       </c>
@@ -19230,8 +20694,17 @@
       <c r="BT93" t="s">
         <v>2924</v>
       </c>
-    </row>
-    <row r="94" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV93">
+        <v>326</v>
+      </c>
+      <c r="BW93">
+        <v>9</v>
+      </c>
+      <c r="BY93" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="94" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>434</v>
       </c>
@@ -19262,8 +20735,17 @@
       <c r="BT94" t="s">
         <v>2925</v>
       </c>
-    </row>
-    <row r="95" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV94">
+        <v>342</v>
+      </c>
+      <c r="BW94">
+        <v>9</v>
+      </c>
+      <c r="BY94" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="95" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>434</v>
       </c>
@@ -19294,8 +20776,17 @@
       <c r="BT95" t="s">
         <v>2572</v>
       </c>
-    </row>
-    <row r="96" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV95">
+        <v>358</v>
+      </c>
+      <c r="BW95">
+        <v>9</v>
+      </c>
+      <c r="BY95" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="96" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>434</v>
       </c>
@@ -19326,8 +20817,17 @@
       <c r="BT96" t="s">
         <v>2625</v>
       </c>
-    </row>
-    <row r="97" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV96">
+        <v>373</v>
+      </c>
+      <c r="BW96">
+        <v>0</v>
+      </c>
+      <c r="BY96" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="97" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>433</v>
       </c>
@@ -19358,8 +20858,17 @@
       <c r="BT97" t="s">
         <v>2551</v>
       </c>
-    </row>
-    <row r="98" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV97">
+        <v>386</v>
+      </c>
+      <c r="BW97">
+        <v>0</v>
+      </c>
+      <c r="BY97" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="98" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>433</v>
       </c>
@@ -19390,8 +20899,17 @@
       <c r="BT98" t="s">
         <v>2926</v>
       </c>
-    </row>
-    <row r="99" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV98">
+        <v>393</v>
+      </c>
+      <c r="BW98">
+        <v>0</v>
+      </c>
+      <c r="BY98" t="s">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="99" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>432</v>
       </c>
@@ -19422,8 +20940,17 @@
       <c r="BT99" t="s">
         <v>2798</v>
       </c>
-    </row>
-    <row r="100" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV99">
+        <v>397</v>
+      </c>
+      <c r="BW99">
+        <v>0</v>
+      </c>
+      <c r="BY99" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="100" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>433</v>
       </c>
@@ -19454,8 +20981,17 @@
       <c r="BT100" t="s">
         <v>2567</v>
       </c>
-    </row>
-    <row r="101" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV100">
+        <v>398</v>
+      </c>
+      <c r="BW100">
+        <v>0</v>
+      </c>
+      <c r="BY100" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="101" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>432</v>
       </c>
@@ -19486,8 +21022,17 @@
       <c r="BT101" t="s">
         <v>2927</v>
       </c>
-    </row>
-    <row r="102" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV101">
+        <v>397</v>
+      </c>
+      <c r="BW101">
+        <v>0</v>
+      </c>
+      <c r="BY101" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="102" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>432</v>
       </c>
@@ -19518,8 +21063,17 @@
       <c r="BT102" t="s">
         <v>2550</v>
       </c>
-    </row>
-    <row r="103" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV102">
+        <v>393</v>
+      </c>
+      <c r="BW102">
+        <v>0</v>
+      </c>
+      <c r="BY102" t="s">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="103" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>431</v>
       </c>
@@ -19550,8 +21104,17 @@
       <c r="BT103" t="s">
         <v>2627</v>
       </c>
-    </row>
-    <row r="104" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV103">
+        <v>389</v>
+      </c>
+      <c r="BW103">
+        <v>0</v>
+      </c>
+      <c r="BY103" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="104" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>429</v>
       </c>
@@ -19582,8 +21145,17 @@
       <c r="BT104" t="s">
         <v>2928</v>
       </c>
-    </row>
-    <row r="105" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV104">
+        <v>384</v>
+      </c>
+      <c r="BW104">
+        <v>0</v>
+      </c>
+      <c r="BY104" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="105" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>424</v>
       </c>
@@ -19614,8 +21186,17 @@
       <c r="BT105" t="s">
         <v>2569</v>
       </c>
-    </row>
-    <row r="106" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV105">
+        <v>377</v>
+      </c>
+      <c r="BW105">
+        <v>0</v>
+      </c>
+      <c r="BY105" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="106" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>418</v>
       </c>
@@ -19646,8 +21227,17 @@
       <c r="BT106" t="s">
         <v>2929</v>
       </c>
-    </row>
-    <row r="107" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV106">
+        <v>370</v>
+      </c>
+      <c r="BW106">
+        <v>0</v>
+      </c>
+      <c r="BY106" t="s">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="107" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>412</v>
       </c>
@@ -19678,8 +21268,17 @@
       <c r="BT107" t="s">
         <v>2764</v>
       </c>
-    </row>
-    <row r="108" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV107">
+        <v>363</v>
+      </c>
+      <c r="BW107">
+        <v>0</v>
+      </c>
+      <c r="BY107" t="s">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="108" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>404</v>
       </c>
@@ -19710,8 +21309,17 @@
       <c r="BT108" t="s">
         <v>2930</v>
       </c>
-    </row>
-    <row r="109" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV108">
+        <v>355</v>
+      </c>
+      <c r="BW108">
+        <v>0</v>
+      </c>
+      <c r="BY108" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="109" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>397</v>
       </c>
@@ -19742,8 +21350,17 @@
       <c r="BT109" t="s">
         <v>2520</v>
       </c>
-    </row>
-    <row r="110" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV109">
+        <v>347</v>
+      </c>
+      <c r="BW109">
+        <v>0</v>
+      </c>
+      <c r="BY109" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="110" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>390</v>
       </c>
@@ -19774,8 +21391,17 @@
       <c r="BT110" t="s">
         <v>2695</v>
       </c>
-    </row>
-    <row r="111" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV110">
+        <v>339</v>
+      </c>
+      <c r="BW110">
+        <v>0</v>
+      </c>
+      <c r="BY110" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="111" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>382</v>
       </c>
@@ -19806,8 +21432,17 @@
       <c r="BT111" t="s">
         <v>2931</v>
       </c>
-    </row>
-    <row r="112" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV111">
+        <v>331</v>
+      </c>
+      <c r="BW111">
+        <v>0</v>
+      </c>
+      <c r="BY111" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="112" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>374</v>
       </c>
@@ -19838,8 +21473,17 @@
       <c r="BT112" t="s">
         <v>2521</v>
       </c>
-    </row>
-    <row r="113" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV112">
+        <v>323</v>
+      </c>
+      <c r="BW112">
+        <v>0</v>
+      </c>
+      <c r="BY112" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="113" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>367</v>
       </c>
@@ -19870,8 +21514,17 @@
       <c r="BT113" t="s">
         <v>2622</v>
       </c>
-    </row>
-    <row r="114" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV113">
+        <v>315</v>
+      </c>
+      <c r="BW113">
+        <v>0</v>
+      </c>
+      <c r="BY113" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="114" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>359</v>
       </c>
@@ -19902,8 +21555,17 @@
       <c r="BT114" t="s">
         <v>2621</v>
       </c>
-    </row>
-    <row r="115" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV114">
+        <v>307</v>
+      </c>
+      <c r="BW114">
+        <v>0</v>
+      </c>
+      <c r="BY114" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="115" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>352</v>
       </c>
@@ -19934,8 +21596,17 @@
       <c r="BT115" t="s">
         <v>2697</v>
       </c>
-    </row>
-    <row r="116" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV115">
+        <v>299</v>
+      </c>
+      <c r="BW115">
+        <v>0</v>
+      </c>
+      <c r="BY115" t="s">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="116" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>345</v>
       </c>
@@ -19966,8 +21637,17 @@
       <c r="BT116" t="s">
         <v>2674</v>
       </c>
-    </row>
-    <row r="117" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV116">
+        <v>292</v>
+      </c>
+      <c r="BW116">
+        <v>0</v>
+      </c>
+      <c r="BY116" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="117" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>337</v>
       </c>
@@ -19998,8 +21678,17 @@
       <c r="BT117" t="s">
         <v>2698</v>
       </c>
-    </row>
-    <row r="118" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV117">
+        <v>284</v>
+      </c>
+      <c r="BW117">
+        <v>0</v>
+      </c>
+      <c r="BY117" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="118" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>330</v>
       </c>
@@ -20030,8 +21719,17 @@
       <c r="BT118" t="s">
         <v>2932</v>
       </c>
-    </row>
-    <row r="119" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV118">
+        <v>276</v>
+      </c>
+      <c r="BW118">
+        <v>0</v>
+      </c>
+      <c r="BY118" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="119" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>323</v>
       </c>
@@ -20062,8 +21760,17 @@
       <c r="BT119" t="s">
         <v>2651</v>
       </c>
-    </row>
-    <row r="120" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV119">
+        <v>269</v>
+      </c>
+      <c r="BW119">
+        <v>0</v>
+      </c>
+      <c r="BY119" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="120" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>316</v>
       </c>
@@ -20094,8 +21801,17 @@
       <c r="BT120" t="s">
         <v>2588</v>
       </c>
-    </row>
-    <row r="121" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV120">
+        <v>262</v>
+      </c>
+      <c r="BW120">
+        <v>0</v>
+      </c>
+      <c r="BY120" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="121" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>309</v>
       </c>
@@ -20126,8 +21842,17 @@
       <c r="BT121" t="s">
         <v>2589</v>
       </c>
-    </row>
-    <row r="122" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV121">
+        <v>255</v>
+      </c>
+      <c r="BW121">
+        <v>0</v>
+      </c>
+      <c r="BY121" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="122" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>302</v>
       </c>
@@ -20158,8 +21883,17 @@
       <c r="BT122" t="s">
         <v>2677</v>
       </c>
-    </row>
-    <row r="123" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV122">
+        <v>248</v>
+      </c>
+      <c r="BW122">
+        <v>0</v>
+      </c>
+      <c r="BY122" t="s">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="123" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>296</v>
       </c>
@@ -20190,8 +21924,17 @@
       <c r="BT123" t="s">
         <v>2699</v>
       </c>
-    </row>
-    <row r="124" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV123">
+        <v>242</v>
+      </c>
+      <c r="BW123">
+        <v>0</v>
+      </c>
+      <c r="BY123" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="124" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>289</v>
       </c>
@@ -20222,8 +21965,17 @@
       <c r="BT124" t="s">
         <v>2700</v>
       </c>
-    </row>
-    <row r="125" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV124">
+        <v>236</v>
+      </c>
+      <c r="BW124">
+        <v>0</v>
+      </c>
+      <c r="BY124" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="125" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>283</v>
       </c>
@@ -20254,8 +22006,17 @@
       <c r="BT125" t="s">
         <v>2701</v>
       </c>
-    </row>
-    <row r="126" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV125">
+        <v>229</v>
+      </c>
+      <c r="BW125">
+        <v>0</v>
+      </c>
+      <c r="BY125" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="126" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>276</v>
       </c>
@@ -20286,8 +22047,17 @@
       <c r="BT126" t="s">
         <v>2658</v>
       </c>
-    </row>
-    <row r="127" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV126">
+        <v>223</v>
+      </c>
+      <c r="BW126">
+        <v>0</v>
+      </c>
+      <c r="BY126" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="127" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>270</v>
       </c>
@@ -20318,8 +22088,17 @@
       <c r="BT127" t="s">
         <v>2702</v>
       </c>
-    </row>
-    <row r="128" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV127">
+        <v>217</v>
+      </c>
+      <c r="BW127">
+        <v>9</v>
+      </c>
+      <c r="BY127" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="128" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>264</v>
       </c>
@@ -20350,8 +22129,17 @@
       <c r="BT128" t="s">
         <v>2670</v>
       </c>
-    </row>
-    <row r="129" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV128">
+        <v>214</v>
+      </c>
+      <c r="BW128">
+        <v>9</v>
+      </c>
+      <c r="BY128" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="129" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>258</v>
       </c>
@@ -20382,8 +22170,17 @@
       <c r="BT129" t="s">
         <v>2703</v>
       </c>
-    </row>
-    <row r="130" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV129">
+        <v>216</v>
+      </c>
+      <c r="BW129">
+        <v>9</v>
+      </c>
+      <c r="BY129" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="130" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>253</v>
       </c>
@@ -20414,8 +22211,17 @@
       <c r="BT130" t="s">
         <v>2704</v>
       </c>
-    </row>
-    <row r="131" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV130">
+        <v>222</v>
+      </c>
+      <c r="BW130">
+        <v>9</v>
+      </c>
+      <c r="BY130" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="131" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>247</v>
       </c>
@@ -20446,8 +22252,17 @@
       <c r="BT131" t="s">
         <v>2648</v>
       </c>
-    </row>
-    <row r="132" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV131">
+        <v>230</v>
+      </c>
+      <c r="BW131">
+        <v>9</v>
+      </c>
+      <c r="BY131" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="132" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>242</v>
       </c>
@@ -20478,8 +22293,17 @@
       <c r="BT132" t="s">
         <v>2557</v>
       </c>
-    </row>
-    <row r="133" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV132">
+        <v>241</v>
+      </c>
+      <c r="BW132">
+        <v>9</v>
+      </c>
+      <c r="BY132" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="133" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>236</v>
       </c>
@@ -20510,8 +22334,17 @@
       <c r="BT133" t="s">
         <v>2734</v>
       </c>
-    </row>
-    <row r="134" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV133">
+        <v>254</v>
+      </c>
+      <c r="BW133">
+        <v>9</v>
+      </c>
+      <c r="BY133" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="134" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>231</v>
       </c>
@@ -20542,8 +22375,17 @@
       <c r="BT134" t="s">
         <v>2706</v>
       </c>
-    </row>
-    <row r="135" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV134">
+        <v>267</v>
+      </c>
+      <c r="BW134">
+        <v>9</v>
+      </c>
+      <c r="BY134" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="135" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>226</v>
       </c>
@@ -20574,8 +22416,17 @@
       <c r="BT135" t="s">
         <v>2933</v>
       </c>
-    </row>
-    <row r="136" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV135">
+        <v>281</v>
+      </c>
+      <c r="BW135">
+        <v>9</v>
+      </c>
+      <c r="BY135" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="136" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>221</v>
       </c>
@@ -20606,8 +22457,17 @@
       <c r="BT136" t="s">
         <v>2708</v>
       </c>
-    </row>
-    <row r="137" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV136">
+        <v>296</v>
+      </c>
+      <c r="BW136">
+        <v>9</v>
+      </c>
+      <c r="BY136" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="137" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>216</v>
       </c>
@@ -20638,8 +22498,17 @@
       <c r="BT137" t="s">
         <v>2709</v>
       </c>
-    </row>
-    <row r="138" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV137">
+        <v>312</v>
+      </c>
+      <c r="BW137">
+        <v>9</v>
+      </c>
+      <c r="BY137" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="138" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>211</v>
       </c>
@@ -20670,8 +22539,17 @@
       <c r="BT138" t="s">
         <v>2710</v>
       </c>
-    </row>
-    <row r="139" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV138">
+        <v>327</v>
+      </c>
+      <c r="BW138">
+        <v>9</v>
+      </c>
+      <c r="BY138" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="139" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>206</v>
       </c>
@@ -20702,8 +22580,17 @@
       <c r="BT139" t="s">
         <v>2711</v>
       </c>
-    </row>
-    <row r="140" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV139">
+        <v>343</v>
+      </c>
+      <c r="BW139">
+        <v>9</v>
+      </c>
+      <c r="BY139" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="140" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>201</v>
       </c>
@@ -20734,8 +22621,17 @@
       <c r="BT140" t="s">
         <v>2934</v>
       </c>
-    </row>
-    <row r="141" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV140">
+        <v>359</v>
+      </c>
+      <c r="BW140">
+        <v>9</v>
+      </c>
+      <c r="BY140" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="141" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>197</v>
       </c>
@@ -20766,8 +22662,17 @@
       <c r="BT141" t="s">
         <v>2935</v>
       </c>
-    </row>
-    <row r="142" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV141">
+        <v>374</v>
+      </c>
+      <c r="BW141">
+        <v>9</v>
+      </c>
+      <c r="BY141" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="142" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B142">
         <v>193</v>
       </c>
@@ -20798,8 +22703,17 @@
       <c r="BT142" t="s">
         <v>2714</v>
       </c>
-    </row>
-    <row r="143" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV142">
+        <v>390</v>
+      </c>
+      <c r="BW142">
+        <v>9</v>
+      </c>
+      <c r="BY142" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="143" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>188</v>
       </c>
@@ -20830,8 +22744,17 @@
       <c r="BT143" t="s">
         <v>2936</v>
       </c>
-    </row>
-    <row r="144" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV143">
+        <v>405</v>
+      </c>
+      <c r="BW143">
+        <v>9</v>
+      </c>
+      <c r="BY143" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="144" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>184</v>
       </c>
@@ -20862,8 +22785,17 @@
       <c r="BT144" t="s">
         <v>2937</v>
       </c>
-    </row>
-    <row r="145" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV144">
+        <v>420</v>
+      </c>
+      <c r="BW144">
+        <v>9</v>
+      </c>
+      <c r="BY144" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="145" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>180</v>
       </c>
@@ -20894,8 +22826,17 @@
       <c r="BT145" t="s">
         <v>2938</v>
       </c>
-    </row>
-    <row r="146" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV145">
+        <v>435</v>
+      </c>
+      <c r="BW145">
+        <v>9</v>
+      </c>
+      <c r="BY145" t="s">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="146" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>176</v>
       </c>
@@ -20926,8 +22867,17 @@
       <c r="BT146" t="s">
         <v>2546</v>
       </c>
-    </row>
-    <row r="147" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV146">
+        <v>449</v>
+      </c>
+      <c r="BW146">
+        <v>0</v>
+      </c>
+      <c r="BY146" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="147" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>172</v>
       </c>
@@ -20958,8 +22908,17 @@
       <c r="BT147" t="s">
         <v>2723</v>
       </c>
-    </row>
-    <row r="148" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV147">
+        <v>460</v>
+      </c>
+      <c r="BW147">
+        <v>0</v>
+      </c>
+      <c r="BY147" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="148" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>168</v>
       </c>
@@ -20990,8 +22949,17 @@
       <c r="BT148" t="s">
         <v>2722</v>
       </c>
-    </row>
-    <row r="149" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV148">
+        <v>466</v>
+      </c>
+      <c r="BW148">
+        <v>0</v>
+      </c>
+      <c r="BY148" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="149" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B149">
         <v>165</v>
       </c>
@@ -21022,8 +22990,17 @@
       <c r="BT149" t="s">
         <v>2565</v>
       </c>
-    </row>
-    <row r="150" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV149">
+        <v>469</v>
+      </c>
+      <c r="BW149">
+        <v>0</v>
+      </c>
+      <c r="BY149" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="150" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>161</v>
       </c>
@@ -21054,8 +23031,17 @@
       <c r="BT150" t="s">
         <v>2565</v>
       </c>
-    </row>
-    <row r="151" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV150">
+        <v>468</v>
+      </c>
+      <c r="BW150">
+        <v>0</v>
+      </c>
+      <c r="BY150" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="151" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>158</v>
       </c>
@@ -21086,8 +23072,17 @@
       <c r="BT151" t="s">
         <v>2939</v>
       </c>
-    </row>
-    <row r="152" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV151">
+        <v>465</v>
+      </c>
+      <c r="BW151">
+        <v>0</v>
+      </c>
+      <c r="BY151" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="152" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B152">
         <v>154</v>
       </c>
@@ -21118,8 +23113,17 @@
       <c r="BT152" t="s">
         <v>2940</v>
       </c>
-    </row>
-    <row r="153" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV152">
+        <v>461</v>
+      </c>
+      <c r="BW152">
+        <v>0</v>
+      </c>
+      <c r="BY152" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="153" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>151</v>
       </c>
@@ -21150,8 +23154,17 @@
       <c r="BT153" t="s">
         <v>2941</v>
       </c>
-    </row>
-    <row r="154" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV153">
+        <v>455</v>
+      </c>
+      <c r="BW153">
+        <v>0</v>
+      </c>
+      <c r="BY153" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="154" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B154">
         <v>147</v>
       </c>
@@ -21182,8 +23195,17 @@
       <c r="BT154" t="s">
         <v>2718</v>
       </c>
-    </row>
-    <row r="155" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV154">
+        <v>448</v>
+      </c>
+      <c r="BW154">
+        <v>0</v>
+      </c>
+      <c r="BY154" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="155" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B155">
         <v>144</v>
       </c>
@@ -21214,8 +23236,17 @@
       <c r="BT155" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="156" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV155">
+        <v>440</v>
+      </c>
+      <c r="BW155">
+        <v>0</v>
+      </c>
+      <c r="BY155" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="156" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B156">
         <v>141</v>
       </c>
@@ -21246,8 +23277,17 @@
       <c r="BT156" t="s">
         <v>2545</v>
       </c>
-    </row>
-    <row r="157" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV156">
+        <v>431</v>
+      </c>
+      <c r="BW156">
+        <v>0</v>
+      </c>
+      <c r="BY156" t="s">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="157" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B157">
         <v>138</v>
       </c>
@@ -21278,8 +23318,17 @@
       <c r="BT157" t="s">
         <v>2796</v>
       </c>
-    </row>
-    <row r="158" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV157">
+        <v>422</v>
+      </c>
+      <c r="BW157">
+        <v>0</v>
+      </c>
+      <c r="BY157" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="158" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B158">
         <v>135</v>
       </c>
@@ -21310,8 +23359,17 @@
       <c r="BT158" t="s">
         <v>2943</v>
       </c>
-    </row>
-    <row r="159" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV158">
+        <v>413</v>
+      </c>
+      <c r="BW158">
+        <v>0</v>
+      </c>
+      <c r="BY158" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="159" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>132</v>
       </c>
@@ -21342,8 +23400,17 @@
       <c r="BT159" t="s">
         <v>2944</v>
       </c>
-    </row>
-    <row r="160" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV159">
+        <v>404</v>
+      </c>
+      <c r="BW159">
+        <v>0</v>
+      </c>
+      <c r="BY159" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="160" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>129</v>
       </c>
@@ -21374,8 +23441,17 @@
       <c r="BT160" t="s">
         <v>2628</v>
       </c>
-    </row>
-    <row r="161" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV160">
+        <v>394</v>
+      </c>
+      <c r="BW160">
+        <v>0</v>
+      </c>
+      <c r="BY160" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="161" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>127</v>
       </c>
@@ -21406,8 +23482,17 @@
       <c r="BT161" t="s">
         <v>2692</v>
       </c>
-    </row>
-    <row r="162" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV161">
+        <v>384</v>
+      </c>
+      <c r="BW161">
+        <v>0</v>
+      </c>
+      <c r="BY161" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="162" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B162">
         <v>124</v>
       </c>
@@ -21438,8 +23523,17 @@
       <c r="BT162" t="s">
         <v>2945</v>
       </c>
-    </row>
-    <row r="163" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV162">
+        <v>375</v>
+      </c>
+      <c r="BW162">
+        <v>0</v>
+      </c>
+      <c r="BY162" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="163" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B163">
         <v>121</v>
       </c>
@@ -21470,8 +23564,17 @@
       <c r="BT163" t="s">
         <v>2625</v>
       </c>
-    </row>
-    <row r="164" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV163">
+        <v>366</v>
+      </c>
+      <c r="BW163">
+        <v>0</v>
+      </c>
+      <c r="BY163" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="164" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B164">
         <v>119</v>
       </c>
@@ -21502,8 +23605,17 @@
       <c r="BT164" t="s">
         <v>2946</v>
       </c>
-    </row>
-    <row r="165" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV164">
+        <v>357</v>
+      </c>
+      <c r="BW164">
+        <v>0</v>
+      </c>
+      <c r="BY164" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="165" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B165">
         <v>116</v>
       </c>
@@ -21534,8 +23646,17 @@
       <c r="BT165" t="s">
         <v>2947</v>
       </c>
-    </row>
-    <row r="166" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV165">
+        <v>347</v>
+      </c>
+      <c r="BW165">
+        <v>0</v>
+      </c>
+      <c r="BY165" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="166" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B166">
         <v>114</v>
       </c>
@@ -21566,8 +23687,17 @@
       <c r="BT166" t="s">
         <v>2948</v>
       </c>
-    </row>
-    <row r="167" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV166">
+        <v>338</v>
+      </c>
+      <c r="BW166">
+        <v>0</v>
+      </c>
+      <c r="BY166" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="167" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B167">
         <v>111</v>
       </c>
@@ -21598,8 +23728,17 @@
       <c r="BT167" t="s">
         <v>2518</v>
       </c>
-    </row>
-    <row r="168" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV167">
+        <v>330</v>
+      </c>
+      <c r="BW167">
+        <v>0</v>
+      </c>
+      <c r="BY167" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="168" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B168">
         <v>109</v>
       </c>
@@ -21630,8 +23769,17 @@
       <c r="BT168" t="s">
         <v>2582</v>
       </c>
-    </row>
-    <row r="169" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV168">
+        <v>321</v>
+      </c>
+      <c r="BW168">
+        <v>0</v>
+      </c>
+      <c r="BY168" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="169" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B169">
         <v>107</v>
       </c>
@@ -21662,8 +23810,17 @@
       <c r="BT169" t="s">
         <v>2522</v>
       </c>
-    </row>
-    <row r="170" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV169">
+        <v>313</v>
+      </c>
+      <c r="BW169">
+        <v>0</v>
+      </c>
+      <c r="BY169" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="170" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B170">
         <v>104</v>
       </c>
@@ -21694,8 +23851,17 @@
       <c r="BT170" t="s">
         <v>2583</v>
       </c>
-    </row>
-    <row r="171" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV170">
+        <v>304</v>
+      </c>
+      <c r="BW170">
+        <v>0</v>
+      </c>
+      <c r="BY170" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="171" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B171">
         <v>102</v>
       </c>
@@ -21726,8 +23892,17 @@
       <c r="BT171" t="s">
         <v>2584</v>
       </c>
-    </row>
-    <row r="172" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV171">
+        <v>296</v>
+      </c>
+      <c r="BW171">
+        <v>0</v>
+      </c>
+      <c r="BY171" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="172" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B172">
         <v>100</v>
       </c>
@@ -21758,8 +23933,17 @@
       <c r="BT172" t="s">
         <v>2674</v>
       </c>
-    </row>
-    <row r="173" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV172">
+        <v>289</v>
+      </c>
+      <c r="BW172">
+        <v>0</v>
+      </c>
+      <c r="BY172" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="173" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B173">
         <v>98</v>
       </c>
@@ -21790,8 +23974,17 @@
       <c r="BT173" t="s">
         <v>2698</v>
       </c>
-    </row>
-    <row r="174" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV173">
+        <v>281</v>
+      </c>
+      <c r="BW173">
+        <v>0</v>
+      </c>
+      <c r="BY173" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="174" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B174">
         <v>96</v>
       </c>
@@ -21822,8 +24015,17 @@
       <c r="BT174" t="s">
         <v>2586</v>
       </c>
-    </row>
-    <row r="175" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV174">
+        <v>274</v>
+      </c>
+      <c r="BW174">
+        <v>0</v>
+      </c>
+      <c r="BY174" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="175" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B175">
         <v>94</v>
       </c>
@@ -21854,8 +24056,17 @@
       <c r="BT175" t="s">
         <v>2587</v>
       </c>
-    </row>
-    <row r="176" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV175">
+        <v>266</v>
+      </c>
+      <c r="BW175">
+        <v>0</v>
+      </c>
+      <c r="BY175" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="176" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B176">
         <v>92</v>
       </c>
@@ -21886,8 +24097,17 @@
       <c r="BT176" t="s">
         <v>2588</v>
       </c>
-    </row>
-    <row r="177" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV176">
+        <v>259</v>
+      </c>
+      <c r="BW176">
+        <v>0</v>
+      </c>
+      <c r="BY176" t="s">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="177" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B177">
         <v>90</v>
       </c>
@@ -21918,8 +24138,17 @@
       <c r="BT177" t="s">
         <v>2559</v>
       </c>
-    </row>
-    <row r="178" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV177">
+        <v>252</v>
+      </c>
+      <c r="BW177">
+        <v>9</v>
+      </c>
+      <c r="BY177" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="178" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B178">
         <v>89</v>
       </c>
@@ -21950,8 +24179,17 @@
       <c r="BT178" t="s">
         <v>2735</v>
       </c>
-    </row>
-    <row r="179" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV178">
+        <v>249</v>
+      </c>
+      <c r="BW178">
+        <v>9</v>
+      </c>
+      <c r="BY178" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="179" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B179">
         <v>87</v>
       </c>
@@ -21982,8 +24220,17 @@
       <c r="BT179" t="s">
         <v>2515</v>
       </c>
-    </row>
-    <row r="180" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV179">
+        <v>250</v>
+      </c>
+      <c r="BW179">
+        <v>9</v>
+      </c>
+      <c r="BY179" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="180" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B180">
         <v>85</v>
       </c>
@@ -22014,8 +24261,17 @@
       <c r="BT180" t="s">
         <v>2949</v>
       </c>
-    </row>
-    <row r="181" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV180">
+        <v>254</v>
+      </c>
+      <c r="BW180">
+        <v>9</v>
+      </c>
+      <c r="BY180" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="181" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B181">
         <v>83</v>
       </c>
@@ -22046,8 +24302,17 @@
       <c r="BT181" t="s">
         <v>2560</v>
       </c>
-    </row>
-    <row r="182" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV181">
+        <v>262</v>
+      </c>
+      <c r="BW181">
+        <v>9</v>
+      </c>
+      <c r="BY181" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="182" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B182">
         <v>82</v>
       </c>
@@ -22078,8 +24343,17 @@
       <c r="BT182" t="s">
         <v>2922</v>
       </c>
-    </row>
-    <row r="183" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV182">
+        <v>272</v>
+      </c>
+      <c r="BW182">
+        <v>9</v>
+      </c>
+      <c r="BY182" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="183" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B183">
         <v>80</v>
       </c>
@@ -22110,8 +24384,17 @@
       <c r="BT183" t="s">
         <v>2570</v>
       </c>
-    </row>
-    <row r="184" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV183">
+        <v>283</v>
+      </c>
+      <c r="BW183">
+        <v>9</v>
+      </c>
+      <c r="BY183" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="184" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B184">
         <v>78</v>
       </c>
@@ -22142,8 +24425,17 @@
       <c r="BT184" t="s">
         <v>2950</v>
       </c>
-    </row>
-    <row r="185" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV184">
+        <v>296</v>
+      </c>
+      <c r="BW184">
+        <v>9</v>
+      </c>
+      <c r="BY184" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="185" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B185">
         <v>77</v>
       </c>
@@ -22174,8 +24466,17 @@
       <c r="BT185" t="s">
         <v>2951</v>
       </c>
-    </row>
-    <row r="186" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV185">
+        <v>310</v>
+      </c>
+      <c r="BW185">
+        <v>9</v>
+      </c>
+      <c r="BY185" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="186" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B186">
         <v>75</v>
       </c>
@@ -22206,8 +24507,17 @@
       <c r="BT186" t="s">
         <v>2710</v>
       </c>
-    </row>
-    <row r="187" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV186">
+        <v>324</v>
+      </c>
+      <c r="BW186">
+        <v>9</v>
+      </c>
+      <c r="BY186" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="187" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B187">
         <v>74</v>
       </c>
@@ -22238,8 +24548,17 @@
       <c r="BT187" t="s">
         <v>2771</v>
       </c>
-    </row>
-    <row r="188" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV187">
+        <v>339</v>
+      </c>
+      <c r="BW187">
+        <v>9</v>
+      </c>
+      <c r="BY187" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="188" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B188">
         <v>72</v>
       </c>
@@ -22270,8 +24589,17 @@
       <c r="BT188" t="s">
         <v>2544</v>
       </c>
-    </row>
-    <row r="189" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV188">
+        <v>354</v>
+      </c>
+      <c r="BW188">
+        <v>9</v>
+      </c>
+      <c r="BY188" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="189" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B189">
         <v>71</v>
       </c>
@@ -22302,8 +24630,17 @@
       <c r="BT189" t="s">
         <v>2952</v>
       </c>
-    </row>
-    <row r="190" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV189">
+        <v>369</v>
+      </c>
+      <c r="BW189">
+        <v>9</v>
+      </c>
+      <c r="BY189" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="190" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B190">
         <v>69</v>
       </c>
@@ -22334,8 +24671,17 @@
       <c r="BT190" t="s">
         <v>2953</v>
       </c>
-    </row>
-    <row r="191" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV190">
+        <v>384</v>
+      </c>
+      <c r="BW190">
+        <v>9</v>
+      </c>
+      <c r="BY190" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="191" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B191">
         <v>68</v>
       </c>
@@ -22366,8 +24712,17 @@
       <c r="BT191" t="s">
         <v>2954</v>
       </c>
-    </row>
-    <row r="192" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV191">
+        <v>399</v>
+      </c>
+      <c r="BW191">
+        <v>9</v>
+      </c>
+      <c r="BY191" t="s">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="192" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B192">
         <v>67</v>
       </c>
@@ -22398,8 +24753,17 @@
       <c r="BT192" t="s">
         <v>2955</v>
       </c>
-    </row>
-    <row r="193" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV192">
+        <v>414</v>
+      </c>
+      <c r="BW192">
+        <v>9</v>
+      </c>
+      <c r="BY192" t="s">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="193" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B193">
         <v>66</v>
       </c>
@@ -22430,8 +24794,17 @@
       <c r="BT193" t="s">
         <v>2956</v>
       </c>
-    </row>
-    <row r="194" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV193">
+        <v>429</v>
+      </c>
+      <c r="BW193">
+        <v>9</v>
+      </c>
+      <c r="BY193" t="s">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="194" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B194">
         <v>64</v>
       </c>
@@ -22462,8 +24835,17 @@
       <c r="BT194" t="s">
         <v>2957</v>
       </c>
-    </row>
-    <row r="195" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV194">
+        <v>443</v>
+      </c>
+      <c r="BW194">
+        <v>9</v>
+      </c>
+      <c r="BY194" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="195" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B195">
         <v>63</v>
       </c>
@@ -22494,8 +24876,17 @@
       <c r="BT195" t="s">
         <v>2958</v>
       </c>
-    </row>
-    <row r="196" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV195">
+        <v>457</v>
+      </c>
+      <c r="BW195">
+        <v>9</v>
+      </c>
+      <c r="BY195" t="s">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="196" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B196">
         <v>62</v>
       </c>
@@ -22526,8 +24917,17 @@
       <c r="BT196" t="s">
         <v>2959</v>
       </c>
-    </row>
-    <row r="197" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV196">
+        <v>471</v>
+      </c>
+      <c r="BW196">
+        <v>9</v>
+      </c>
+      <c r="BY196" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="197" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B197">
         <v>61</v>
       </c>
@@ -22558,8 +24958,17 @@
       <c r="BT197" t="s">
         <v>2960</v>
       </c>
-    </row>
-    <row r="198" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV197">
+        <v>485</v>
+      </c>
+      <c r="BW197">
+        <v>9</v>
+      </c>
+      <c r="BY197" t="s">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="198" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B198">
         <v>59</v>
       </c>
@@ -22590,8 +24999,17 @@
       <c r="BT198" t="s">
         <v>2961</v>
       </c>
-    </row>
-    <row r="199" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV198">
+        <v>498</v>
+      </c>
+      <c r="BW198">
+        <v>9</v>
+      </c>
+      <c r="BY198" t="s">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="199" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B199">
         <v>58</v>
       </c>
@@ -22622,8 +25040,17 @@
       <c r="BT199" t="s">
         <v>2962</v>
       </c>
-    </row>
-    <row r="200" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV199">
+        <v>511</v>
+      </c>
+      <c r="BW199">
+        <v>9</v>
+      </c>
+      <c r="BY199" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="200" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B200">
         <v>58</v>
       </c>
@@ -22654,8 +25081,17 @@
       <c r="BT200" t="s">
         <v>2963</v>
       </c>
-    </row>
-    <row r="201" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV200">
+        <v>524</v>
+      </c>
+      <c r="BW200">
+        <v>9</v>
+      </c>
+      <c r="BY200" t="s">
+        <v>3132</v>
+      </c>
+    </row>
+    <row r="201" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B201">
         <v>56</v>
       </c>
@@ -22686,8 +25122,17 @@
       <c r="BT201" t="s">
         <v>2964</v>
       </c>
-    </row>
-    <row r="202" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV201">
+        <v>535</v>
+      </c>
+      <c r="BW201">
+        <v>9</v>
+      </c>
+      <c r="BY201" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="202" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B202">
         <v>55</v>
       </c>
@@ -22718,8 +25163,17 @@
       <c r="BT202" t="s">
         <v>2965</v>
       </c>
-    </row>
-    <row r="203" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV202">
+        <v>548</v>
+      </c>
+      <c r="BW202">
+        <v>9</v>
+      </c>
+      <c r="BY202" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="203" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B203">
         <v>54</v>
       </c>
@@ -22750,8 +25204,17 @@
       <c r="BT203" t="s">
         <v>2966</v>
       </c>
-    </row>
-    <row r="204" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV203">
+        <v>559</v>
+      </c>
+      <c r="BW203">
+        <v>9</v>
+      </c>
+      <c r="BY203" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="204" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B204">
         <v>53</v>
       </c>
@@ -22782,8 +25245,17 @@
       <c r="BT204" t="s">
         <v>2967</v>
       </c>
-    </row>
-    <row r="205" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV204">
+        <v>570</v>
+      </c>
+      <c r="BW204">
+        <v>9</v>
+      </c>
+      <c r="BY204" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="205" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B205">
         <v>52</v>
       </c>
@@ -22814,8 +25286,17 @@
       <c r="BT205" t="s">
         <v>2968</v>
       </c>
-    </row>
-    <row r="206" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV205">
+        <v>581</v>
+      </c>
+      <c r="BW205">
+        <v>9</v>
+      </c>
+      <c r="BY205" t="s">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="206" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B206">
         <v>51</v>
       </c>
@@ -22846,8 +25327,17 @@
       <c r="BT206" t="s">
         <v>2969</v>
       </c>
-    </row>
-    <row r="207" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV206">
+        <v>591</v>
+      </c>
+      <c r="BW206">
+        <v>9</v>
+      </c>
+      <c r="BY206" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="207" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B207">
         <v>50</v>
       </c>
@@ -22878,8 +25368,17 @@
       <c r="BT207" t="s">
         <v>2970</v>
       </c>
-    </row>
-    <row r="208" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV207">
+        <v>601</v>
+      </c>
+      <c r="BW207">
+        <v>9</v>
+      </c>
+      <c r="BY207" t="s">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="208" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B208">
         <v>49</v>
       </c>
@@ -22910,8 +25409,17 @@
       <c r="BT208" t="s">
         <v>2971</v>
       </c>
-    </row>
-    <row r="209" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV208">
+        <v>611</v>
+      </c>
+      <c r="BW208">
+        <v>9</v>
+      </c>
+      <c r="BY208" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="209" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B209">
         <v>48</v>
       </c>
@@ -22942,8 +25450,17 @@
       <c r="BT209" t="s">
         <v>2972</v>
       </c>
-    </row>
-    <row r="210" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV209">
+        <v>621</v>
+      </c>
+      <c r="BW209">
+        <v>9</v>
+      </c>
+      <c r="BY209" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="210" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B210">
         <v>47</v>
       </c>
@@ -22974,8 +25491,17 @@
       <c r="BT210" t="s">
         <v>2973</v>
       </c>
-    </row>
-    <row r="211" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV210">
+        <v>630</v>
+      </c>
+      <c r="BW210">
+        <v>9</v>
+      </c>
+      <c r="BY210" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="211" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B211">
         <v>47</v>
       </c>
@@ -23006,8 +25532,17 @@
       <c r="BT211" t="s">
         <v>2974</v>
       </c>
-    </row>
-    <row r="212" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV211">
+        <v>639</v>
+      </c>
+      <c r="BW211">
+        <v>9</v>
+      </c>
+      <c r="BY211" t="s">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="212" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B212">
         <v>46</v>
       </c>
@@ -23038,8 +25573,17 @@
       <c r="BT212" t="s">
         <v>2975</v>
       </c>
-    </row>
-    <row r="213" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV212">
+        <v>648</v>
+      </c>
+      <c r="BW212">
+        <v>9</v>
+      </c>
+      <c r="BY212" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="213" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B213">
         <v>45</v>
       </c>
@@ -23070,8 +25614,17 @@
       <c r="BT213" t="s">
         <v>2976</v>
       </c>
-    </row>
-    <row r="214" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV213">
+        <v>656</v>
+      </c>
+      <c r="BW213">
+        <v>9</v>
+      </c>
+      <c r="BY213" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="214" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B214">
         <v>44</v>
       </c>
@@ -23102,8 +25655,17 @@
       <c r="BT214" t="s">
         <v>2977</v>
       </c>
-    </row>
-    <row r="215" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV214">
+        <v>664</v>
+      </c>
+      <c r="BW214">
+        <v>9</v>
+      </c>
+      <c r="BY214" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="215" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B215">
         <v>43</v>
       </c>
@@ -23134,8 +25696,17 @@
       <c r="BT215" t="s">
         <v>2978</v>
       </c>
-    </row>
-    <row r="216" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV215">
+        <v>672</v>
+      </c>
+      <c r="BW215">
+        <v>9</v>
+      </c>
+      <c r="BY215" t="s">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="216" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B216">
         <v>43</v>
       </c>
@@ -23166,8 +25737,17 @@
       <c r="BT216" t="s">
         <v>2979</v>
       </c>
-    </row>
-    <row r="217" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV216">
+        <v>680</v>
+      </c>
+      <c r="BW216">
+        <v>9</v>
+      </c>
+      <c r="BY216" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="217" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B217">
         <v>42</v>
       </c>
@@ -23198,8 +25778,17 @@
       <c r="BT217" t="s">
         <v>2980</v>
       </c>
-    </row>
-    <row r="218" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV217">
+        <v>688</v>
+      </c>
+      <c r="BW217">
+        <v>9</v>
+      </c>
+      <c r="BY217" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="218" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B218">
         <v>42</v>
       </c>
@@ -23230,8 +25819,17 @@
       <c r="BT218" t="s">
         <v>2981</v>
       </c>
-    </row>
-    <row r="219" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV218">
+        <v>695</v>
+      </c>
+      <c r="BW218">
+        <v>9</v>
+      </c>
+      <c r="BY218" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="219" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B219">
         <v>40</v>
       </c>
@@ -23262,8 +25860,17 @@
       <c r="BT219" t="s">
         <v>2982</v>
       </c>
-    </row>
-    <row r="220" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV219">
+        <v>701</v>
+      </c>
+      <c r="BW219">
+        <v>9</v>
+      </c>
+      <c r="BY219" t="s">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="220" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B220">
         <v>40</v>
       </c>
@@ -23294,8 +25901,17 @@
       <c r="BT220" t="s">
         <v>2983</v>
       </c>
-    </row>
-    <row r="221" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV220">
+        <v>708</v>
+      </c>
+      <c r="BW220">
+        <v>9</v>
+      </c>
+      <c r="BY220" t="s">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="221" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B221">
         <v>39</v>
       </c>
@@ -23326,8 +25942,17 @@
       <c r="BT221" t="s">
         <v>2984</v>
       </c>
-    </row>
-    <row r="222" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV221">
+        <v>715</v>
+      </c>
+      <c r="BW221">
+        <v>9</v>
+      </c>
+      <c r="BY221" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="222" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B222">
         <v>38</v>
       </c>
@@ -23358,8 +25983,17 @@
       <c r="BT222" t="s">
         <v>2985</v>
       </c>
-    </row>
-    <row r="223" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV222">
+        <v>721</v>
+      </c>
+      <c r="BW222">
+        <v>9</v>
+      </c>
+      <c r="BY222" t="s">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="223" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B223">
         <v>37</v>
       </c>
@@ -23390,8 +26024,17 @@
       <c r="BT223" t="s">
         <v>2986</v>
       </c>
-    </row>
-    <row r="224" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV223">
+        <v>727</v>
+      </c>
+      <c r="BW223">
+        <v>9</v>
+      </c>
+      <c r="BY223" t="s">
+        <v>2986</v>
+      </c>
+    </row>
+    <row r="224" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B224">
         <v>37</v>
       </c>
@@ -23422,8 +26065,17 @@
       <c r="BT224" t="s">
         <v>2987</v>
       </c>
-    </row>
-    <row r="225" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV224">
+        <v>734</v>
+      </c>
+      <c r="BW224">
+        <v>9</v>
+      </c>
+      <c r="BY224" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="225" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B225">
         <v>36</v>
       </c>
@@ -23454,8 +26106,17 @@
       <c r="BT225" t="s">
         <v>2988</v>
       </c>
-    </row>
-    <row r="226" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV225">
+        <v>739</v>
+      </c>
+      <c r="BW225">
+        <v>9</v>
+      </c>
+      <c r="BY225" t="s">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="226" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B226">
         <v>36</v>
       </c>
@@ -23486,8 +26147,17 @@
       <c r="BT226" t="s">
         <v>2989</v>
       </c>
-    </row>
-    <row r="227" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV226">
+        <v>745</v>
+      </c>
+      <c r="BW226">
+        <v>9</v>
+      </c>
+      <c r="BY226" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="227" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B227">
         <v>35</v>
       </c>
@@ -23518,8 +26188,17 @@
       <c r="BT227" t="s">
         <v>2990</v>
       </c>
-    </row>
-    <row r="228" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV227">
+        <v>750</v>
+      </c>
+      <c r="BW227">
+        <v>9</v>
+      </c>
+      <c r="BY227" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="228" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B228">
         <v>34</v>
       </c>
@@ -23550,8 +26229,17 @@
       <c r="BT228" t="s">
         <v>2991</v>
       </c>
-    </row>
-    <row r="229" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV228">
+        <v>756</v>
+      </c>
+      <c r="BW228">
+        <v>9</v>
+      </c>
+      <c r="BY228" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="229" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B229">
         <v>34</v>
       </c>
@@ -23582,8 +26270,17 @@
       <c r="BT229" t="s">
         <v>2992</v>
       </c>
-    </row>
-    <row r="230" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV229">
+        <v>761</v>
+      </c>
+      <c r="BW229">
+        <v>9</v>
+      </c>
+      <c r="BY229" t="s">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="230" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B230">
         <v>33</v>
       </c>
@@ -23614,8 +26311,17 @@
       <c r="BT230" t="s">
         <v>2993</v>
       </c>
-    </row>
-    <row r="231" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV230">
+        <v>766</v>
+      </c>
+      <c r="BW230">
+        <v>9</v>
+      </c>
+      <c r="BY230" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="231" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B231">
         <v>33</v>
       </c>
@@ -23646,8 +26352,17 @@
       <c r="BT231" t="s">
         <v>2994</v>
       </c>
-    </row>
-    <row r="232" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV231">
+        <v>770</v>
+      </c>
+      <c r="BW231">
+        <v>9</v>
+      </c>
+      <c r="BY231" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="232" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B232">
         <v>32</v>
       </c>
@@ -23678,8 +26393,17 @@
       <c r="BT232" t="s">
         <v>2995</v>
       </c>
-    </row>
-    <row r="233" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV232">
+        <v>775</v>
+      </c>
+      <c r="BW232">
+        <v>9</v>
+      </c>
+      <c r="BY232" t="s">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="233" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B233">
         <v>32</v>
       </c>
@@ -23710,8 +26434,17 @@
       <c r="BT233" t="s">
         <v>2996</v>
       </c>
-    </row>
-    <row r="234" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV233">
+        <v>779</v>
+      </c>
+      <c r="BW233">
+        <v>9</v>
+      </c>
+      <c r="BY233" t="s">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="234" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B234">
         <v>31</v>
       </c>
@@ -23742,8 +26475,17 @@
       <c r="BT234" t="s">
         <v>2997</v>
       </c>
-    </row>
-    <row r="235" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV234">
+        <v>784</v>
+      </c>
+      <c r="BW234">
+        <v>9</v>
+      </c>
+      <c r="BY234" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="235" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B235">
         <v>30</v>
       </c>
@@ -23774,8 +26516,17 @@
       <c r="BT235" t="s">
         <v>2998</v>
       </c>
-    </row>
-    <row r="236" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV235">
+        <v>788</v>
+      </c>
+      <c r="BW235">
+        <v>9</v>
+      </c>
+      <c r="BY235" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="236" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B236">
         <v>30</v>
       </c>
@@ -23806,8 +26557,17 @@
       <c r="BT236" t="s">
         <v>2999</v>
       </c>
-    </row>
-    <row r="237" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV236">
+        <v>792</v>
+      </c>
+      <c r="BW236">
+        <v>9</v>
+      </c>
+      <c r="BY236" t="s">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="237" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B237">
         <v>29</v>
       </c>
@@ -23838,8 +26598,17 @@
       <c r="BT237" t="s">
         <v>3000</v>
       </c>
-    </row>
-    <row r="238" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BV237">
+        <v>796</v>
+      </c>
+      <c r="BW237">
+        <v>9</v>
+      </c>
+      <c r="BY237" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="238" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B238">
         <v>29</v>
       </c>
@@ -23870,8 +26639,14 @@
       <c r="BT238" t="s">
         <v>3001</v>
       </c>
-    </row>
-    <row r="239" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW238">
+        <v>9</v>
+      </c>
+      <c r="BY238" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="239" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B239">
         <v>29</v>
       </c>
@@ -23902,8 +26677,14 @@
       <c r="BT239" t="s">
         <v>3002</v>
       </c>
-    </row>
-    <row r="240" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW239">
+        <v>9</v>
+      </c>
+      <c r="BY239" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="240" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B240">
         <v>28</v>
       </c>
@@ -23934,8 +26715,14 @@
       <c r="BT240" t="s">
         <v>3003</v>
       </c>
-    </row>
-    <row r="241" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW240">
+        <v>9</v>
+      </c>
+      <c r="BY240" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="241" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B241">
         <v>28</v>
       </c>
@@ -23966,8 +26753,14 @@
       <c r="BT241" t="s">
         <v>3004</v>
       </c>
-    </row>
-    <row r="242" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW241">
+        <v>9</v>
+      </c>
+      <c r="BY241" t="s">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="242" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B242">
         <v>27</v>
       </c>
@@ -23998,8 +26791,14 @@
       <c r="BT242" t="s">
         <v>3005</v>
       </c>
-    </row>
-    <row r="243" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW242">
+        <v>9</v>
+      </c>
+      <c r="BY242" t="s">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="243" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B243">
         <v>27</v>
       </c>
@@ -24030,8 +26829,14 @@
       <c r="BT243" t="s">
         <v>3006</v>
       </c>
-    </row>
-    <row r="244" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW243">
+        <v>9</v>
+      </c>
+      <c r="BY243" t="s">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="244" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B244">
         <v>26</v>
       </c>
@@ -24062,8 +26867,14 @@
       <c r="BT244" t="s">
         <v>3007</v>
       </c>
-    </row>
-    <row r="245" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW244">
+        <v>9</v>
+      </c>
+      <c r="BY244" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="245" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B245">
         <v>26</v>
       </c>
@@ -24094,8 +26905,14 @@
       <c r="BT245" t="s">
         <v>3008</v>
       </c>
-    </row>
-    <row r="246" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW245">
+        <v>9</v>
+      </c>
+      <c r="BY245" t="s">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="246" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B246">
         <v>26</v>
       </c>
@@ -24126,8 +26943,14 @@
       <c r="BT246" t="s">
         <v>3009</v>
       </c>
-    </row>
-    <row r="247" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW246">
+        <v>9</v>
+      </c>
+      <c r="BY246" t="s">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="247" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B247">
         <v>25</v>
       </c>
@@ -24158,8 +26981,14 @@
       <c r="BT247" t="s">
         <v>3010</v>
       </c>
-    </row>
-    <row r="248" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW247">
+        <v>9</v>
+      </c>
+      <c r="BY247" t="s">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="248" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B248">
         <v>25</v>
       </c>
@@ -24190,8 +27019,14 @@
       <c r="BT248" t="s">
         <v>2787</v>
       </c>
-    </row>
-    <row r="249" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW248">
+        <v>9</v>
+      </c>
+      <c r="BY248" t="s">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="249" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B249">
         <v>25</v>
       </c>
@@ -24222,8 +27057,14 @@
       <c r="BT249" t="s">
         <v>3011</v>
       </c>
-    </row>
-    <row r="250" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW249">
+        <v>9</v>
+      </c>
+      <c r="BY249" t="s">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="250" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B250">
         <v>24</v>
       </c>
@@ -24254,8 +27095,14 @@
       <c r="BT250" t="s">
         <v>2562</v>
       </c>
-    </row>
-    <row r="251" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW250">
+        <v>9</v>
+      </c>
+      <c r="BY250" t="s">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="251" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B251">
         <v>24</v>
       </c>
@@ -24286,8 +27133,14 @@
       <c r="BT251" t="s">
         <v>3012</v>
       </c>
-    </row>
-    <row r="252" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW251">
+        <v>9</v>
+      </c>
+      <c r="BY251" t="s">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="252" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B252">
         <v>23</v>
       </c>
@@ -24318,8 +27171,14 @@
       <c r="BT252" t="s">
         <v>3013</v>
       </c>
-    </row>
-    <row r="253" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW252">
+        <v>9</v>
+      </c>
+      <c r="BY252" t="s">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="253" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B253">
         <v>23</v>
       </c>
@@ -24350,8 +27209,14 @@
       <c r="BT253" t="s">
         <v>2575</v>
       </c>
-    </row>
-    <row r="254" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW253">
+        <v>9</v>
+      </c>
+      <c r="BY253" t="s">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="254" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B254">
         <v>23</v>
       </c>
@@ -24382,8 +27247,14 @@
       <c r="BT254" t="s">
         <v>3014</v>
       </c>
-    </row>
-    <row r="255" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW254">
+        <v>9</v>
+      </c>
+      <c r="BY254" t="s">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="255" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B255">
         <v>22</v>
       </c>
@@ -24414,8 +27285,14 @@
       <c r="BT255" t="s">
         <v>3015</v>
       </c>
-    </row>
-    <row r="256" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW255">
+        <v>9</v>
+      </c>
+      <c r="BY255" t="s">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="256" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B256">
         <v>22</v>
       </c>
@@ -24446,8 +27323,14 @@
       <c r="BT256" t="s">
         <v>2723</v>
       </c>
-    </row>
-    <row r="257" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW256">
+        <v>9</v>
+      </c>
+      <c r="BY256" t="s">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="257" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B257">
         <v>21</v>
       </c>
@@ -24478,8 +27361,14 @@
       <c r="BT257" t="s">
         <v>2566</v>
       </c>
-    </row>
-    <row r="258" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW257">
+        <v>9</v>
+      </c>
+      <c r="BY257" t="s">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="258" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B258">
         <v>21</v>
       </c>
@@ -24510,8 +27399,14 @@
       <c r="BT258" t="s">
         <v>3016</v>
       </c>
-    </row>
-    <row r="259" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW258">
+        <v>9</v>
+      </c>
+      <c r="BY258" t="s">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="259" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B259">
         <v>21</v>
       </c>
@@ -24542,8 +27437,14 @@
       <c r="BT259" t="s">
         <v>2549</v>
       </c>
-    </row>
-    <row r="260" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW259">
+        <v>9</v>
+      </c>
+      <c r="BY259" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="260" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B260">
         <v>20</v>
       </c>
@@ -24574,8 +27475,14 @@
       <c r="BT260" t="s">
         <v>3017</v>
       </c>
-    </row>
-    <row r="261" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW260">
+        <v>9</v>
+      </c>
+      <c r="BY260" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="261" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B261">
         <v>20</v>
       </c>
@@ -24606,8 +27513,14 @@
       <c r="BT261" t="s">
         <v>2728</v>
       </c>
-    </row>
-    <row r="262" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW261">
+        <v>9</v>
+      </c>
+      <c r="BY261" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="262" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B262">
         <v>20</v>
       </c>
@@ -24638,8 +27551,14 @@
       <c r="BT262" t="s">
         <v>2798</v>
       </c>
-    </row>
-    <row r="263" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW262">
+        <v>9</v>
+      </c>
+      <c r="BY262" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="263" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B263">
         <v>19</v>
       </c>
@@ -24670,8 +27589,14 @@
       <c r="BT263" t="s">
         <v>2799</v>
       </c>
-    </row>
-    <row r="264" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW263">
+        <v>9</v>
+      </c>
+      <c r="BY263" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="264" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B264">
         <v>19</v>
       </c>
@@ -24702,8 +27627,14 @@
       <c r="BT264" t="s">
         <v>2552</v>
       </c>
-    </row>
-    <row r="265" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW264">
+        <v>9</v>
+      </c>
+      <c r="BY264" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="265" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B265">
         <v>19</v>
       </c>
@@ -24734,8 +27665,14 @@
       <c r="BT265" t="s">
         <v>2800</v>
       </c>
-    </row>
-    <row r="266" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW265">
+        <v>9</v>
+      </c>
+      <c r="BY265" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="266" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B266">
         <v>19</v>
       </c>
@@ -24766,8 +27703,14 @@
       <c r="BT266" t="s">
         <v>2694</v>
       </c>
-    </row>
-    <row r="267" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW266">
+        <v>9</v>
+      </c>
+      <c r="BY266" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="267" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B267">
         <v>18</v>
       </c>
@@ -24798,8 +27741,14 @@
       <c r="BT267" t="s">
         <v>3018</v>
       </c>
-    </row>
-    <row r="268" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW267">
+        <v>9</v>
+      </c>
+      <c r="BY267" t="s">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="268" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B268">
         <v>18</v>
       </c>
@@ -24830,8 +27779,14 @@
       <c r="BT268" t="s">
         <v>2623</v>
       </c>
-    </row>
-    <row r="269" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW268">
+        <v>9</v>
+      </c>
+      <c r="BY268" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="269" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B269">
         <v>18</v>
       </c>
@@ -24862,8 +27817,14 @@
       <c r="BT269" t="s">
         <v>2803</v>
       </c>
-    </row>
-    <row r="270" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW269">
+        <v>9</v>
+      </c>
+      <c r="BY269" t="s">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="270" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B270">
         <v>18</v>
       </c>
@@ -24894,8 +27855,14 @@
       <c r="BT270" t="s">
         <v>2517</v>
       </c>
-    </row>
-    <row r="271" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW270">
+        <v>9</v>
+      </c>
+      <c r="BY270" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="271" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B271">
         <v>18</v>
       </c>
@@ -24926,8 +27893,14 @@
       <c r="BT271" t="s">
         <v>3019</v>
       </c>
-    </row>
-    <row r="272" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW271">
+        <v>9</v>
+      </c>
+      <c r="BY271" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="272" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B272">
         <v>17</v>
       </c>
@@ -24958,8 +27931,14 @@
       <c r="BT272" t="s">
         <v>2553</v>
       </c>
-    </row>
-    <row r="273" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW272">
+        <v>9</v>
+      </c>
+      <c r="BY272" t="s">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="273" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B273">
         <v>17</v>
       </c>
@@ -24990,8 +27969,14 @@
       <c r="BT273" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="274" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW273">
+        <v>9</v>
+      </c>
+      <c r="BY273" t="s">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="274" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B274">
         <v>17</v>
       </c>
@@ -25022,8 +28007,14 @@
       <c r="BT274" t="s">
         <v>2555</v>
       </c>
-    </row>
-    <row r="275" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW274">
+        <v>9</v>
+      </c>
+      <c r="BY274" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="275" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B275">
         <v>16</v>
       </c>
@@ -25054,8 +28045,14 @@
       <c r="BT275" t="s">
         <v>2526</v>
       </c>
-    </row>
-    <row r="276" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW275">
+        <v>9</v>
+      </c>
+      <c r="BY275" t="s">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="276" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B276">
         <v>16</v>
       </c>
@@ -25086,8 +28083,14 @@
       <c r="BT276" t="s">
         <v>2527</v>
       </c>
-    </row>
-    <row r="277" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW276">
+        <v>9</v>
+      </c>
+      <c r="BY276" t="s">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="277" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B277">
         <v>16</v>
       </c>
@@ -25118,8 +28121,14 @@
       <c r="BT277" t="s">
         <v>2528</v>
       </c>
-    </row>
-    <row r="278" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW277">
+        <v>9</v>
+      </c>
+      <c r="BY277" t="s">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="278" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B278">
         <v>16</v>
       </c>
@@ -25150,8 +28159,14 @@
       <c r="BT278" t="s">
         <v>2529</v>
       </c>
-    </row>
-    <row r="279" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW278">
+        <v>9</v>
+      </c>
+      <c r="BY278" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="279" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B279">
         <v>15</v>
       </c>
@@ -25182,8 +28197,14 @@
       <c r="BT279" t="s">
         <v>2530</v>
       </c>
-    </row>
-    <row r="280" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW279">
+        <v>9</v>
+      </c>
+      <c r="BY279" t="s">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="280" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B280">
         <v>15</v>
       </c>
@@ -25214,8 +28235,14 @@
       <c r="BT280" t="s">
         <v>3020</v>
       </c>
-    </row>
-    <row r="281" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW280">
+        <v>9</v>
+      </c>
+      <c r="BY280" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="281" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B281">
         <v>15</v>
       </c>
@@ -25246,8 +28273,14 @@
       <c r="BT281" t="s">
         <v>3021</v>
       </c>
-    </row>
-    <row r="282" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW281">
+        <v>9</v>
+      </c>
+      <c r="BY281" t="s">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="282" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B282">
         <v>15</v>
       </c>
@@ -25278,8 +28311,14 @@
       <c r="BT282" t="s">
         <v>2657</v>
       </c>
-    </row>
-    <row r="283" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW282">
+        <v>9</v>
+      </c>
+      <c r="BY282" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="283" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B283">
         <v>15</v>
       </c>
@@ -25310,8 +28349,14 @@
       <c r="BT283" t="s">
         <v>2614</v>
       </c>
-    </row>
-    <row r="284" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BW283">
+        <v>9</v>
+      </c>
+      <c r="BY283" t="s">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="284" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B284">
         <v>14</v>
       </c>
@@ -25342,8 +28387,11 @@
       <c r="BT284" t="s">
         <v>3022</v>
       </c>
-    </row>
-    <row r="285" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY284" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="285" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B285">
         <v>14</v>
       </c>
@@ -25374,8 +28422,11 @@
       <c r="BT285" t="s">
         <v>2659</v>
       </c>
-    </row>
-    <row r="286" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY285" t="s">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="286" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B286">
         <v>14</v>
       </c>
@@ -25406,8 +28457,11 @@
       <c r="BT286" t="s">
         <v>2660</v>
       </c>
-    </row>
-    <row r="287" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY286" t="s">
+        <v>3205</v>
+      </c>
+    </row>
+    <row r="287" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B287">
         <v>14</v>
       </c>
@@ -25438,8 +28492,11 @@
       <c r="BT287" t="s">
         <v>2661</v>
       </c>
-    </row>
-    <row r="288" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY287" t="s">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="288" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B288">
         <v>14</v>
       </c>
@@ -25470,8 +28527,11 @@
       <c r="BT288" t="s">
         <v>2662</v>
       </c>
-    </row>
-    <row r="289" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY288" t="s">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="289" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B289">
         <v>13</v>
       </c>
@@ -25502,8 +28562,11 @@
       <c r="BT289" t="s">
         <v>3023</v>
       </c>
-    </row>
-    <row r="290" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY289" t="s">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="290" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B290">
         <v>13</v>
       </c>
@@ -25534,8 +28597,11 @@
       <c r="BT290" t="s">
         <v>3024</v>
       </c>
-    </row>
-    <row r="291" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY290" t="s">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="291" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B291">
         <v>13</v>
       </c>
@@ -25566,8 +28632,11 @@
       <c r="BT291" t="s">
         <v>3025</v>
       </c>
-    </row>
-    <row r="292" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY291" t="s">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="292" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B292">
         <v>13</v>
       </c>
@@ -25598,8 +28667,11 @@
       <c r="BT292" t="s">
         <v>3026</v>
       </c>
-    </row>
-    <row r="293" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY292" t="s">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="293" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B293">
         <v>13</v>
       </c>
@@ -25630,8 +28702,11 @@
       <c r="BT293" t="s">
         <v>2503</v>
       </c>
-    </row>
-    <row r="294" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY293" t="s">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="294" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B294">
         <v>13</v>
       </c>
@@ -25662,8 +28737,11 @@
       <c r="BT294" t="s">
         <v>2506</v>
       </c>
-    </row>
-    <row r="295" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY294" t="s">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="295" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B295">
         <v>13</v>
       </c>
@@ -25694,8 +28772,11 @@
       <c r="BT295" t="s">
         <v>2610</v>
       </c>
-    </row>
-    <row r="296" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY295" t="s">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="296" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B296">
         <v>12</v>
       </c>
@@ -25726,8 +28807,11 @@
       <c r="BT296" t="s">
         <v>2596</v>
       </c>
-    </row>
-    <row r="297" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY296" t="s">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="297" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B297">
         <v>12</v>
       </c>
@@ -25758,8 +28842,11 @@
       <c r="BT297" t="s">
         <v>2597</v>
       </c>
-    </row>
-    <row r="298" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY297" t="s">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="298" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B298">
         <v>12</v>
       </c>
@@ -25790,8 +28877,11 @@
       <c r="BT298" t="s">
         <v>2598</v>
       </c>
-    </row>
-    <row r="299" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY298" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="299" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B299">
         <v>12</v>
       </c>
@@ -25822,8 +28912,11 @@
       <c r="BT299" t="s">
         <v>2507</v>
       </c>
-    </row>
-    <row r="300" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY299" t="s">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="300" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B300">
         <v>11</v>
       </c>
@@ -25854,8 +28947,11 @@
       <c r="BT300" t="s">
         <v>2599</v>
       </c>
-    </row>
-    <row r="301" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY300" t="s">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="301" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B301">
         <v>11</v>
       </c>
@@ -25886,8 +28982,11 @@
       <c r="BT301" t="s">
         <v>2502</v>
       </c>
-    </row>
-    <row r="302" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY301" t="s">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="302" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B302">
         <v>11</v>
       </c>
@@ -25918,8 +29017,11 @@
       <c r="BT302" t="s">
         <v>3027</v>
       </c>
-    </row>
-    <row r="303" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY302" t="s">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="303" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B303">
         <v>11</v>
       </c>
@@ -25950,8 +29052,11 @@
       <c r="BT303" t="s">
         <v>2600</v>
       </c>
-    </row>
-    <row r="304" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY303" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="304" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B304">
         <v>11</v>
       </c>
@@ -25982,8 +29087,11 @@
       <c r="BT304" t="s">
         <v>2601</v>
       </c>
-    </row>
-    <row r="305" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY304" t="s">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="305" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B305">
         <v>11</v>
       </c>
@@ -26014,8 +29122,11 @@
       <c r="BT305" t="s">
         <v>3028</v>
       </c>
-    </row>
-    <row r="306" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY305" t="s">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="306" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B306">
         <v>11</v>
       </c>
@@ -26046,8 +29157,11 @@
       <c r="BT306" t="s">
         <v>3029</v>
       </c>
-    </row>
-    <row r="307" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY306" t="s">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="307" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B307">
         <v>10</v>
       </c>
@@ -26078,8 +29192,11 @@
       <c r="BT307" t="s">
         <v>2822</v>
       </c>
-    </row>
-    <row r="308" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY307" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="308" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B308">
         <v>10</v>
       </c>
@@ -26110,8 +29227,11 @@
       <c r="BT308" t="s">
         <v>2602</v>
       </c>
-    </row>
-    <row r="309" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY308" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="309" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B309">
         <v>11</v>
       </c>
@@ -26142,8 +29262,11 @@
       <c r="BT309" t="s">
         <v>3030</v>
       </c>
-    </row>
-    <row r="310" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY309" t="s">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="310" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B310">
         <v>10</v>
       </c>
@@ -26174,8 +29297,11 @@
       <c r="BT310" t="s">
         <v>2824</v>
       </c>
-    </row>
-    <row r="311" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY310" t="s">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="311" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B311">
         <v>10</v>
       </c>
@@ -26206,8 +29332,11 @@
       <c r="BT311" t="s">
         <v>2606</v>
       </c>
-    </row>
-    <row r="312" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY311" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="312" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B312">
         <v>10</v>
       </c>
@@ -26238,8 +29367,11 @@
       <c r="BT312" t="s">
         <v>3031</v>
       </c>
-    </row>
-    <row r="313" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY312" t="s">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="313" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B313">
         <v>10</v>
       </c>
@@ -26270,8 +29402,11 @@
       <c r="BT313" t="s">
         <v>2604</v>
       </c>
-    </row>
-    <row r="314" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY313" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="314" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B314">
         <v>10</v>
       </c>
@@ -26302,8 +29437,11 @@
       <c r="BT314" t="s">
         <v>3032</v>
       </c>
-    </row>
-    <row r="315" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY314" t="s">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="315" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B315">
         <v>10</v>
       </c>
@@ -26334,8 +29472,11 @@
       <c r="BT315" t="s">
         <v>2605</v>
       </c>
-    </row>
-    <row r="316" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY315" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="316" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B316">
         <v>9</v>
       </c>
@@ -26366,8 +29507,11 @@
       <c r="BT316" t="s">
         <v>2827</v>
       </c>
-    </row>
-    <row r="317" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY316" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="317" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B317">
         <v>9</v>
       </c>
@@ -26398,8 +29542,11 @@
       <c r="BT317" t="s">
         <v>3033</v>
       </c>
-    </row>
-    <row r="318" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY317" t="s">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="318" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B318">
         <v>9</v>
       </c>
@@ -26430,8 +29577,11 @@
       <c r="BT318" t="s">
         <v>2829</v>
       </c>
-    </row>
-    <row r="319" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY318" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="319" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B319">
         <v>9</v>
       </c>
@@ -26462,8 +29612,11 @@
       <c r="BT319" t="s">
         <v>2830</v>
       </c>
-    </row>
-    <row r="320" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY319" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="320" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B320">
         <v>9</v>
       </c>
@@ -26494,8 +29647,11 @@
       <c r="BT320" t="s">
         <v>3034</v>
       </c>
-    </row>
-    <row r="321" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY320" t="s">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="321" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B321">
         <v>9</v>
       </c>
@@ -26526,8 +29682,11 @@
       <c r="BT321" t="s">
         <v>2498</v>
       </c>
-    </row>
-    <row r="322" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY321" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="322" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B322">
         <v>9</v>
       </c>
@@ -26558,8 +29717,11 @@
       <c r="BT322" t="s">
         <v>3035</v>
       </c>
-    </row>
-    <row r="323" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY322" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="323" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B323">
         <v>9</v>
       </c>
@@ -26590,8 +29752,11 @@
       <c r="BT323" t="s">
         <v>3036</v>
       </c>
-    </row>
-    <row r="324" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY323" t="s">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="324" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B324">
         <v>8</v>
       </c>
@@ -26622,8 +29787,11 @@
       <c r="BT324" t="s">
         <v>3037</v>
       </c>
-    </row>
-    <row r="325" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY324" t="s">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="325" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B325">
         <v>9</v>
       </c>
@@ -26654,8 +29822,11 @@
       <c r="BT325" t="s">
         <v>2835</v>
       </c>
-    </row>
-    <row r="326" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY325" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="326" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B326">
         <v>8</v>
       </c>
@@ -26686,8 +29857,11 @@
       <c r="BT326" t="s">
         <v>3038</v>
       </c>
-    </row>
-    <row r="327" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY326" t="s">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="327" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B327">
         <v>8</v>
       </c>
@@ -26718,8 +29892,11 @@
       <c r="BT327" t="s">
         <v>3039</v>
       </c>
-    </row>
-    <row r="328" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY327" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="328" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B328">
         <v>8</v>
       </c>
@@ -26750,8 +29927,11 @@
       <c r="BT328" t="s">
         <v>3040</v>
       </c>
-    </row>
-    <row r="329" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY328" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="329" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B329">
         <v>8</v>
       </c>
@@ -26782,8 +29962,11 @@
       <c r="BT329" t="s">
         <v>3041</v>
       </c>
-    </row>
-    <row r="330" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY329" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="330" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B330">
         <v>8</v>
       </c>
@@ -26814,8 +29997,11 @@
       <c r="BT330" t="s">
         <v>2839</v>
       </c>
-    </row>
-    <row r="331" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY330" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="331" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B331">
         <v>8</v>
       </c>
@@ -26846,8 +30032,11 @@
       <c r="BT331" t="s">
         <v>3042</v>
       </c>
-    </row>
-    <row r="332" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY331" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="332" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B332">
         <v>8</v>
       </c>
@@ -26878,8 +30067,11 @@
       <c r="BT332" t="s">
         <v>2841</v>
       </c>
-    </row>
-    <row r="333" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY332" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="333" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B333">
         <v>8</v>
       </c>
@@ -26910,8 +30102,11 @@
       <c r="BT333" t="s">
         <v>2842</v>
       </c>
-    </row>
-    <row r="334" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY333" t="s">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="334" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B334">
         <v>8</v>
       </c>
@@ -26942,8 +30137,11 @@
       <c r="BT334" t="s">
         <v>2843</v>
       </c>
-    </row>
-    <row r="335" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY334" t="s">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="335" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B335">
         <v>8</v>
       </c>
@@ -26974,8 +30172,11 @@
       <c r="BT335" t="s">
         <v>2844</v>
       </c>
-    </row>
-    <row r="336" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY335" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="336" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B336">
         <v>8</v>
       </c>
@@ -27006,8 +30207,11 @@
       <c r="BT336" t="s">
         <v>2845</v>
       </c>
-    </row>
-    <row r="337" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY336" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="337" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B337">
         <v>7</v>
       </c>
@@ -27038,8 +30242,11 @@
       <c r="BT337" t="s">
         <v>2846</v>
       </c>
-    </row>
-    <row r="338" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY337" t="s">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="338" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B338">
         <v>7</v>
       </c>
@@ -27070,8 +30277,11 @@
       <c r="BT338" t="s">
         <v>2847</v>
       </c>
-    </row>
-    <row r="339" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY338" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="339" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B339">
         <v>7</v>
       </c>
@@ -27102,8 +30312,11 @@
       <c r="BT339" t="s">
         <v>3043</v>
       </c>
-    </row>
-    <row r="340" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY339" t="s">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="340" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B340">
         <v>7</v>
       </c>
@@ -27134,8 +30347,11 @@
       <c r="BT340" t="s">
         <v>2849</v>
       </c>
-    </row>
-    <row r="341" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY340" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="341" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B341">
         <v>7</v>
       </c>
@@ -27166,8 +30382,11 @@
       <c r="BT341" t="s">
         <v>2850</v>
       </c>
-    </row>
-    <row r="342" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY341" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="342" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B342">
         <v>7</v>
       </c>
@@ -27198,8 +30417,11 @@
       <c r="BT342" t="s">
         <v>2851</v>
       </c>
-    </row>
-    <row r="343" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY342" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="343" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B343">
         <v>7</v>
       </c>
@@ -27230,8 +30452,11 @@
       <c r="BT343" t="s">
         <v>3044</v>
       </c>
-    </row>
-    <row r="344" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY343" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="344" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B344">
         <v>7</v>
       </c>
@@ -27262,8 +30487,11 @@
       <c r="BT344" t="s">
         <v>2853</v>
       </c>
-    </row>
-    <row r="345" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY344" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="345" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B345">
         <v>7</v>
       </c>
@@ -27294,8 +30522,11 @@
       <c r="BT345" t="s">
         <v>2854</v>
       </c>
-    </row>
-    <row r="346" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY345" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="346" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B346">
         <v>7</v>
       </c>
@@ -27326,8 +30557,11 @@
       <c r="BT346" t="s">
         <v>2855</v>
       </c>
-    </row>
-    <row r="347" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY346" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="347" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B347">
         <v>6</v>
       </c>
@@ -27358,8 +30592,11 @@
       <c r="BT347" t="s">
         <v>2856</v>
       </c>
-    </row>
-    <row r="348" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY347" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="348" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B348">
         <v>7</v>
       </c>
@@ -27390,8 +30627,11 @@
       <c r="BT348" t="s">
         <v>2857</v>
       </c>
-    </row>
-    <row r="349" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY348" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="349" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B349">
         <v>7</v>
       </c>
@@ -27422,8 +30662,11 @@
       <c r="BT349" t="s">
         <v>2858</v>
       </c>
-    </row>
-    <row r="350" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY349" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="350" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B350">
         <v>7</v>
       </c>
@@ -27454,8 +30697,11 @@
       <c r="BT350" t="s">
         <v>2859</v>
       </c>
-    </row>
-    <row r="351" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY350" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="351" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B351">
         <v>6</v>
       </c>
@@ -27486,8 +30732,11 @@
       <c r="BT351" t="s">
         <v>2860</v>
       </c>
-    </row>
-    <row r="352" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY351" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="352" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B352">
         <v>6</v>
       </c>
@@ -27518,8 +30767,11 @@
       <c r="BT352" t="s">
         <v>3045</v>
       </c>
-    </row>
-    <row r="353" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY352" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="353" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B353">
         <v>6</v>
       </c>
@@ -27550,8 +30802,11 @@
       <c r="BT353" t="s">
         <v>3045</v>
       </c>
-    </row>
-    <row r="354" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY353" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="354" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B354">
         <v>6</v>
       </c>
@@ -27582,8 +30837,11 @@
       <c r="BT354" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="355" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY354" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="355" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B355">
         <v>6</v>
       </c>
@@ -27614,8 +30872,11 @@
       <c r="BT355" t="s">
         <v>2862</v>
       </c>
-    </row>
-    <row r="356" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY355" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="356" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B356">
         <v>6</v>
       </c>
@@ -27646,8 +30907,11 @@
       <c r="BT356" t="s">
         <v>2863</v>
       </c>
-    </row>
-    <row r="357" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY356" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="357" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B357">
         <v>6</v>
       </c>
@@ -27678,8 +30942,11 @@
       <c r="BT357" t="s">
         <v>2864</v>
       </c>
-    </row>
-    <row r="358" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY357" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="358" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B358">
         <v>6</v>
       </c>
@@ -27710,8 +30977,11 @@
       <c r="BT358" t="s">
         <v>2865</v>
       </c>
-    </row>
-    <row r="359" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY358" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="359" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B359">
         <v>6</v>
       </c>
@@ -27742,8 +31012,11 @@
       <c r="BT359" t="s">
         <v>2866</v>
       </c>
-    </row>
-    <row r="360" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY359" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="360" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B360">
         <v>6</v>
       </c>
@@ -27774,8 +31047,11 @@
       <c r="BT360" t="s">
         <v>2866</v>
       </c>
-    </row>
-    <row r="361" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY360" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="361" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B361">
         <v>6</v>
       </c>
@@ -27806,8 +31082,11 @@
       <c r="BT361" t="s">
         <v>2867</v>
       </c>
-    </row>
-    <row r="362" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY361" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="362" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B362">
         <v>5</v>
       </c>
@@ -27838,8 +31117,11 @@
       <c r="BT362" t="s">
         <v>2868</v>
       </c>
-    </row>
-    <row r="363" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY362" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="363" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B363">
         <v>5</v>
       </c>
@@ -27870,8 +31152,11 @@
       <c r="BT363" t="s">
         <v>2869</v>
       </c>
-    </row>
-    <row r="364" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY363" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="364" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B364">
         <v>5</v>
       </c>
@@ -27902,8 +31187,11 @@
       <c r="BT364" t="s">
         <v>2869</v>
       </c>
-    </row>
-    <row r="365" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY364" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="365" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B365">
         <v>5</v>
       </c>
@@ -27934,8 +31222,11 @@
       <c r="BT365" t="s">
         <v>2870</v>
       </c>
-    </row>
-    <row r="366" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY365" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="366" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B366">
         <v>5</v>
       </c>
@@ -27966,8 +31257,11 @@
       <c r="BT366" t="s">
         <v>2871</v>
       </c>
-    </row>
-    <row r="367" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY366" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="367" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B367">
         <v>6</v>
       </c>
@@ -27998,8 +31292,11 @@
       <c r="BT367" t="s">
         <v>2872</v>
       </c>
-    </row>
-    <row r="368" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY367" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="368" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B368">
         <v>5</v>
       </c>
@@ -28030,8 +31327,11 @@
       <c r="BT368" t="s">
         <v>2872</v>
       </c>
-    </row>
-    <row r="369" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY368" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="369" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B369">
         <v>5</v>
       </c>
@@ -28062,8 +31362,11 @@
       <c r="BT369" t="s">
         <v>2873</v>
       </c>
-    </row>
-    <row r="370" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY369" t="s">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="370" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B370">
         <v>5</v>
       </c>
@@ -28094,8 +31397,11 @@
       <c r="BT370" t="s">
         <v>2873</v>
       </c>
-    </row>
-    <row r="371" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY370" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="371" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B371">
         <v>6</v>
       </c>
@@ -28126,8 +31432,11 @@
       <c r="BT371" t="s">
         <v>2874</v>
       </c>
-    </row>
-    <row r="372" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY371" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="372" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B372">
         <v>5</v>
       </c>
@@ -28158,8 +31467,11 @@
       <c r="BT372" t="s">
         <v>2875</v>
       </c>
-    </row>
-    <row r="373" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY372" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="373" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B373">
         <v>5</v>
       </c>
@@ -28190,8 +31502,11 @@
       <c r="BT373" t="s">
         <v>2875</v>
       </c>
-    </row>
-    <row r="374" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY373" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="374" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B374">
         <v>5</v>
       </c>
@@ -28222,8 +31537,11 @@
       <c r="BT374" t="s">
         <v>2876</v>
       </c>
-    </row>
-    <row r="375" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY374" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="375" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B375">
         <v>5</v>
       </c>
@@ -28254,8 +31572,11 @@
       <c r="BT375" t="s">
         <v>2876</v>
       </c>
-    </row>
-    <row r="376" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY375" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="376" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B376">
         <v>5</v>
       </c>
@@ -28286,8 +31607,11 @@
       <c r="BT376" t="s">
         <v>2877</v>
       </c>
-    </row>
-    <row r="377" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY376" t="s">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="377" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B377">
         <v>5</v>
       </c>
@@ -28318,8 +31642,11 @@
       <c r="BT377" t="s">
         <v>2877</v>
       </c>
-    </row>
-    <row r="378" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY377" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="378" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B378">
         <v>5</v>
       </c>
@@ -28350,8 +31677,11 @@
       <c r="BT378" t="s">
         <v>2878</v>
       </c>
-    </row>
-    <row r="379" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY378" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="379" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B379">
         <v>5</v>
       </c>
@@ -28382,8 +31712,11 @@
       <c r="BT379" t="s">
         <v>2878</v>
       </c>
-    </row>
-    <row r="380" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY379" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="380" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B380">
         <v>5</v>
       </c>
@@ -28414,8 +31747,11 @@
       <c r="BT380" t="s">
         <v>2879</v>
       </c>
-    </row>
-    <row r="381" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY380" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="381" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B381">
         <v>5</v>
       </c>
@@ -28446,8 +31782,11 @@
       <c r="BT381" t="s">
         <v>2879</v>
       </c>
-    </row>
-    <row r="382" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY381" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="382" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B382">
         <v>5</v>
       </c>
@@ -28478,8 +31817,11 @@
       <c r="BT382" t="s">
         <v>2879</v>
       </c>
-    </row>
-    <row r="383" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY382" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="383" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B383">
         <v>5</v>
       </c>
@@ -28510,8 +31852,11 @@
       <c r="BT383" t="s">
         <v>2880</v>
       </c>
-    </row>
-    <row r="384" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY383" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="384" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B384">
         <v>4</v>
       </c>
@@ -28542,8 +31887,11 @@
       <c r="BT384" t="s">
         <v>2880</v>
       </c>
-    </row>
-    <row r="385" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY384" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="385" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B385">
         <v>5</v>
       </c>
@@ -28574,8 +31922,11 @@
       <c r="BT385" t="s">
         <v>2881</v>
       </c>
-    </row>
-    <row r="386" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY385" t="s">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="386" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B386">
         <v>4</v>
       </c>
@@ -28606,8 +31957,11 @@
       <c r="BT386" t="s">
         <v>2881</v>
       </c>
-    </row>
-    <row r="387" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY386" t="s">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="387" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B387">
         <v>4</v>
       </c>
@@ -28638,8 +31992,11 @@
       <c r="BT387" t="s">
         <v>2882</v>
       </c>
-    </row>
-    <row r="388" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY387" t="s">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="388" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B388">
         <v>4</v>
       </c>
@@ -28670,8 +32027,11 @@
       <c r="BT388" t="s">
         <v>2882</v>
       </c>
-    </row>
-    <row r="389" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY388" t="s">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="389" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B389">
         <v>4</v>
       </c>
@@ -28702,8 +32062,11 @@
       <c r="BT389" t="s">
         <v>2883</v>
       </c>
-    </row>
-    <row r="390" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY389" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="390" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B390">
         <v>4</v>
       </c>
@@ -28734,8 +32097,11 @@
       <c r="BT390" t="s">
         <v>2883</v>
       </c>
-    </row>
-    <row r="391" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY390" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="391" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B391">
         <v>4</v>
       </c>
@@ -28766,8 +32132,11 @@
       <c r="BT391" t="s">
         <v>2884</v>
       </c>
-    </row>
-    <row r="392" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY391" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="392" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B392">
         <v>4</v>
       </c>
@@ -28798,8 +32167,11 @@
       <c r="BT392" t="s">
         <v>2884</v>
       </c>
-    </row>
-    <row r="393" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY392" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="393" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B393">
         <v>4</v>
       </c>
@@ -28830,8 +32202,11 @@
       <c r="BT393" t="s">
         <v>2884</v>
       </c>
-    </row>
-    <row r="394" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY393" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="394" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B394">
         <v>4</v>
       </c>
@@ -28862,8 +32237,11 @@
       <c r="BT394" t="s">
         <v>2885</v>
       </c>
-    </row>
-    <row r="395" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY394" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="395" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B395">
         <v>4</v>
       </c>
@@ -28894,8 +32272,11 @@
       <c r="BT395" t="s">
         <v>2885</v>
       </c>
-    </row>
-    <row r="396" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY395" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="396" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B396">
         <v>4</v>
       </c>
@@ -28926,8 +32307,11 @@
       <c r="BT396" t="s">
         <v>2885</v>
       </c>
-    </row>
-    <row r="397" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY396" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="397" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B397">
         <v>4</v>
       </c>
@@ -28958,8 +32342,11 @@
       <c r="BT397" t="s">
         <v>2886</v>
       </c>
-    </row>
-    <row r="398" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY397" t="s">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="398" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B398">
         <v>4</v>
       </c>
@@ -28990,8 +32377,11 @@
       <c r="BT398" t="s">
         <v>2886</v>
       </c>
-    </row>
-    <row r="399" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY398" t="s">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="399" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B399">
         <v>4</v>
       </c>
@@ -29022,8 +32412,11 @@
       <c r="BT399" t="s">
         <v>2886</v>
       </c>
-    </row>
-    <row r="400" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY399" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="400" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B400">
         <v>4</v>
       </c>
@@ -29054,8 +32447,11 @@
       <c r="BT400" t="s">
         <v>2886</v>
       </c>
-    </row>
-    <row r="401" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY400" t="s">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="401" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B401">
         <v>4</v>
       </c>
@@ -29086,8 +32482,11 @@
       <c r="BT401" t="s">
         <v>2886</v>
       </c>
-    </row>
-    <row r="402" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY401" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="402" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B402">
         <v>4</v>
       </c>
@@ -29118,8 +32517,11 @@
       <c r="BT402" t="s">
         <v>2887</v>
       </c>
-    </row>
-    <row r="403" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY402" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="403" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B403">
         <v>4</v>
       </c>
@@ -29150,8 +32552,11 @@
       <c r="BT403" t="s">
         <v>2887</v>
       </c>
-    </row>
-    <row r="404" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY403" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="404" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B404">
         <v>4</v>
       </c>
@@ -29182,8 +32587,11 @@
       <c r="BT404" t="s">
         <v>2888</v>
       </c>
-    </row>
-    <row r="405" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY404" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="405" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B405">
         <v>3</v>
       </c>
@@ -29214,8 +32622,11 @@
       <c r="BT405" t="s">
         <v>2888</v>
       </c>
-    </row>
-    <row r="406" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY405" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="406" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B406">
         <v>4</v>
       </c>
@@ -29246,8 +32657,11 @@
       <c r="BT406" t="s">
         <v>2888</v>
       </c>
-    </row>
-    <row r="407" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY406" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="407" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B407">
         <v>3</v>
       </c>
@@ -29278,8 +32692,11 @@
       <c r="BT407" t="s">
         <v>2888</v>
       </c>
-    </row>
-    <row r="408" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY407" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="408" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B408">
         <v>4</v>
       </c>
@@ -29310,8 +32727,11 @@
       <c r="BT408" t="s">
         <v>3046</v>
       </c>
-    </row>
-    <row r="409" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY408" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="409" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B409">
         <v>3</v>
       </c>
@@ -29342,8 +32762,11 @@
       <c r="BT409" t="s">
         <v>3046</v>
       </c>
-    </row>
-    <row r="410" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY409" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="410" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B410">
         <v>3</v>
       </c>
@@ -29374,8 +32797,11 @@
       <c r="BT410" t="s">
         <v>3046</v>
       </c>
-    </row>
-    <row r="411" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY410" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="411" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B411">
         <v>3</v>
       </c>
@@ -29406,8 +32832,11 @@
       <c r="BT411" t="s">
         <v>3046</v>
       </c>
-    </row>
-    <row r="412" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY411" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="412" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B412">
         <v>4</v>
       </c>
@@ -29438,8 +32867,11 @@
       <c r="BT412" t="s">
         <v>3046</v>
       </c>
-    </row>
-    <row r="413" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY412" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="413" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B413">
         <v>3</v>
       </c>
@@ -29470,8 +32902,11 @@
       <c r="BT413" t="s">
         <v>3047</v>
       </c>
-    </row>
-    <row r="414" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY413" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="414" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B414">
         <v>3</v>
       </c>
@@ -29502,8 +32937,11 @@
       <c r="BT414" t="s">
         <v>3047</v>
       </c>
-    </row>
-    <row r="415" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY414" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="415" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B415">
         <v>3</v>
       </c>
@@ -29534,8 +32972,11 @@
       <c r="BT415" t="s">
         <v>3047</v>
       </c>
-    </row>
-    <row r="416" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY415" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="416" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B416">
         <v>3</v>
       </c>
@@ -29566,8 +33007,11 @@
       <c r="BT416" t="s">
         <v>3047</v>
       </c>
-    </row>
-    <row r="417" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY416" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="417" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B417">
         <v>3</v>
       </c>
@@ -29595,8 +33039,11 @@
       <c r="BT417" t="s">
         <v>3048</v>
       </c>
-    </row>
-    <row r="418" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY417" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="418" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B418">
         <v>3</v>
       </c>
@@ -29624,8 +33071,11 @@
       <c r="BT418" t="s">
         <v>3048</v>
       </c>
-    </row>
-    <row r="419" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY418" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="419" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B419">
         <v>3</v>
       </c>
@@ -29653,8 +33103,11 @@
       <c r="BT419" t="s">
         <v>3048</v>
       </c>
-    </row>
-    <row r="420" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY419" t="s">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="420" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B420">
         <v>3</v>
       </c>
@@ -29682,8 +33135,11 @@
       <c r="BT420" t="s">
         <v>3048</v>
       </c>
-    </row>
-    <row r="421" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY420" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="421" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B421">
         <v>3</v>
       </c>
@@ -29711,8 +33167,11 @@
       <c r="BT421" t="s">
         <v>3048</v>
       </c>
-    </row>
-    <row r="422" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY421" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="422" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B422">
         <v>3</v>
       </c>
@@ -29740,8 +33199,11 @@
       <c r="BT422" t="s">
         <v>3049</v>
       </c>
-    </row>
-    <row r="423" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY422" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="423" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B423">
         <v>3</v>
       </c>
@@ -29769,8 +33231,11 @@
       <c r="BT423" t="s">
         <v>3048</v>
       </c>
-    </row>
-    <row r="424" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY423" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="424" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B424">
         <v>3</v>
       </c>
@@ -29798,8 +33263,11 @@
       <c r="BT424" t="s">
         <v>3049</v>
       </c>
-    </row>
-    <row r="425" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY424" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="425" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B425">
         <v>3</v>
       </c>
@@ -29827,8 +33295,11 @@
       <c r="BT425" t="s">
         <v>3049</v>
       </c>
-    </row>
-    <row r="426" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY425" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="426" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B426">
         <v>3</v>
       </c>
@@ -29856,8 +33327,11 @@
       <c r="BT426" t="s">
         <v>3050</v>
       </c>
-    </row>
-    <row r="427" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY426" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="427" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B427">
         <v>3</v>
       </c>
@@ -29885,8 +33359,11 @@
       <c r="BT427" t="s">
         <v>3049</v>
       </c>
-    </row>
-    <row r="428" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY427" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="428" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B428">
         <v>3</v>
       </c>
@@ -29914,8 +33391,11 @@
       <c r="BT428" t="s">
         <v>3050</v>
       </c>
-    </row>
-    <row r="429" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY428" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="429" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B429">
         <v>3</v>
       </c>
@@ -29943,8 +33423,11 @@
       <c r="BT429" t="s">
         <v>3050</v>
       </c>
-    </row>
-    <row r="430" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY429" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="430" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B430">
         <v>3</v>
       </c>
@@ -29972,8 +33455,11 @@
       <c r="BT430" t="s">
         <v>3050</v>
       </c>
-    </row>
-    <row r="431" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY430" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="431" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B431">
         <v>3</v>
       </c>
@@ -30001,8 +33487,11 @@
       <c r="BT431" t="s">
         <v>3050</v>
       </c>
-    </row>
-    <row r="432" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY431" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="432" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B432">
         <v>3</v>
       </c>
@@ -30030,8 +33519,11 @@
       <c r="BT432" t="s">
         <v>3050</v>
       </c>
-    </row>
-    <row r="433" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY432" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="433" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B433">
         <v>3</v>
       </c>
@@ -30059,8 +33551,11 @@
       <c r="BT433" t="s">
         <v>3050</v>
       </c>
-    </row>
-    <row r="434" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY433" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="434" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B434">
         <v>3</v>
       </c>
@@ -30088,8 +33583,11 @@
       <c r="BT434" t="s">
         <v>3050</v>
       </c>
-    </row>
-    <row r="435" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY434" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="435" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B435">
         <v>3</v>
       </c>
@@ -30117,8 +33615,11 @@
       <c r="BT435" t="s">
         <v>3051</v>
       </c>
-    </row>
-    <row r="436" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY435" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="436" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B436">
         <v>2</v>
       </c>
@@ -30146,8 +33647,11 @@
       <c r="BT436" t="s">
         <v>3051</v>
       </c>
-    </row>
-    <row r="437" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY436" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="437" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B437">
         <v>3</v>
       </c>
@@ -30175,8 +33679,11 @@
       <c r="BT437" t="s">
         <v>3051</v>
       </c>
-    </row>
-    <row r="438" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY437" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="438" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B438">
         <v>3</v>
       </c>
@@ -30204,8 +33711,11 @@
       <c r="BT438" t="s">
         <v>3051</v>
       </c>
-    </row>
-    <row r="439" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY438" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="439" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B439">
         <v>3</v>
       </c>
@@ -30233,8 +33743,11 @@
       <c r="BT439" t="s">
         <v>3051</v>
       </c>
-    </row>
-    <row r="440" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY439" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="440" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B440">
         <v>3</v>
       </c>
@@ -30262,8 +33775,11 @@
       <c r="BT440" t="s">
         <v>3052</v>
       </c>
-    </row>
-    <row r="441" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY440" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="441" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B441">
         <v>3</v>
       </c>
@@ -30291,8 +33807,11 @@
       <c r="BT441" t="s">
         <v>3051</v>
       </c>
-    </row>
-    <row r="442" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY441" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="442" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B442">
         <v>2</v>
       </c>
@@ -30320,8 +33839,11 @@
       <c r="BT442" t="s">
         <v>3052</v>
       </c>
-    </row>
-    <row r="443" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY442" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="443" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B443">
         <v>2</v>
       </c>
@@ -30349,8 +33871,11 @@
       <c r="BT443" t="s">
         <v>3052</v>
       </c>
-    </row>
-    <row r="444" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY443" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="444" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B444">
         <v>2</v>
       </c>
@@ -30378,8 +33903,11 @@
       <c r="BT444" t="s">
         <v>3052</v>
       </c>
-    </row>
-    <row r="445" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY444" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="445" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B445">
         <v>2</v>
       </c>
@@ -30407,8 +33935,11 @@
       <c r="BT445" t="s">
         <v>3052</v>
       </c>
-    </row>
-    <row r="446" spans="2:72" x14ac:dyDescent="0.25">
+      <c r="BY445" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="446" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B446">
         <v>2</v>
       </c>
@@ -30437,7 +33968,7 @@
         <v>3052</v>
       </c>
     </row>
-    <row r="447" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B447">
         <v>2</v>
       </c>
@@ -30466,7 +33997,7 @@
         <v>3052</v>
       </c>
     </row>
-    <row r="448" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B448">
         <v>2</v>
       </c>
